--- a/Output/Current_Event_Simulation.xlsx
+++ b/Output/Current_Event_Simulation.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmyers\Documents\ETC\Sports\Golf\Golf_Ratings_R\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="26580" windowHeight="12330"/>
+    <workbookView xWindow="2325" yWindow="0" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Current_Event_Simulation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="136">
   <si>
     <t>Event_Name</t>
   </si>
@@ -63,10 +63,55 @@
     <t>Recent_Tour</t>
   </si>
   <si>
-    <t>UBS Hong Kong Open</t>
-  </si>
-  <si>
-    <t>Asian Tour</t>
+    <t>Masters Tournament</t>
+  </si>
+  <si>
+    <t>Major Championship</t>
+  </si>
+  <si>
+    <t>Rory McIlroy</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>PGA Tour</t>
+  </si>
+  <si>
+    <t>Dustin Johnson</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Henrik Stenson</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Jordan Spieth</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Hideki Matsuyama</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Rickie Fowler</t>
+  </si>
+  <si>
+    <t>Jon Rahm</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
   <si>
     <t>Justin Rose</t>
@@ -75,478 +120,304 @@
     <t>ENG</t>
   </si>
   <si>
-    <t>PGA Tour</t>
+    <t>Sergio Garcia</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Paul Casey</t>
+  </si>
+  <si>
+    <t>Phil Mickelson</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Francesco Molinari</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Brandt Snedeker</t>
+  </si>
+  <si>
+    <t>Tyrrell Hatton</t>
+  </si>
+  <si>
+    <t>Adam Hadwin</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Alex Noren</t>
+  </si>
+  <si>
+    <t>European Tour</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>Martin Kaymer</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Daniel Berger</t>
+  </si>
+  <si>
+    <t>Marc Leishman</t>
+  </si>
+  <si>
+    <t>Kevin Kisner</t>
+  </si>
+  <si>
+    <t>Bill Haas</t>
+  </si>
+  <si>
+    <t>Charl Schwartzel</t>
+  </si>
+  <si>
+    <t>RSA</t>
   </si>
   <si>
     <t>Patrick Reed</t>
   </si>
   <si>
-    <t>USA</t>
+    <t>Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t>Brendan Steele</t>
+  </si>
+  <si>
+    <t>Bubba Watson</t>
+  </si>
+  <si>
+    <t>Ryan Moore</t>
+  </si>
+  <si>
+    <t>Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Russell Henley</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Jim Furyk</t>
+  </si>
+  <si>
+    <t>J.B. Holmes</t>
+  </si>
+  <si>
+    <t>Jason Dufner</t>
+  </si>
+  <si>
+    <t>Russell Knox</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>Pat Perez</t>
+  </si>
+  <si>
+    <t>Shane Lowry</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Zach Johnson</t>
   </si>
   <si>
     <t>Rafael Cabrera Bello</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>European Tour</t>
+    <t>Jimmy Walker</t>
+  </si>
+  <si>
+    <t>Ross Fisher</t>
+  </si>
+  <si>
+    <t>Kevin Na</t>
+  </si>
+  <si>
+    <t>Lee Westwood</t>
+  </si>
+  <si>
+    <t>Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Branden Grace</t>
+  </si>
+  <si>
+    <t>Charley Hoffman</t>
+  </si>
+  <si>
+    <t>Scott Piercy</t>
+  </si>
+  <si>
+    <t>Webb Simpson</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t>Andy Sullivan</t>
+  </si>
+  <si>
+    <t>Thomas Pieters</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Kevin Chappell</t>
+  </si>
+  <si>
+    <t>Jhonattan Vegas</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Steve Stricker</t>
   </si>
   <si>
     <t>Danny Willett</t>
   </si>
   <si>
-    <t>Thongchai Jaidee</t>
-  </si>
-  <si>
-    <t>THA</t>
+    <t>Hudson Swafford</t>
+  </si>
+  <si>
+    <t>Byeong Hun An</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>Chris Wood</t>
+  </si>
+  <si>
+    <t>William McGirt</t>
+  </si>
+  <si>
+    <t>Soren Kjeldsen</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Hideto Tanihara</t>
+  </si>
+  <si>
+    <t>Japan Golf Tour</t>
   </si>
   <si>
     <t>Jeunghun Wang</t>
   </si>
   <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>Tommy Fleetwood</t>
-  </si>
-  <si>
-    <t>Ian Poulter</t>
-  </si>
-  <si>
-    <t>Gregory Bourdy</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>Scott Hend</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Kiradech Aphibarnrat</t>
-  </si>
-  <si>
-    <t>Julien Quesne</t>
-  </si>
-  <si>
-    <t>David Lipsky</t>
-  </si>
-  <si>
-    <t>Mikko Ilonen</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Pablo Larrazabal</t>
-  </si>
-  <si>
-    <t>Thomas Detry</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>European Challenge Tour</t>
-  </si>
-  <si>
-    <t>Benjamin Hebert</t>
-  </si>
-  <si>
-    <t>Romain Wattel</t>
-  </si>
-  <si>
-    <t>Paul Dunne</t>
-  </si>
-  <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>David Howell</t>
-  </si>
-  <si>
-    <t>Robert Rock</t>
-  </si>
-  <si>
-    <t>Jordan L Smith</t>
-  </si>
-  <si>
-    <t>Jorge Campillo</t>
-  </si>
-  <si>
-    <t>Peter Uihlein</t>
-  </si>
-  <si>
-    <t>AUS Logo2</t>
-  </si>
-  <si>
-    <t>Stephen Gallacher</t>
-  </si>
-  <si>
-    <t>SCO</t>
-  </si>
-  <si>
-    <t>Marcus Fraser</t>
-  </si>
-  <si>
-    <t>Miguel A Jimenez</t>
-  </si>
-  <si>
-    <t>Magnus A Carlsson</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Bernd Ritthammer</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Alexander Bjork</t>
-  </si>
-  <si>
-    <t>Matthieu Pavon</t>
-  </si>
-  <si>
-    <t>Chris Hanson</t>
-  </si>
-  <si>
-    <t>Renato Paratore</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Nacho Elvira</t>
-  </si>
-  <si>
-    <t>Prom Meesawat</t>
-  </si>
-  <si>
-    <t>Graeme Storm</t>
-  </si>
-  <si>
-    <t>David Drysdale</t>
-  </si>
-  <si>
-    <t>Nino Bertasio</t>
-  </si>
-  <si>
-    <t>Brett Rumford</t>
-  </si>
-  <si>
-    <t>Dylan Frittelli</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>Jason Scrivener</t>
-  </si>
-  <si>
-    <t>Pep Angles Ros</t>
-  </si>
-  <si>
-    <t>Paul Peterson</t>
-  </si>
-  <si>
-    <t>Paul Waring</t>
-  </si>
-  <si>
-    <t>Andrew Dodt</t>
-  </si>
-  <si>
-    <t>Jbe' Kruger</t>
+    <t>Yuta Ikeda</t>
+  </si>
+  <si>
+    <t>Sean O'Hair</t>
+  </si>
+  <si>
+    <t>James Hahn</t>
+  </si>
+  <si>
+    <t>Roberto Castro</t>
+  </si>
+  <si>
+    <t>Daniel Summerhays</t>
+  </si>
+  <si>
+    <t>Siwoo Kim</t>
+  </si>
+  <si>
+    <t>Brian Stuard</t>
+  </si>
+  <si>
+    <t>Billy Hurley III</t>
+  </si>
+  <si>
+    <t>Rod Pampling</t>
+  </si>
+  <si>
+    <t>Vijay Singh</t>
+  </si>
+  <si>
+    <t>FIJ</t>
+  </si>
+  <si>
+    <t>Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t>Ernie Els</t>
+  </si>
+  <si>
+    <t>Curtis Luck(Am)</t>
+  </si>
+  <si>
+    <t>Angel Cabrera</t>
+  </si>
+  <si>
+    <t>Trevor Immelman</t>
   </si>
   <si>
     <t>Sunshine Tour</t>
   </si>
   <si>
-    <t>Chris Paisley</t>
-  </si>
-  <si>
-    <t>Rashid Khan</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>Gaganjeet Bhullar</t>
-  </si>
-  <si>
-    <t>Wade Ormsby</t>
-  </si>
-  <si>
-    <t>Jyoti Randhawa</t>
-  </si>
-  <si>
-    <t>Daniel Brooks</t>
-  </si>
-  <si>
-    <t>Lasse Jensen</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Gregory Havret</t>
-  </si>
-  <si>
-    <t>S.S.P. Chawrasia</t>
-  </si>
-  <si>
-    <t>Dou Ze-cheng</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>PGA Tour China</t>
-  </si>
-  <si>
-    <t>Edoardo Molinari</t>
-  </si>
-  <si>
-    <t>Sam Walker</t>
-  </si>
-  <si>
-    <t>Sebastien Gros</t>
-  </si>
-  <si>
-    <t>Keith Horne</t>
-  </si>
-  <si>
-    <t>Adilson da Silva</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>Joel Stalter</t>
-  </si>
-  <si>
-    <t>Justin Walters</t>
-  </si>
-  <si>
-    <t>Masahiro Kawamura</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Japan Golf Tour</t>
-  </si>
-  <si>
-    <t>Liang Wen-chong</t>
-  </si>
-  <si>
-    <t>Carlos Pigem</t>
-  </si>
-  <si>
-    <t>Jazz Janewattananond</t>
-  </si>
-  <si>
-    <t>Terry Pilkadaris</t>
-  </si>
-  <si>
-    <t>Daniel Im</t>
-  </si>
-  <si>
-    <t>Shaun Norris</t>
-  </si>
-  <si>
-    <t>Duncan Stewart</t>
-  </si>
-  <si>
-    <t>Sam Brazel</t>
-  </si>
-  <si>
-    <t>Soomin Lee</t>
-  </si>
-  <si>
-    <t>Chan Shih-chang</t>
-  </si>
-  <si>
-    <t>TPE</t>
-  </si>
-  <si>
-    <t>Lionel Weber</t>
-  </si>
-  <si>
-    <t>Panuphol Pittayarat</t>
-  </si>
-  <si>
-    <t>Damien Perrier</t>
-  </si>
-  <si>
-    <t>Lu Wei-chih</t>
-  </si>
-  <si>
-    <t>Shiv Kapur</t>
-  </si>
-  <si>
-    <t>Rahil Gangjee</t>
-  </si>
-  <si>
-    <t>Thanyakorn Khrongpha</t>
-  </si>
-  <si>
-    <t>Angelo Que</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>Richard T Lee</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>Miguel Tabuena</t>
-  </si>
-  <si>
-    <t>Thitiphun Chuayprakong</t>
-  </si>
-  <si>
-    <t>Chapchai Nirat</t>
-  </si>
-  <si>
-    <t>Natipong Srithong</t>
-  </si>
-  <si>
-    <t>Pavit Tangkamolprasert</t>
-  </si>
-  <si>
-    <t>Siddikur Rahman</t>
-  </si>
-  <si>
-    <t>BAN</t>
-  </si>
-  <si>
-    <t>Haydn Porteous</t>
-  </si>
-  <si>
-    <t>Antonio Lascuna</t>
-  </si>
-  <si>
-    <t>Juvic Pagunsan</t>
-  </si>
-  <si>
-    <t>Lin Wen-Tang</t>
-  </si>
-  <si>
-    <t>Steven Tiley</t>
-  </si>
-  <si>
-    <t>Jason Knutzon</t>
-  </si>
-  <si>
-    <t>Nicholas Fung</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>Danny Chia</t>
-  </si>
-  <si>
-    <t>Hung Chien-Yao</t>
-  </si>
-  <si>
-    <t>Marcus Armitage</t>
-  </si>
-  <si>
-    <t>Danthai Boonma</t>
-  </si>
-  <si>
-    <t>Scott Henry</t>
-  </si>
-  <si>
-    <t>Chinnarat Phadungsil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Colomo </t>
-  </si>
-  <si>
-    <t>Chiragh Kumar</t>
-  </si>
-  <si>
-    <t>Scott Barr</t>
-  </si>
-  <si>
-    <t>Pariya Junhasavasdikul</t>
-  </si>
-  <si>
-    <t>Arjun Atwal</t>
-  </si>
-  <si>
-    <t>Kalem Richardson</t>
-  </si>
-  <si>
-    <t>Mardan Mamat</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>Lee Chieh-po</t>
-  </si>
-  <si>
-    <t>Simon Dyson</t>
-  </si>
-  <si>
-    <t>Mithun Perera</t>
-  </si>
-  <si>
-    <t>SRI</t>
-  </si>
-  <si>
-    <t>Adam Groom</t>
-  </si>
-  <si>
-    <t>Himmat Rai</t>
-  </si>
-  <si>
-    <t>Brett Munson</t>
-  </si>
-  <si>
-    <t>Steve Lewton</t>
-  </si>
-  <si>
-    <t>Unho Park</t>
-  </si>
-  <si>
-    <t>Chawalit Plaphol</t>
-  </si>
-  <si>
-    <t>Nathan Kimsey</t>
-  </si>
-  <si>
-    <t>EuroPro Tour</t>
-  </si>
-  <si>
-    <t>Zhang Lian-Wei</t>
+    <t>Jose M Olazabal</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Rich Beem</t>
-  </si>
-  <si>
-    <t>James Stewart</t>
-  </si>
-  <si>
-    <t>Terrance Ng(Am)</t>
-  </si>
-  <si>
-    <t>Yin ho Yue(Am)</t>
+    <t>Mike Weir</t>
+  </si>
+  <si>
+    <t>Fred Couples</t>
+  </si>
+  <si>
+    <t>Larry Mize</t>
+  </si>
+  <si>
+    <t>Mark O'Meara</t>
+  </si>
+  <si>
+    <t>Bernhard Langer</t>
+  </si>
+  <si>
+    <t>Sandy Lyle</t>
+  </si>
+  <si>
+    <t>Ian Woosnam</t>
+  </si>
+  <si>
+    <t>Brad Dalke</t>
+  </si>
+  <si>
+    <t>Scott Gregory(Am)</t>
   </si>
   <si>
     <t>by Daniel Myers (@DSMok1)</t>
@@ -555,13 +426,13 @@
     <t>Simulations for Upcoming Events</t>
   </si>
   <si>
-    <t>Updated  December 8, 2016</t>
+    <t>Updated  April 5, 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1173,9 +1044,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1208,9 +1079,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1390,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1400,29 +1271,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="D1" s="6"/>
       <c r="F1" s="7" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="6"/>
@@ -1485,37 +1356,37 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3">
-        <v>-1.84329834178972</v>
+        <v>-2.5024258537781301</v>
       </c>
       <c r="G3" s="3">
-        <v>2.35896192076792</v>
+        <v>2.3367110205396799</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>0.22409999999999999</v>
+        <v>9.98E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>0.54079999999999995</v>
+        <v>0.32335999999999998</v>
       </c>
       <c r="K3" s="2">
-        <v>0.70320000000000005</v>
+        <v>0.48982999999999999</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
@@ -1529,37 +1400,37 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="3">
-        <v>-1.4492958445080699</v>
+        <v>-2.42683223705711</v>
       </c>
       <c r="G4" s="3">
-        <v>2.28586241770858</v>
+        <v>2.38919798371766</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.12130000000000001</v>
+        <v>9.3369999999999995E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>0.40179999999999999</v>
+        <v>0.30321999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.57730000000000004</v>
+        <v>0.46250999999999998</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
@@ -1573,40 +1444,40 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3">
-        <v>-1.1248758944188499</v>
+        <v>-2.2203002152000102</v>
       </c>
       <c r="G5" s="3">
-        <v>2.2832842960806299</v>
+        <v>2.3783006692712698</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>6.6229999999999997E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>0.29239999999999999</v>
+        <v>0.24243000000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>0.45650000000000002</v>
+        <v>0.39324999999999999</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1617,40 +1488,40 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.87600164386158696</v>
+        <v>-2.2022786310415299</v>
       </c>
       <c r="G6" s="3">
-        <v>2.4848195892103302</v>
+        <v>2.2866496822311602</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>6.08E-2</v>
+        <v>5.7509999999999999E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>0.24010000000000001</v>
+        <v>0.2303</v>
       </c>
       <c r="K6" s="2">
-        <v>0.38109999999999999</v>
+        <v>0.38329000000000002</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1661,40 +1532,40 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.75237645793679797</v>
+        <v>-2.12550036070306</v>
       </c>
       <c r="G7" s="3">
-        <v>2.1281488536045599</v>
+        <v>2.3513919768096501</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="2">
-        <v>3.5799999999999998E-2</v>
+        <v>5.5289999999999999E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.18179999999999999</v>
+        <v>0.21481</v>
       </c>
       <c r="K7" s="2">
-        <v>0.3291</v>
+        <v>0.36158000000000001</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1705,40 +1576,40 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.21717328473200401</v>
+        <v>-1.9409766347969499</v>
       </c>
       <c r="G8" s="3">
-        <v>2.5753041216183599</v>
+        <v>2.3792048124032701</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>2.9899999999999999E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>0.1283</v>
+        <v>0.17612</v>
       </c>
       <c r="K8" s="2">
-        <v>0.22620000000000001</v>
+        <v>0.30531999999999998</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1749,40 +1620,40 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.53401301632433595</v>
+        <v>-1.87708386201095</v>
       </c>
       <c r="G9" s="3">
-        <v>2.2645003120149698</v>
+        <v>2.3478058990001802</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
       <c r="I9" s="2">
-        <v>2.5700000000000001E-2</v>
+        <v>3.6540000000000003E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>0.14180000000000001</v>
+        <v>0.15883</v>
       </c>
       <c r="K9" s="2">
-        <v>0.26719999999999999</v>
+        <v>0.28560000000000002</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1793,37 +1664,37 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.44803109593180301</v>
+        <v>-1.8790964312178</v>
       </c>
       <c r="G10" s="3">
-        <v>2.3331004442006602</v>
+        <v>2.2412340820832601</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>2.3900000000000001E-2</v>
+        <v>3.0769999999999999E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>0.13200000000000001</v>
+        <v>0.14852000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>0.24970000000000001</v>
+        <v>0.27629999999999999</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
@@ -1837,40 +1708,40 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.461859661890687</v>
+        <v>-1.8312338265396799</v>
       </c>
       <c r="G11" s="3">
-        <v>2.24353115462285</v>
+        <v>2.2731861231790802</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
       <c r="I11" s="2">
-        <v>2.1899999999999999E-2</v>
+        <v>2.904E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>0.1234</v>
+        <v>0.14041000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.24429999999999999</v>
+        <v>0.26455000000000001</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="1">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1881,40 +1752,40 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="3">
-        <v>-0.19432540931054099</v>
+        <v>-1.8172872994387601</v>
       </c>
       <c r="G12" s="3">
-        <v>2.5385487324852001</v>
+        <v>2.2639140609208299</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>2.18E-2</v>
+        <v>2.8160000000000001E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>0.1123</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="K12" s="2">
-        <v>0.20930000000000001</v>
+        <v>0.26057000000000002</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1925,40 +1796,40 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.21640341379668501</v>
+        <v>-1.65264589934683</v>
       </c>
       <c r="G13" s="3">
-        <v>2.3686943635297899</v>
+        <v>2.3714165391128001</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>1.49E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>9.7199999999999995E-2</v>
+        <v>0.11866</v>
       </c>
       <c r="K13" s="2">
-        <v>0.19550000000000001</v>
+        <v>0.2261</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1969,40 +1840,40 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3">
-        <v>-1.9495415661474801E-2</v>
+        <v>-1.6302496562406199</v>
       </c>
       <c r="G14" s="3">
-        <v>2.4109367547226199</v>
+        <v>2.2927993352817402</v>
       </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
       <c r="I14" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>2.0590000000000001E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>8.0100000000000005E-2</v>
+        <v>0.11076</v>
       </c>
       <c r="K14" s="2">
-        <v>0.16020000000000001</v>
+        <v>0.21601000000000001</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2013,40 +1884,40 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3">
-        <v>-5.3878765616024199E-2</v>
+        <v>-1.58699155737693</v>
       </c>
       <c r="G15" s="3">
-        <v>2.2959821820694901</v>
+        <v>2.2927090432133301</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>1.29E-2</v>
+        <v>1.949E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0099999999999996E-2</v>
+        <v>0.10349</v>
       </c>
       <c r="K15" s="2">
-        <v>0.14649999999999999</v>
+        <v>0.20352000000000001</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2057,40 +1928,40 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.126962081165822</v>
+        <v>-1.4808895043846899</v>
       </c>
       <c r="G16" s="3">
-        <v>2.3485146933184602</v>
+        <v>2.4128817925574899</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
       <c r="I16" s="2">
-        <v>1.2699999999999999E-2</v>
+        <v>1.9359999999999999E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>8.9399999999999993E-2</v>
+        <v>9.6479999999999996E-2</v>
       </c>
       <c r="K16" s="2">
-        <v>0.17929999999999999</v>
+        <v>0.18870999999999999</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2101,40 +1972,40 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.13923562800518099</v>
+        <v>-1.5185059172133</v>
       </c>
       <c r="G17" s="3">
-        <v>2.3220007404067</v>
+        <v>2.2512114700108499</v>
       </c>
       <c r="H17" s="1">
         <v>15</v>
       </c>
       <c r="I17" s="2">
-        <v>1.18E-2</v>
+        <v>1.5219999999999999E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>8.7400000000000005E-2</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>0.1779</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17" s="1">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2145,40 +2016,40 @@
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.112358365915056</v>
+        <v>-1.50006341888157</v>
       </c>
       <c r="G18" s="3">
-        <v>2.2904833849539501</v>
+        <v>2.2738068787842298</v>
       </c>
       <c r="H18" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2">
-        <v>1.18E-2</v>
+        <v>1.4840000000000001E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>7.5399999999999995E-2</v>
+        <v>8.6830000000000004E-2</v>
       </c>
       <c r="K18" s="2">
-        <v>0.16259999999999999</v>
+        <v>0.17948</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M18" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2189,40 +2060,40 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
-        <v>-3.3262632916637898E-2</v>
+        <v>-1.3800866979908399</v>
       </c>
       <c r="G19" s="3">
-        <v>2.33767764978982</v>
+        <v>2.3033126276381899</v>
       </c>
       <c r="H19" s="1">
         <v>17</v>
       </c>
       <c r="I19" s="2">
-        <v>1.17E-2</v>
+        <v>1.308E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>7.3700000000000002E-2</v>
+        <v>7.4459999999999998E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>0.15140000000000001</v>
+        <v>0.15575</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M19" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2233,40 +2104,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3">
-        <v>0.16798863551438101</v>
+        <v>-1.43380879110964</v>
       </c>
       <c r="G20" s="3">
-        <v>2.5109884730787502</v>
+        <v>2.2704475914173501</v>
       </c>
       <c r="H20" s="1">
         <v>18</v>
       </c>
       <c r="I20" s="2">
-        <v>1.09E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>6.1199999999999997E-2</v>
+        <v>7.8450000000000006E-2</v>
       </c>
       <c r="K20" s="2">
-        <v>0.1283</v>
+        <v>0.1636</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2277,40 +2148,40 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
-        <v>0.181008893034663</v>
+        <v>-1.1988710232828701</v>
       </c>
       <c r="G21" s="3">
-        <v>2.3972757627991501</v>
+        <v>2.4149173686562801</v>
       </c>
       <c r="H21" s="1">
         <v>19</v>
       </c>
       <c r="I21" s="2">
-        <v>1.0800000000000001E-2</v>
+        <v>1.061E-2</v>
       </c>
       <c r="J21" s="2">
-        <v>5.57E-2</v>
+        <v>6.2740000000000004E-2</v>
       </c>
       <c r="K21" s="2">
-        <v>0.1176</v>
+        <v>0.13217000000000001</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M21" s="1">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2321,40 +2192,40 @@
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3">
-        <v>-9.8360879957342995E-2</v>
+        <v>-1.29700063176001</v>
       </c>
       <c r="G22" s="3">
-        <v>2.23918211343392</v>
+        <v>2.2806707226058198</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>1.0500000000000001E-2</v>
+        <v>1.001E-2</v>
       </c>
       <c r="J22" s="2">
-        <v>7.3400000000000007E-2</v>
+        <v>6.3820000000000002E-2</v>
       </c>
       <c r="K22" s="2">
-        <v>0.1537</v>
+        <v>0.13916000000000001</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M22" s="1">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2365,40 +2236,40 @@
         <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3">
-        <v>-0.104945027525271</v>
+        <v>-1.26054135092625</v>
       </c>
       <c r="G23" s="3">
-        <v>2.2335112422398198</v>
+        <v>2.2681480936868699</v>
       </c>
       <c r="H23" s="1">
         <v>21</v>
       </c>
       <c r="I23" s="2">
-        <v>1.04E-2</v>
+        <v>9.9699999999999997E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>7.0800000000000002E-2</v>
+        <v>5.9569999999999998E-2</v>
       </c>
       <c r="K23" s="2">
-        <v>0.15590000000000001</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M23" s="1">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2409,40 +2280,40 @@
         <v>15</v>
       </c>
       <c r="C24" s="1">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3">
-        <v>6.1036373652015599E-2</v>
+        <v>-1.2726840530391299</v>
       </c>
       <c r="G24" s="3">
-        <v>2.3391381564947702</v>
+        <v>2.3233303160729699</v>
       </c>
       <c r="H24" s="1">
         <v>22</v>
       </c>
       <c r="I24" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="K24" s="2">
-        <v>0.13489999999999999</v>
+        <v>0.13555</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M24" s="1">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2453,40 +2324,40 @@
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3">
-        <v>1.15570193470144E-2</v>
+        <v>-1.1342629424553801</v>
       </c>
       <c r="G25" s="3">
-        <v>2.3293543863194301</v>
+        <v>2.40399697160474</v>
       </c>
       <c r="H25" s="1">
         <v>23</v>
       </c>
       <c r="I25" s="2">
-        <v>9.1000000000000004E-3</v>
+        <v>9.7300000000000008E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>6.6799999999999998E-2</v>
+        <v>5.6160000000000002E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>0.1404</v>
+        <v>0.12194000000000001</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M25" s="1">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2497,40 +2368,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3">
-        <v>0.33212336287472299</v>
+        <v>-1.25222031994662</v>
       </c>
       <c r="G26" s="3">
-        <v>2.5430075596666502</v>
+        <v>2.2931060268649999</v>
       </c>
       <c r="H26" s="1">
         <v>24</v>
       </c>
       <c r="I26" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>9.5499999999999995E-3</v>
       </c>
       <c r="J26" s="2">
-        <v>4.7800000000000002E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="K26" s="2">
-        <v>0.1033</v>
+        <v>0.12855</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2541,40 +2412,40 @@
         <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="3">
-        <v>6.4368689614485899E-2</v>
+        <v>-1.2124609720405</v>
       </c>
       <c r="G27" s="3">
-        <v>2.3128242330536701</v>
+        <v>2.3388776346376101</v>
       </c>
       <c r="H27" s="1">
         <v>25</v>
       </c>
       <c r="I27" s="2">
-        <v>8.6E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>6.2600000000000003E-2</v>
+        <v>5.781E-2</v>
       </c>
       <c r="K27" s="2">
-        <v>0.13750000000000001</v>
+        <v>0.12629000000000001</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M27" s="1">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2585,40 +2456,40 @@
         <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3">
-        <v>0.15814212523865701</v>
+        <v>-1.1297000388882401</v>
       </c>
       <c r="G28" s="3">
-        <v>2.3554659126098301</v>
+        <v>2.3914011067955401</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
       </c>
       <c r="I28" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>9.0200000000000002E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>5.1400000000000001E-2</v>
+        <v>5.4309999999999997E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>0.1187</v>
+        <v>0.11871</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M28" s="1">
         <v>92</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,40 +2500,40 @@
         <v>15</v>
       </c>
       <c r="C29" s="1">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" s="3">
-        <v>0.10557296306956999</v>
+        <v>-1.35152100888815</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3359335996752102</v>
+        <v>2.1978863148321</v>
       </c>
       <c r="H29" s="1">
         <v>27</v>
       </c>
       <c r="I29" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>5.4699999999999999E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>0.121</v>
+        <v>0.13825999999999999</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M29" s="1">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,40 +2544,40 @@
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3">
-        <v>0.15291275026888401</v>
+        <v>-1.1792848370243301</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2588710645038601</v>
+        <v>2.3433060318099499</v>
       </c>
       <c r="H30" s="1">
         <v>28</v>
       </c>
       <c r="I30" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>8.9099999999999995E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>5.0799999999999998E-2</v>
+        <v>5.7340000000000002E-2</v>
       </c>
       <c r="K30" s="2">
-        <v>0.113</v>
+        <v>0.12284</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M30" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2717,40 +2588,40 @@
         <v>15</v>
       </c>
       <c r="C31" s="1">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F31" s="3">
-        <v>0.205787249951666</v>
+        <v>-1.1812789382064499</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3649505618703501</v>
+        <v>2.3242277429277101</v>
       </c>
       <c r="H31" s="1">
         <v>29</v>
       </c>
       <c r="I31" s="2">
-        <v>7.7999999999999996E-3</v>
+        <v>8.8299999999999993E-3</v>
       </c>
       <c r="J31" s="2">
-        <v>4.9399999999999999E-2</v>
+        <v>5.5010000000000003E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>0.1104</v>
+        <v>0.12084</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M31" s="1">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2761,40 +2632,40 @@
         <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3">
-        <v>9.2122853349746098E-2</v>
+        <v>-1.19209465924409</v>
       </c>
       <c r="G32" s="3">
-        <v>2.1564939062172499</v>
+        <v>2.3161191614750201</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>4.5199999999999997E-2</v>
+        <v>5.5169999999999997E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>0.10829999999999999</v>
+        <v>0.12171999999999999</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M32" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2805,40 +2676,40 @@
         <v>15</v>
       </c>
       <c r="C33" s="1">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3">
-        <v>0.17789235261752401</v>
+        <v>-1.1698330408979101</v>
       </c>
       <c r="G33" s="3">
-        <v>2.2679471670192601</v>
+        <v>2.3377741752950798</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
       </c>
       <c r="I33" s="2">
-        <v>6.1000000000000004E-3</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>4.4699999999999997E-2</v>
+        <v>5.4620000000000002E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>0.1084</v>
+        <v>0.12043</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2849,40 +2720,40 @@
         <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>386</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3">
-        <v>0.52948153257040198</v>
+        <v>-1.26738623094374</v>
       </c>
       <c r="G34" s="3">
-        <v>2.4106071756583201</v>
+        <v>2.2695682216533202</v>
       </c>
       <c r="H34" s="1">
         <v>32</v>
       </c>
       <c r="I34" s="2">
-        <v>5.7999999999999996E-3</v>
+        <v>8.5299999999999994E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>3.6700000000000003E-2</v>
+        <v>5.9110000000000003E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>7.7600000000000002E-2</v>
+        <v>0.13175999999999999</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2893,40 +2764,40 @@
         <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F35" s="3">
-        <v>0.26503379236989799</v>
+        <v>-1.2077649196691</v>
       </c>
       <c r="G35" s="3">
-        <v>2.4153225007315502</v>
+        <v>2.2767951107915101</v>
       </c>
       <c r="H35" s="1">
         <v>33</v>
       </c>
       <c r="I35" s="2">
-        <v>5.4999999999999997E-3</v>
+        <v>7.8700000000000003E-3</v>
       </c>
       <c r="J35" s="2">
-        <v>4.6300000000000001E-2</v>
+        <v>5.3030000000000001E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>0.1013</v>
+        <v>0.11909</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2937,40 +2808,40 @@
         <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F36" s="3">
-        <v>0.37395015794019199</v>
+        <v>-1.2691529141867799</v>
       </c>
       <c r="G36" s="3">
-        <v>2.47686236083441</v>
+        <v>2.2030890383275299</v>
       </c>
       <c r="H36" s="1">
         <v>34</v>
       </c>
       <c r="I36" s="2">
-        <v>5.4000000000000003E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>4.2299999999999997E-2</v>
+        <v>5.4489999999999997E-2</v>
       </c>
       <c r="K36" s="2">
-        <v>9.6199999999999994E-2</v>
+        <v>0.12468</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M36" s="1">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2981,40 +2852,40 @@
         <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F37" s="3">
-        <v>0.26443130350536198</v>
+        <v>-1.14405386561148</v>
       </c>
       <c r="G37" s="3">
-        <v>2.25521492870087</v>
+        <v>2.3194317729389802</v>
       </c>
       <c r="H37" s="1">
         <v>35</v>
       </c>
       <c r="I37" s="2">
-        <v>5.3E-3</v>
+        <v>7.6099999999999996E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>3.9E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>9.1899999999999996E-2</v>
+        <v>0.11193</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M37" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3025,40 +2896,40 @@
         <v>15</v>
       </c>
       <c r="C38" s="1">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F38" s="3">
-        <v>0.37787525695319701</v>
+        <v>-1.1247756833338101</v>
       </c>
       <c r="G38" s="3">
-        <v>2.3672053409400999</v>
+        <v>2.3229402968751902</v>
       </c>
       <c r="H38" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I38" s="2">
-        <v>5.3E-3</v>
+        <v>7.5599999999999999E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>3.7199999999999997E-2</v>
+        <v>4.9180000000000001E-2</v>
       </c>
       <c r="K38" s="2">
-        <v>8.3900000000000002E-2</v>
+        <v>0.1116</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="M38" s="1">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3069,40 +2940,40 @@
         <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F39" s="3">
-        <v>0.136977680874908</v>
+        <v>-1.12262168065191</v>
       </c>
       <c r="G39" s="3">
-        <v>2.1327619196436101</v>
+        <v>2.3143060949349898</v>
       </c>
       <c r="H39" s="1">
         <v>37</v>
       </c>
       <c r="I39" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>7.5100000000000002E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>4.1599999999999998E-2</v>
+        <v>4.9779999999999998E-2</v>
       </c>
       <c r="K39" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.11133999999999999</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M39" s="1">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3113,40 +2984,40 @@
         <v>15</v>
       </c>
       <c r="C40" s="1">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F40" s="3">
-        <v>0.47207659079161302</v>
+        <v>-1.1322483261926599</v>
       </c>
       <c r="G40" s="3">
-        <v>2.43380808559888</v>
+        <v>2.3324610276438298</v>
       </c>
       <c r="H40" s="1">
         <v>38</v>
       </c>
       <c r="I40" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>5.1189999999999999E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>7.5899999999999995E-2</v>
+        <v>0.11330999999999999</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M40" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3157,40 +3028,40 @@
         <v>15</v>
       </c>
       <c r="C41" s="1">
-        <v>446</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F41" s="3">
-        <v>0.669443031059761</v>
+        <v>-1.1720232605955101</v>
       </c>
       <c r="G41" s="3">
-        <v>2.54383397072989</v>
+        <v>2.2576522937922601</v>
       </c>
       <c r="H41" s="1">
         <v>39</v>
       </c>
       <c r="I41" s="2">
-        <v>4.3E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>2.8500000000000001E-2</v>
+        <v>4.895E-2</v>
       </c>
       <c r="K41" s="2">
-        <v>6.9699999999999998E-2</v>
+        <v>0.11339</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M41" s="1">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3201,40 +3072,40 @@
         <v>15</v>
       </c>
       <c r="C42" s="1">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F42" s="3">
-        <v>0.367579109984008</v>
+        <v>-1.0282599319555701</v>
       </c>
       <c r="G42" s="3">
-        <v>2.31822756741653</v>
+        <v>2.3802370766803098</v>
       </c>
       <c r="H42" s="1">
         <v>40</v>
       </c>
       <c r="I42" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>7.1900000000000002E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>3.2800000000000003E-2</v>
+        <v>4.5159999999999999E-2</v>
       </c>
       <c r="K42" s="2">
-        <v>8.1799999999999998E-2</v>
+        <v>0.10088999999999999</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M42" s="1">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3245,40 +3116,40 @@
         <v>15</v>
       </c>
       <c r="C43" s="1">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3">
-        <v>0.43982390344885902</v>
+        <v>-0.98478177568359704</v>
       </c>
       <c r="G43" s="3">
-        <v>2.2539414775050899</v>
+        <v>2.3861414481903802</v>
       </c>
       <c r="H43" s="1">
+        <v>41</v>
+      </c>
+      <c r="I43" s="2">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4.2040000000000001E-2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>9.5469999999999999E-2</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="1">
         <v>40</v>
       </c>
-      <c r="I43" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="J43" s="2">
-        <v>2.63E-2</v>
-      </c>
-      <c r="K43" s="2">
-        <v>6.59E-2</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="1">
-        <v>77</v>
-      </c>
       <c r="N43" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3289,40 +3160,40 @@
         <v>15</v>
       </c>
       <c r="C44" s="1">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F44" s="3">
-        <v>0.51136777855035098</v>
+        <v>-0.96003915625263703</v>
       </c>
       <c r="G44" s="3">
-        <v>2.4224491873533398</v>
+        <v>2.3645383226730501</v>
       </c>
       <c r="H44" s="1">
         <v>42</v>
       </c>
       <c r="I44" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="J44" s="2">
-        <v>0.03</v>
+        <v>4.0550000000000003E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>7.4200000000000002E-2</v>
+        <v>9.2130000000000004E-2</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M44" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3333,40 +3204,40 @@
         <v>15</v>
       </c>
       <c r="C45" s="1">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" s="3">
-        <v>0.466779117763366</v>
+        <v>-1.1094459690199501</v>
       </c>
       <c r="G45" s="3">
-        <v>2.3733278652315799</v>
+        <v>2.2612082039191299</v>
       </c>
       <c r="H45" s="1">
         <v>43</v>
       </c>
       <c r="I45" s="2">
-        <v>3.5999999999999999E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="J45" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>4.3610000000000003E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>7.7799999999999994E-2</v>
+        <v>0.10187</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3377,40 +3248,40 @@
         <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="D46" s="1">
-        <v>1161</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3">
-        <v>0.57434933861304305</v>
+        <v>-1.1250700294232101</v>
       </c>
       <c r="G46" s="3">
-        <v>2.3695662122511498</v>
+        <v>2.2385196121989401</v>
       </c>
       <c r="H46" s="1">
         <v>44</v>
       </c>
       <c r="I46" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>5.8599999999999998E-3</v>
       </c>
       <c r="J46" s="2">
-        <v>2.18E-2</v>
+        <v>4.3249999999999997E-2</v>
       </c>
       <c r="K46" s="2">
-        <v>5.9200000000000003E-2</v>
+        <v>0.10377</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M46" s="1">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3421,40 +3292,40 @@
         <v>15</v>
       </c>
       <c r="C47" s="1">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="D47" s="1">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="3">
-        <v>0.61305200050402497</v>
+        <v>-0.77533546819979904</v>
       </c>
       <c r="G47" s="3">
-        <v>2.4357371330498099</v>
+        <v>2.5264390473545202</v>
       </c>
       <c r="H47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I47" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>5.6299999999999996E-3</v>
       </c>
       <c r="J47" s="2">
-        <v>2.8199999999999999E-2</v>
+        <v>3.5549999999999998E-2</v>
       </c>
       <c r="K47" s="2">
-        <v>6.4500000000000002E-2</v>
+        <v>8.0530000000000004E-2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M47" s="1">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3465,40 +3336,40 @@
         <v>15</v>
       </c>
       <c r="C48" s="1">
-        <v>379</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F48" s="3">
-        <v>0.511190175438481</v>
+        <v>-0.79247236310173197</v>
       </c>
       <c r="G48" s="3">
-        <v>2.3455280721513101</v>
+        <v>2.4613120335000098</v>
       </c>
       <c r="H48" s="1">
         <v>46</v>
       </c>
       <c r="I48" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>5.3099999999999996E-3</v>
       </c>
       <c r="J48" s="2">
-        <v>2.6800000000000001E-2</v>
+        <v>3.4819999999999997E-2</v>
       </c>
       <c r="K48" s="2">
-        <v>7.0599999999999996E-2</v>
+        <v>7.8270000000000006E-2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M48" s="1">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3509,40 +3380,40 @@
         <v>15</v>
       </c>
       <c r="C49" s="1">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F49" s="3">
-        <v>0.366915534451424</v>
+        <v>-1.0122636892566099</v>
       </c>
       <c r="G49" s="3">
-        <v>2.2381620094211598</v>
+        <v>2.29732220656122</v>
       </c>
       <c r="H49" s="1">
         <v>47</v>
       </c>
       <c r="I49" s="2">
-        <v>3.3E-3</v>
+        <v>5.1799999999999997E-3</v>
       </c>
       <c r="J49" s="2">
-        <v>2.8299999999999999E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="K49" s="2">
-        <v>7.22E-2</v>
+        <v>9.0249999999999997E-2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M49" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3553,40 +3424,40 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>405</v>
+        <v>69</v>
       </c>
       <c r="D50" s="1">
-        <v>413</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F50" s="3">
-        <v>0.56694036036046103</v>
+        <v>-0.76160318104176405</v>
       </c>
       <c r="G50" s="3">
-        <v>2.42051921143447</v>
+        <v>2.4756254259658901</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="J50" s="2">
-        <v>2.81E-2</v>
+        <v>3.261E-2</v>
       </c>
       <c r="K50" s="2">
-        <v>6.3200000000000006E-2</v>
+        <v>7.5069999999999998E-2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M50" s="1">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3597,40 +3468,40 @@
         <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>433</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="3">
+        <v>-0.84483567383537395</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2.4068967532832199</v>
+      </c>
+      <c r="H51" s="1">
+        <v>49</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3.431E-2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="1">
         <v>85</v>
       </c>
-      <c r="F51" s="3">
-        <v>0.64015819901104998</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2.33063687118034</v>
-      </c>
-      <c r="H51" s="1">
-        <v>48</v>
-      </c>
-      <c r="I51" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="J51" s="2">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="K51" s="2">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M51" s="1">
-        <v>65</v>
-      </c>
       <c r="N51" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3641,40 +3512,40 @@
         <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>394</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F52" s="3">
-        <v>0.55011244644003299</v>
+        <v>-1.03634618766215</v>
       </c>
       <c r="G52" s="3">
-        <v>2.34252632851529</v>
+        <v>2.2499330792674499</v>
       </c>
       <c r="H52" s="1">
         <v>50</v>
       </c>
       <c r="I52" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.9500000000000004E-3</v>
       </c>
       <c r="J52" s="2">
-        <v>2.4799999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
       <c r="K52" s="2">
-        <v>6.3200000000000006E-2</v>
+        <v>9.0240000000000001E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M52" s="1">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3685,40 +3556,40 @@
         <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1">
-        <v>431</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F53" s="3">
-        <v>0.61711918185030201</v>
+        <v>-0.82600028353351995</v>
       </c>
       <c r="G53" s="3">
-        <v>2.35646756747018</v>
+        <v>2.37064238302059</v>
       </c>
       <c r="H53" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="J53" s="2">
-        <v>2.1700000000000001E-2</v>
+        <v>3.1550000000000002E-2</v>
       </c>
       <c r="K53" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>7.4249999999999997E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M53" s="1">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3729,40 +3600,40 @@
         <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1">
-        <v>448</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F54" s="3">
-        <v>0.78399655132665702</v>
+        <v>-0.75296072549206605</v>
       </c>
       <c r="G54" s="3">
-        <v>2.4576938557829999</v>
+        <v>2.4382570558397498</v>
       </c>
       <c r="H54" s="1">
         <v>52</v>
       </c>
       <c r="I54" s="2">
-        <v>2.8E-3</v>
+        <v>4.47E-3</v>
       </c>
       <c r="J54" s="2">
-        <v>2.0299999999999999E-2</v>
+        <v>3.0450000000000001E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>4.8599999999999997E-2</v>
+        <v>7.077E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M54" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3773,40 +3644,40 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1">
-        <v>366</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F55" s="3">
-        <v>0.59559643889819103</v>
+        <v>-0.91842648228724699</v>
       </c>
       <c r="G55" s="3">
-        <v>2.33528553601752</v>
+        <v>2.2782605906551399</v>
       </c>
       <c r="H55" s="1">
         <v>53</v>
       </c>
       <c r="I55" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>4.45E-3</v>
       </c>
       <c r="J55" s="2">
-        <v>2.29E-2</v>
+        <v>3.245E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>6.0400000000000002E-2</v>
+        <v>7.8060000000000004E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M55" s="1">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3817,40 +3688,40 @@
         <v>15</v>
       </c>
       <c r="C56" s="1">
-        <v>333</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F56" s="3">
-        <v>0.35902746930784002</v>
+        <v>-0.81404850080499602</v>
       </c>
       <c r="G56" s="3">
-        <v>2.2820745247056902</v>
+        <v>2.35925392790466</v>
       </c>
       <c r="H56" s="1">
         <v>54</v>
       </c>
       <c r="I56" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>4.2399999999999998E-3</v>
       </c>
       <c r="J56" s="2">
-        <v>3.2800000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K56" s="2">
-        <v>8.2500000000000004E-2</v>
+        <v>7.127E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M56" s="1">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3861,40 +3732,40 @@
         <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F57" s="3">
-        <v>0.70629417254343196</v>
+        <v>-0.70897154517541205</v>
       </c>
       <c r="G57" s="3">
-        <v>2.3551525921579102</v>
+        <v>2.4369596303969399</v>
       </c>
       <c r="H57" s="1">
         <v>55</v>
       </c>
       <c r="I57" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>4.1799999999999997E-3</v>
       </c>
       <c r="J57" s="2">
-        <v>1.9900000000000001E-2</v>
+        <v>2.759E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>4.8300000000000003E-2</v>
+        <v>6.6960000000000006E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M57" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3905,40 +3776,40 @@
         <v>15</v>
       </c>
       <c r="C58" s="1">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3">
-        <v>0.76188706549180896</v>
+        <v>-0.71437909163079505</v>
       </c>
       <c r="G58" s="3">
-        <v>2.38833080075986</v>
+        <v>2.4479000677238001</v>
       </c>
       <c r="H58" s="1">
         <v>56</v>
       </c>
       <c r="I58" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="J58" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>2.921E-2</v>
       </c>
       <c r="K58" s="2">
-        <v>4.8800000000000003E-2</v>
+        <v>6.7890000000000006E-2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M58" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3949,40 +3820,40 @@
         <v>15</v>
       </c>
       <c r="C59" s="1">
-        <v>473</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1">
-        <v>1164</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F59" s="3">
-        <v>0.73045892174766303</v>
+        <v>-0.658261610368712</v>
       </c>
       <c r="G59" s="3">
-        <v>2.3902199640812598</v>
+        <v>2.47696443055951</v>
       </c>
       <c r="H59" s="1">
         <v>57</v>
       </c>
       <c r="I59" s="2">
-        <v>2.3E-3</v>
+        <v>3.9699999999999996E-3</v>
       </c>
       <c r="J59" s="2">
-        <v>2.1499999999999998E-2</v>
+        <v>2.7150000000000001E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>5.3400000000000003E-2</v>
+        <v>6.4369999999999997E-2</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M59" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3993,40 +3864,40 @@
         <v>15</v>
       </c>
       <c r="C60" s="1">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F60" s="3">
-        <v>0.79210647808553702</v>
+        <v>-0.75296931677348999</v>
       </c>
       <c r="G60" s="3">
-        <v>2.4774933513314901</v>
+        <v>2.4137440498009402</v>
       </c>
       <c r="H60" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I60" s="2">
-        <v>2.3E-3</v>
+        <v>3.96E-3</v>
       </c>
       <c r="J60" s="2">
-        <v>2.1499999999999998E-2</v>
+        <v>2.8819999999999998E-2</v>
       </c>
       <c r="K60" s="2">
-        <v>5.28E-2</v>
+        <v>6.9419999999999996E-2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="M60" s="1">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4037,40 +3908,40 @@
         <v>15</v>
       </c>
       <c r="C61" s="1">
-        <v>468</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F61" s="3">
-        <v>0.72499371130150703</v>
+        <v>-0.92557148321458904</v>
       </c>
       <c r="G61" s="3">
-        <v>2.4541456733985698</v>
+        <v>2.2424317423414601</v>
       </c>
       <c r="H61" s="1">
         <v>59</v>
       </c>
       <c r="I61" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="J61" s="2">
-        <v>2.0799999999999999E-2</v>
+        <v>2.9610000000000001E-2</v>
       </c>
       <c r="K61" s="2">
-        <v>5.2299999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M61" s="1">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4081,40 +3952,40 @@
         <v>15</v>
       </c>
       <c r="C62" s="1">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="D62" s="1">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F62" s="3">
-        <v>0.68288020910297398</v>
+        <v>-0.62680972119733602</v>
       </c>
       <c r="G62" s="3">
-        <v>2.3324831703039299</v>
+        <v>2.47633255331084</v>
       </c>
       <c r="H62" s="1">
         <v>60</v>
       </c>
       <c r="I62" s="2">
-        <v>2E-3</v>
+        <v>3.8800000000000002E-3</v>
       </c>
       <c r="J62" s="2">
-        <v>0.02</v>
+        <v>2.5739999999999999E-2</v>
       </c>
       <c r="K62" s="2">
-        <v>5.1299999999999998E-2</v>
+        <v>6.0569999999999999E-2</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M62" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4125,40 +3996,40 @@
         <v>15</v>
       </c>
       <c r="C63" s="1">
-        <v>430</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F63" s="3">
-        <v>0.63532343761556598</v>
+        <v>-0.76485560620487802</v>
       </c>
       <c r="G63" s="3">
-        <v>2.18637093651984</v>
+        <v>2.37260406725277</v>
       </c>
       <c r="H63" s="1">
         <v>61</v>
       </c>
       <c r="I63" s="2">
-        <v>1.9E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="J63" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.768E-2</v>
       </c>
       <c r="K63" s="2">
-        <v>4.7500000000000001E-2</v>
+        <v>6.7330000000000001E-2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M63" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4169,40 +4040,40 @@
         <v>15</v>
       </c>
       <c r="C64" s="1">
-        <v>494</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1">
-        <v>324</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F64" s="3">
-        <v>0.78342156435077903</v>
+        <v>-0.88621284194149896</v>
       </c>
       <c r="G64" s="3">
-        <v>2.3981282330459801</v>
+        <v>2.2853504720787399</v>
       </c>
       <c r="H64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I64" s="2">
-        <v>1.9E-3</v>
+        <v>3.64E-3</v>
       </c>
       <c r="J64" s="2">
-        <v>1.9E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="K64" s="2">
-        <v>4.82E-2</v>
+        <v>7.4529999999999999E-2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M64" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4213,40 +4084,40 @@
         <v>15</v>
       </c>
       <c r="C65" s="1">
-        <v>517</v>
+        <v>62</v>
       </c>
       <c r="D65" s="1">
-        <v>378</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F65" s="3">
-        <v>0.824207933266078</v>
+        <v>-0.79311345184291504</v>
       </c>
       <c r="G65" s="3">
-        <v>2.4333925659826399</v>
+        <v>2.2994964311561699</v>
       </c>
       <c r="H65" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I65" s="2">
-        <v>1.9E-3</v>
+        <v>3.31E-3</v>
       </c>
       <c r="J65" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.5180000000000001E-2</v>
       </c>
       <c r="K65" s="2">
-        <v>4.4600000000000001E-2</v>
+        <v>6.447E-2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M65" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4257,40 +4128,40 @@
         <v>15</v>
       </c>
       <c r="C66" s="1">
-        <v>553</v>
+        <v>61</v>
       </c>
       <c r="D66" s="1">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F66" s="3">
-        <v>0.89741744568758297</v>
+        <v>-0.80171920694349397</v>
       </c>
       <c r="G66" s="3">
-        <v>2.4690561564308799</v>
+        <v>2.2881417501130299</v>
       </c>
       <c r="H66" s="1">
         <v>64</v>
       </c>
       <c r="I66" s="2">
-        <v>1.8E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
       <c r="J66" s="2">
-        <v>1.67E-2</v>
+        <v>2.5440000000000001E-2</v>
       </c>
       <c r="K66" s="2">
-        <v>4.19E-2</v>
+        <v>6.3289999999999999E-2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M66" s="1">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4301,40 +4172,40 @@
         <v>15</v>
       </c>
       <c r="C67" s="1">
-        <v>465</v>
+        <v>75</v>
       </c>
       <c r="D67" s="1">
-        <v>329</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3">
-        <v>0.715148772706099</v>
+        <v>-0.72909952282359802</v>
       </c>
       <c r="G67" s="3">
-        <v>2.3067401788722202</v>
+        <v>2.263720065112</v>
       </c>
       <c r="H67" s="1">
         <v>65</v>
       </c>
       <c r="I67" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="J67" s="2">
-        <v>1.6400000000000001E-2</v>
+        <v>2.1319999999999999E-2</v>
       </c>
       <c r="K67" s="2">
-        <v>4.3799999999999999E-2</v>
+        <v>5.5030000000000003E-2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M67" s="1">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4345,40 +4216,40 @@
         <v>15</v>
       </c>
       <c r="C68" s="1">
-        <v>510</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1">
-        <v>281</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3">
-        <v>0.81165066707047795</v>
+        <v>-0.59975545008500397</v>
       </c>
       <c r="G68" s="3">
-        <v>2.3110788827403299</v>
+        <v>2.2913563961732</v>
       </c>
       <c r="H68" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I68" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="J68" s="2">
-        <v>1.4200000000000001E-2</v>
+        <v>1.6119999999999999E-2</v>
       </c>
       <c r="K68" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>4.4909999999999999E-2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M68" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4389,40 +4260,40 @@
         <v>15</v>
       </c>
       <c r="C69" s="1">
-        <v>490</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F69" s="3">
-        <v>0.77710881406204702</v>
+        <v>-0.23401761350373801</v>
       </c>
       <c r="G69" s="3">
-        <v>2.3315832243091101</v>
+        <v>2.5536810028603401</v>
       </c>
       <c r="H69" s="1">
         <v>67</v>
       </c>
       <c r="I69" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="J69" s="2">
-        <v>1.6199999999999999E-2</v>
+        <v>1.406E-2</v>
       </c>
       <c r="K69" s="2">
-        <v>4.1300000000000003E-2</v>
+        <v>3.635E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="M69" s="1">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4433,40 +4304,40 @@
         <v>15</v>
       </c>
       <c r="C70" s="1">
-        <v>483</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1">
-        <v>498</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F70" s="3">
-        <v>0.76800277949041595</v>
+        <v>-0.43582839855698502</v>
       </c>
       <c r="G70" s="3">
-        <v>2.1667426845022302</v>
+        <v>2.3625460861529102</v>
       </c>
       <c r="H70" s="1">
         <v>68</v>
       </c>
       <c r="I70" s="2">
-        <v>1.4E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>1.11E-2</v>
+        <v>1.4080000000000001E-2</v>
       </c>
       <c r="K70" s="2">
-        <v>3.5299999999999998E-2</v>
+        <v>3.7760000000000002E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M70" s="1">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4477,40 +4348,40 @@
         <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>539</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1">
-        <v>477</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F71" s="3">
-        <v>0.87437390158800199</v>
+        <v>-0.50880086638605504</v>
       </c>
       <c r="G71" s="3">
-        <v>2.4652829610213698</v>
+        <v>2.34594270473674</v>
       </c>
       <c r="H71" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I71" s="2">
-        <v>1.4E-3</v>
+        <v>1.8600000000000001E-3</v>
       </c>
       <c r="J71" s="2">
-        <v>1.49E-2</v>
+        <v>1.5559999999999999E-2</v>
       </c>
       <c r="K71" s="2">
-        <v>4.4499999999999998E-2</v>
+        <v>4.1180000000000001E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4521,40 +4392,40 @@
         <v>15</v>
       </c>
       <c r="C72" s="1">
-        <v>709</v>
+        <v>96</v>
       </c>
       <c r="D72" s="1">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F72" s="3">
-        <v>1.22009370027903</v>
+        <v>-0.52201222405301095</v>
       </c>
       <c r="G72" s="3">
-        <v>2.6251215849176401</v>
+        <v>2.3226829669548201</v>
       </c>
       <c r="H72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I72" s="2">
-        <v>1.4E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="J72" s="2">
-        <v>1.2200000000000001E-2</v>
+        <v>1.5879999999999998E-2</v>
       </c>
       <c r="K72" s="2">
-        <v>3.0499999999999999E-2</v>
+        <v>4.1750000000000002E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="M72" s="1">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4565,40 +4436,40 @@
         <v>15</v>
       </c>
       <c r="C73" s="1">
-        <v>525</v>
+        <v>91</v>
       </c>
       <c r="D73" s="1">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F73" s="3">
-        <v>0.85632256596809198</v>
+        <v>-0.59228062200813703</v>
       </c>
       <c r="G73" s="3">
-        <v>2.3395635561772199</v>
+        <v>2.2544393874431998</v>
       </c>
       <c r="H73" s="1">
         <v>71</v>
       </c>
       <c r="I73" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="J73" s="2">
-        <v>1.4800000000000001E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="K73" s="2">
-        <v>3.85E-2</v>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M73" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4609,40 +4480,40 @@
         <v>15</v>
       </c>
       <c r="C74" s="1">
-        <v>549</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1">
-        <v>480</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F74" s="3">
-        <v>0.88971021883516899</v>
+        <v>-0.43514795676827001</v>
       </c>
       <c r="G74" s="3">
-        <v>2.2784702404681401</v>
+        <v>2.3209610900521902</v>
       </c>
       <c r="H74" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I74" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>1.33E-3</v>
       </c>
       <c r="J74" s="2">
-        <v>1.18E-2</v>
+        <v>1.158E-2</v>
       </c>
       <c r="K74" s="2">
-        <v>3.2500000000000001E-2</v>
+        <v>3.415E-2</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M74" s="1">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4653,40 +4524,40 @@
         <v>15</v>
       </c>
       <c r="C75" s="1">
-        <v>575</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F75" s="3">
-        <v>0.95674331827242498</v>
+        <v>-8.8549132662705601E-2</v>
       </c>
       <c r="G75" s="3">
-        <v>2.4686359036826002</v>
+        <v>2.49190685711143</v>
       </c>
       <c r="H75" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I75" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="J75" s="2">
-        <v>1.5599999999999999E-2</v>
+        <v>9.3100000000000006E-3</v>
       </c>
       <c r="K75" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>2.4709999999999999E-2</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M75" s="1">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4697,40 +4568,40 @@
         <v>15</v>
       </c>
       <c r="C76" s="1">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="D76" s="1">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F76" s="3">
-        <v>0.76372603865202904</v>
+        <v>-0.165261233180514</v>
       </c>
       <c r="G76" s="3">
-        <v>2.36494019305916</v>
+        <v>2.2631476360810501</v>
       </c>
       <c r="H76" s="1">
         <v>74</v>
       </c>
       <c r="I76" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J76" s="2">
-        <v>1.55E-2</v>
+        <v>5.7800000000000004E-3</v>
       </c>
       <c r="K76" s="2">
-        <v>4.2700000000000002E-2</v>
+        <v>1.8339999999999999E-2</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="M76" s="1">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4741,40 +4612,40 @@
         <v>15</v>
       </c>
       <c r="C77" s="1">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="D77" s="1">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F77" s="3">
-        <v>0.90426345760186699</v>
+        <v>-0.26504011816092898</v>
       </c>
       <c r="G77" s="3">
-        <v>2.3681189892010899</v>
+        <v>2.1634423177909401</v>
       </c>
       <c r="H77" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I77" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="J77" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>5.4400000000000004E-3</v>
       </c>
       <c r="K77" s="2">
-        <v>3.5099999999999999E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M77" s="1">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4785,40 +4656,40 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>569</v>
+        <v>205</v>
       </c>
       <c r="D78" s="1">
-        <v>475</v>
+        <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F78" s="3">
-        <v>0.93752671398987597</v>
+        <v>9.2622497239314601E-3</v>
       </c>
       <c r="G78" s="3">
-        <v>2.3245955877293998</v>
+        <v>2.3162699472865098</v>
       </c>
       <c r="H78" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I78" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="J78" s="2">
-        <v>1.09E-2</v>
+        <v>4.96E-3</v>
       </c>
       <c r="K78" s="2">
-        <v>3.0800000000000001E-2</v>
+        <v>1.4239999999999999E-2</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M78" s="1">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4829,40 +4700,40 @@
         <v>15</v>
       </c>
       <c r="C79" s="1">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="D79" s="1">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F79" s="3">
-        <v>0.59717370942246295</v>
+        <v>6.4025767216967303E-2</v>
       </c>
       <c r="G79" s="3">
-        <v>2.1857103379242599</v>
+        <v>2.3481122203249498</v>
       </c>
       <c r="H79" s="1">
         <v>77</v>
       </c>
       <c r="I79" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="J79" s="2">
-        <v>1.83E-2</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="K79" s="2">
-        <v>4.7899999999999998E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M79" s="1">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4873,40 +4744,40 @@
         <v>15</v>
       </c>
       <c r="C80" s="1">
-        <v>633</v>
+        <v>202</v>
       </c>
       <c r="D80" s="1">
-        <v>326</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F80" s="3">
-        <v>1.08337633737031</v>
+        <v>5.8643697533470396E-3</v>
       </c>
       <c r="G80" s="3">
-        <v>2.32024708522844</v>
+        <v>2.2767051805761298</v>
       </c>
       <c r="H80" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I80" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="J80" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>3.49E-3</v>
       </c>
       <c r="K80" s="2">
-        <v>2.2800000000000001E-2</v>
+        <v>1.244E-2</v>
       </c>
       <c r="L80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" s="1">
         <v>117</v>
       </c>
-      <c r="M80" s="1">
-        <v>60</v>
-      </c>
       <c r="N80" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4917,40 +4788,40 @@
         <v>15</v>
       </c>
       <c r="C81" s="1">
-        <v>647</v>
+        <v>250</v>
       </c>
       <c r="D81" s="1">
-        <v>703</v>
+        <v>410</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F81" s="3">
-        <v>1.1158759411888901</v>
+        <v>0.17252270020372201</v>
       </c>
       <c r="G81" s="3">
-        <v>2.44456071929398</v>
+        <v>2.2517185931879098</v>
       </c>
       <c r="H81" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I81" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="J81" s="2">
-        <v>1.0800000000000001E-2</v>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="K81" s="2">
-        <v>2.6800000000000001E-2</v>
+        <v>7.8700000000000003E-3</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M81" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4961,40 +4832,40 @@
         <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>512</v>
+        <v>372</v>
       </c>
       <c r="D82" s="1">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F82" s="3">
-        <v>0.81574810312508195</v>
+        <v>0.54690195023027999</v>
       </c>
       <c r="G82" s="3">
-        <v>2.3808198833947101</v>
+        <v>2.4343294609411599</v>
       </c>
       <c r="H82" s="1">
         <v>80</v>
       </c>
       <c r="I82" s="2">
-        <v>1E-3</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="J82" s="2">
-        <v>1.4800000000000001E-2</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="K82" s="2">
-        <v>4.19E-2</v>
+        <v>5.3099999999999996E-3</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M82" s="1">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5005,40 +4876,40 @@
         <v>15</v>
       </c>
       <c r="C83" s="1">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="D83" s="1">
-        <v>253</v>
+        <v>625</v>
       </c>
       <c r="E83" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F83" s="3">
-        <v>0.97009196867450498</v>
+        <v>0.66465369393057305</v>
       </c>
       <c r="G83" s="3">
-        <v>2.3006690748748602</v>
+        <v>2.40388040028366</v>
       </c>
       <c r="H83" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I83" s="2">
-        <v>1E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="J83" s="2">
-        <v>1.01E-2</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="K83" s="2">
-        <v>2.7699999999999999E-2</v>
+        <v>3.7599999999999999E-3</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M83" s="1">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5049,40 +4920,40 @@
         <v>15</v>
       </c>
       <c r="C84" s="1">
-        <v>593</v>
+        <v>795</v>
       </c>
       <c r="D84" s="1">
-        <v>425</v>
+        <v>1893</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F84" s="3">
-        <v>1.0097394716628501</v>
+        <v>1.4959238478639001</v>
       </c>
       <c r="G84" s="3">
-        <v>2.3177999584832101</v>
+        <v>2.3378080167923101</v>
       </c>
       <c r="H84" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I84" s="2">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J84" s="2">
-        <v>9.7000000000000003E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="K84" s="2">
-        <v>2.8500000000000001E-2</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="M84" s="1">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5093,40 +4964,40 @@
         <v>15</v>
       </c>
       <c r="C85" s="1">
-        <v>661</v>
+        <v>1422</v>
       </c>
       <c r="D85" s="1">
-        <v>643</v>
+        <v>1893</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F85" s="3">
-        <v>1.14207242826484</v>
+        <v>2.5311200650972099</v>
       </c>
       <c r="G85" s="3">
-        <v>2.4332106409628702</v>
+        <v>2.5131423388926</v>
       </c>
       <c r="H85" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I85" s="2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2">
-        <v>1.01E-2</v>
+        <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>2.5499999999999998E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="M85" s="1">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5137,40 +5008,40 @@
         <v>15</v>
       </c>
       <c r="C86" s="1">
-        <v>390</v>
+        <v>1649</v>
       </c>
       <c r="D86" s="1">
-        <v>151</v>
+        <v>1893</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F86" s="3">
-        <v>0.54266836386851403</v>
+        <v>2.8635205801699199</v>
       </c>
       <c r="G86" s="3">
-        <v>2.1827359492885798</v>
+        <v>2.39934166692644</v>
       </c>
       <c r="H86" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I86" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2">
-        <v>1.8100000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>5.1700000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="M86" s="1">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5180,41 +5051,41 @@
       <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="1">
-        <v>568</v>
-      </c>
-      <c r="D87" s="1">
-        <v>398</v>
+      <c r="C87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E87" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F87" s="3">
-        <v>0.93675593774591603</v>
+        <v>3</v>
       </c>
       <c r="G87" s="3">
-        <v>2.34864734486146</v>
+        <v>2.5</v>
       </c>
       <c r="H87" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I87" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>1.1900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>3.2599999999999997E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M87" s="1">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5224,41 +5095,41 @@
       <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="1">
-        <v>610</v>
-      </c>
-      <c r="D88" s="1">
-        <v>416</v>
+      <c r="C88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F88" s="3">
-        <v>1.0375185237712501</v>
+        <v>3</v>
       </c>
       <c r="G88" s="3">
-        <v>2.4659921703739101</v>
+        <v>2.5</v>
       </c>
       <c r="H88" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I88" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>3.4500000000000003E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M88" s="1">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5268,41 +5139,41 @@
       <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="1">
-        <v>613</v>
-      </c>
-      <c r="D89" s="1">
-        <v>482</v>
+      <c r="C89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F89" s="3">
-        <v>1.04342972545674</v>
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>2.3314641927004098</v>
+        <v>2.5</v>
       </c>
       <c r="H89" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I89" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="J89" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>2.75E-2</v>
+        <v>0</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M89" s="1">
-        <v>67</v>
+        <v>123</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5312,41 +5183,41 @@
       <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="1">
-        <v>657</v>
-      </c>
-      <c r="D90" s="1">
-        <v>240</v>
+      <c r="C90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F90" s="3">
-        <v>1.1381171677775901</v>
+        <v>3</v>
       </c>
       <c r="G90" s="3">
-        <v>2.28674977705895</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I90" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" s="1">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5356,41 +5227,41 @@
       <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="1">
-        <v>725</v>
-      </c>
-      <c r="D91" s="1">
-        <v>446</v>
+      <c r="C91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F91" s="3">
-        <v>1.2464953582547</v>
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>2.34809630092527</v>
+        <v>2.5</v>
       </c>
       <c r="H91" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I91" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>1.8800000000000001E-2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M91" s="1">
-        <v>69</v>
+        <v>123</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5400,41 +5271,41 @@
       <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="1">
-        <v>811</v>
-      </c>
-      <c r="D92" s="1">
-        <v>292</v>
+      <c r="C92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E92" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F92" s="3">
-        <v>1.4172328859519601</v>
+        <v>3</v>
       </c>
       <c r="G92" s="3">
-        <v>2.58201231819953</v>
+        <v>2.5</v>
       </c>
       <c r="H92" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I92" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>1.8200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M92" s="1">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5444,41 +5315,41 @@
       <c r="B93" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="1">
-        <v>459</v>
-      </c>
-      <c r="D93" s="1">
-        <v>548</v>
+      <c r="C93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E93" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F93" s="3">
-        <v>0.69601455108845101</v>
+        <v>3</v>
       </c>
       <c r="G93" s="3">
-        <v>2.1718710591570498</v>
+        <v>2.5</v>
       </c>
       <c r="H93" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I93" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>1.24E-2</v>
+        <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M93" s="1">
-        <v>77</v>
+        <v>123</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5488,1449 +5359,41 @@
       <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
-        <v>607</v>
-      </c>
-      <c r="D94" s="1">
-        <v>522</v>
+      <c r="C94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F94" s="3">
-        <v>1.02815377938914</v>
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>2.2787075338745102</v>
+        <v>2.5</v>
       </c>
       <c r="H94" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I94" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2">
-        <v>7.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M94" s="1">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="1">
-        <v>669</v>
-      </c>
-      <c r="D95" s="1">
-        <v>274</v>
-      </c>
-      <c r="E95" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1.1542191013640799</v>
-      </c>
-      <c r="G95" s="3">
-        <v>2.4511312431976502</v>
-      </c>
-      <c r="H95" s="1">
-        <v>91</v>
-      </c>
-      <c r="I95" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J95" s="2">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="K95" s="2">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M95" s="1">
-        <v>49</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="1">
-        <v>562</v>
-      </c>
-      <c r="D96" s="1">
-        <v>555</v>
-      </c>
-      <c r="E96" t="s">
-        <v>140</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0.91909176696903105</v>
-      </c>
-      <c r="G96" s="3">
-        <v>2.1326165111640298</v>
-      </c>
-      <c r="H96" s="1">
-        <v>94</v>
-      </c>
-      <c r="I96" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J96" s="2">
-        <v>6.6E-3</v>
-      </c>
-      <c r="K96" s="2">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M96" s="1">
-        <v>78</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="1">
-        <v>637</v>
-      </c>
-      <c r="D97" s="1">
-        <v>648</v>
-      </c>
-      <c r="E97" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1.0903907669937101</v>
-      </c>
-      <c r="G97" s="3">
-        <v>2.2040768042029599</v>
-      </c>
-      <c r="H97" s="1">
-        <v>94</v>
-      </c>
-      <c r="I97" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J97" s="2">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K97" s="2">
-        <v>1.66E-2</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97" s="1">
-        <v>87</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="1">
-        <v>706</v>
-      </c>
-      <c r="D98" s="1">
-        <v>331</v>
-      </c>
-      <c r="E98" t="s">
-        <v>142</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1.2093913023142699</v>
-      </c>
-      <c r="G98" s="3">
-        <v>2.2608363075934998</v>
-      </c>
-      <c r="H98" s="1">
-        <v>94</v>
-      </c>
-      <c r="I98" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J98" s="2">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="K98" s="2">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M98" s="1">
-        <v>87</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1">
-        <v>729</v>
-      </c>
-      <c r="D99" s="1">
-        <v>309</v>
-      </c>
-      <c r="E99" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1.2489387018376299</v>
-      </c>
-      <c r="G99" s="3">
-        <v>2.3132188010617498</v>
-      </c>
-      <c r="H99" s="1">
-        <v>94</v>
-      </c>
-      <c r="I99" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J99" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="K99" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M99" s="1">
-        <v>71</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1">
-        <v>763</v>
-      </c>
-      <c r="D100" s="1">
-        <v>570</v>
-      </c>
-      <c r="E100" t="s">
-        <v>145</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1.3152927401766501</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2.3124743810472199</v>
-      </c>
-      <c r="H100" s="1">
-        <v>94</v>
-      </c>
-      <c r="I100" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J100" s="2">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="K100" s="2">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M100" s="1">
-        <v>68</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1">
-        <v>787</v>
-      </c>
-      <c r="D101" s="1">
-        <v>283</v>
-      </c>
-      <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1.36314298906575</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2.4375310615835502</v>
-      </c>
-      <c r="H101" s="1">
-        <v>94</v>
-      </c>
-      <c r="I101" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J101" s="2">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="K101" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="1">
-        <v>75</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="1">
-        <v>831</v>
-      </c>
-      <c r="D102" s="1">
-        <v>304</v>
-      </c>
-      <c r="E102" t="s">
-        <v>147</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1.4554373268811001</v>
-      </c>
-      <c r="G102" s="3">
-        <v>2.4327045560723599</v>
-      </c>
-      <c r="H102" s="1">
-        <v>94</v>
-      </c>
-      <c r="I102" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J102" s="2">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1.47E-2</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M102" s="1">
-        <v>64</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="1">
-        <v>722</v>
-      </c>
-      <c r="D103" s="1">
-        <v>415</v>
-      </c>
-      <c r="E103" t="s">
-        <v>148</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1.2412914148255501</v>
-      </c>
-      <c r="G103" s="3">
-        <v>2.3804793245120699</v>
-      </c>
-      <c r="H103" s="1">
-        <v>101</v>
-      </c>
-      <c r="I103" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J103" s="2">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="K103" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M103" s="1">
-        <v>98</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="1">
-        <v>582</v>
-      </c>
-      <c r="D104" s="1">
-        <v>524</v>
-      </c>
-      <c r="E104" t="s">
-        <v>149</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.97790356404152001</v>
-      </c>
-      <c r="G104" s="3">
-        <v>2.1928583493095002</v>
-      </c>
-      <c r="H104" s="1">
-        <v>102</v>
-      </c>
-      <c r="I104" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J104" s="2">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="K104" s="2">
-        <v>2.29E-2</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M104" s="1">
-        <v>92</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="1">
-        <v>643</v>
-      </c>
-      <c r="D105" s="1">
-        <v>647</v>
-      </c>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1.10389314505526</v>
-      </c>
-      <c r="G105" s="3">
-        <v>2.2700449050559599</v>
-      </c>
-      <c r="H105" s="1">
-        <v>102</v>
-      </c>
-      <c r="I105" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J105" s="2">
-        <v>6.3E-3</v>
-      </c>
-      <c r="K105" s="2">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M105" s="1">
-        <v>67</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="1">
-        <v>719</v>
-      </c>
-      <c r="D106" s="1">
-        <v>435</v>
-      </c>
-      <c r="E106" t="s">
-        <v>151</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1.23424732715402</v>
-      </c>
-      <c r="G106" s="3">
-        <v>2.2736986053614201</v>
-      </c>
-      <c r="H106" s="1">
-        <v>102</v>
-      </c>
-      <c r="I106" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J106" s="2">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K106" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M106" s="1">
-        <v>71</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="1">
-        <v>781</v>
-      </c>
-      <c r="D107" s="1">
-        <v>547</v>
-      </c>
-      <c r="E107" t="s">
-        <v>152</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1.35082341284848</v>
-      </c>
-      <c r="G107" s="3">
-        <v>2.35874836244182</v>
-      </c>
-      <c r="H107" s="1">
-        <v>102</v>
-      </c>
-      <c r="I107" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J107" s="2">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K107" s="2">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M107" s="1">
-        <v>63</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="1">
-        <v>792</v>
-      </c>
-      <c r="D108" s="1">
-        <v>872</v>
-      </c>
-      <c r="E108" t="s">
-        <v>153</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1.3687435892706601</v>
-      </c>
-      <c r="G108" s="3">
-        <v>2.2481387285237702</v>
-      </c>
-      <c r="H108" s="1">
-        <v>102</v>
-      </c>
-      <c r="I108" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J108" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="K108" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M108" s="1">
-        <v>55</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="1">
-        <v>794</v>
-      </c>
-      <c r="D109" s="1">
-        <v>1052</v>
-      </c>
-      <c r="E109" t="s">
-        <v>154</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1.38346572922929</v>
-      </c>
-      <c r="G109" s="3">
-        <v>2.3199441863485202</v>
-      </c>
-      <c r="H109" s="1">
-        <v>102</v>
-      </c>
-      <c r="I109" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J109" s="2">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="K109" s="2">
-        <v>1.11E-2</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M109" s="1">
-        <v>59</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="1">
-        <v>913</v>
-      </c>
-      <c r="D110" s="1">
-        <v>788</v>
-      </c>
-      <c r="E110" t="s">
-        <v>155</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1.58899608077594</v>
-      </c>
-      <c r="G110" s="3">
-        <v>2.3915531280481699</v>
-      </c>
-      <c r="H110" s="1">
-        <v>102</v>
-      </c>
-      <c r="I110" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J110" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="K110" s="2">
-        <v>1.15E-2</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M110" s="1">
-        <v>52</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1072</v>
-      </c>
-      <c r="D111" s="1">
-        <v>674</v>
-      </c>
-      <c r="E111" t="s">
-        <v>156</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1.87454181313165</v>
-      </c>
-      <c r="G111" s="3">
-        <v>2.2583659974039301</v>
-      </c>
-      <c r="H111" s="1">
-        <v>109</v>
-      </c>
-      <c r="I111" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J111" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K111" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M111" s="1">
-        <v>72</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1073</v>
-      </c>
-      <c r="D112" s="1">
-        <v>670</v>
-      </c>
-      <c r="E112" t="s">
-        <v>158</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1.8763743499071599</v>
-      </c>
-      <c r="G112" s="3">
-        <v>2.3239409763263001</v>
-      </c>
-      <c r="H112" s="1">
-        <v>109</v>
-      </c>
-      <c r="I112" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="J112" s="2">
-        <v>1.9E-3</v>
-      </c>
-      <c r="K112" s="2">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M112" s="1">
-        <v>65</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="1">
-        <v>948</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1871</v>
-      </c>
-      <c r="E113" t="s">
-        <v>159</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1.6550194001618499</v>
-      </c>
-      <c r="G113" s="3">
-        <v>2.4004374526416399</v>
-      </c>
-      <c r="H113" s="1">
-        <v>111</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="K113" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113" s="1">
-        <v>57</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="1">
-        <v>976</v>
-      </c>
-      <c r="D114" s="1">
-        <v>728</v>
-      </c>
-      <c r="E114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1.70364368537732</v>
-      </c>
-      <c r="G114" s="3">
-        <v>2.33989507939497</v>
-      </c>
-      <c r="H114" s="1">
-        <v>111</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="K114" s="2">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M114" s="1">
-        <v>63</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1082</v>
-      </c>
-      <c r="D115" s="1">
-        <v>1327</v>
-      </c>
-      <c r="E115" t="s">
-        <v>162</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1.88220310590658</v>
-      </c>
-      <c r="G115" s="3">
-        <v>2.3466190714238802</v>
-      </c>
-      <c r="H115" s="1">
-        <v>111</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K115" s="2">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M115" s="1">
-        <v>49</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1157</v>
-      </c>
-      <c r="D116" s="1">
-        <v>665</v>
-      </c>
-      <c r="E116" t="s">
-        <v>163</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1.9984388256638299</v>
-      </c>
-      <c r="G116" s="3">
-        <v>2.3822600792941202</v>
-      </c>
-      <c r="H116" s="1">
-        <v>111</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="K116" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M116" s="1">
-        <v>67</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1168</v>
-      </c>
-      <c r="D117" s="1">
-        <v>686</v>
-      </c>
-      <c r="E117" t="s">
-        <v>164</v>
-      </c>
-      <c r="F117" s="3">
-        <v>2.0133436419025501</v>
-      </c>
-      <c r="G117" s="3">
-        <v>2.3440711690699301</v>
-      </c>
-      <c r="H117" s="1">
-        <v>111</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="K117" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M117" s="1">
-        <v>60</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="1">
-        <v>1189</v>
-      </c>
-      <c r="D118" s="1">
-        <v>1381</v>
-      </c>
-      <c r="E118" t="s">
-        <v>165</v>
-      </c>
-      <c r="F118" s="3">
-        <v>2.0414318004576102</v>
-      </c>
-      <c r="G118" s="3">
-        <v>2.3277357843348101</v>
-      </c>
-      <c r="H118" s="1">
-        <v>111</v>
-      </c>
-      <c r="I118" s="2">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K118" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118" s="1">
-        <v>54</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1275</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1209</v>
-      </c>
-      <c r="E119" t="s">
-        <v>166</v>
-      </c>
-      <c r="F119" s="3">
-        <v>2.1670545732731101</v>
-      </c>
-      <c r="G119" s="3">
-        <v>2.3561624386812801</v>
-      </c>
-      <c r="H119" s="1">
-        <v>111</v>
-      </c>
-      <c r="I119" s="2">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="K119" s="2">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M119" s="1">
-        <v>50</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1366</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1151</v>
-      </c>
-      <c r="E120" t="s">
-        <v>167</v>
-      </c>
-      <c r="F120" s="3">
-        <v>2.3096114916980901</v>
-      </c>
-      <c r="G120" s="3">
-        <v>2.3965656102177602</v>
-      </c>
-      <c r="H120" s="1">
-        <v>111</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K120" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M120" s="1">
-        <v>54</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1591</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1871</v>
-      </c>
-      <c r="E121" t="s">
-        <v>168</v>
-      </c>
-      <c r="F121" s="3">
-        <v>2.6416592105851202</v>
-      </c>
-      <c r="G121" s="3">
-        <v>2.4652740593093698</v>
-      </c>
-      <c r="H121" s="1">
-        <v>111</v>
-      </c>
-      <c r="I121" s="2">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K121" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M121" s="1">
-        <v>35</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1916</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1871</v>
-      </c>
-      <c r="E122" t="s">
-        <v>170</v>
-      </c>
-      <c r="F122" s="3">
-        <v>3.20125386842258</v>
-      </c>
-      <c r="G122" s="3">
-        <v>2.3907348630177401</v>
-      </c>
-      <c r="H122" s="1">
-        <v>111</v>
-      </c>
-      <c r="I122" s="2">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2">
-        <v>0</v>
-      </c>
-      <c r="K122" s="2">
-        <v>0</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M122" s="1">
-        <v>12</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E123" t="s">
-        <v>172</v>
-      </c>
-      <c r="F123" s="3">
-        <v>3</v>
-      </c>
-      <c r="G123" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H123" s="1">
-        <v>111</v>
-      </c>
-      <c r="I123" s="2">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2">
-        <v>0</v>
-      </c>
-      <c r="K123" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E124" t="s">
-        <v>173</v>
-      </c>
-      <c r="F124" s="3">
-        <v>3</v>
-      </c>
-      <c r="G124" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H124" s="1">
-        <v>111</v>
-      </c>
-      <c r="I124" s="2">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2">
-        <v>0</v>
-      </c>
-      <c r="K124" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E125" t="s">
-        <v>174</v>
-      </c>
-      <c r="F125" s="3">
-        <v>3</v>
-      </c>
-      <c r="G125" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H125" s="1">
-        <v>111</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K125" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E126" t="s">
-        <v>175</v>
-      </c>
-      <c r="F126" s="3">
-        <v>3</v>
-      </c>
-      <c r="G126" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H126" s="1">
-        <v>111</v>
-      </c>
-      <c r="I126" s="2">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2">
-        <v>0</v>
-      </c>
-      <c r="K126" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Current_Event_Simulation.xlsx
+++ b/Output/Current_Event_Simulation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="0" windowWidth="28800" windowHeight="12060"/>
+    <workbookView xWindow="2325" yWindow="0" windowWidth="19830" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Current_Event_Simulation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="199">
   <si>
     <t>Event_Name</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Recent_Tour</t>
   </si>
   <si>
-    <t>Masters Tournament</t>
+    <t>U.S. Open</t>
   </si>
   <si>
     <t>Major Championship</t>
@@ -84,19 +84,22 @@
     <t>USA</t>
   </si>
   <si>
+    <t>Jordan Spieth</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
     <t>Henrik Stenson</t>
   </si>
   <si>
     <t>SWE</t>
   </si>
   <si>
-    <t>Jordan Spieth</t>
-  </si>
-  <si>
-    <t>Jason Day</t>
-  </si>
-  <si>
-    <t>AUS</t>
+    <t>European Tour</t>
   </si>
   <si>
     <t>Hideki Matsuyama</t>
@@ -105,43 +108,67 @@
     <t>JPN</t>
   </si>
   <si>
+    <t>Sergio Garcia</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
     <t>Rickie Fowler</t>
   </si>
   <si>
+    <t>Justin Rose</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
     <t>Jon Rahm</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Justin Rose</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>Sergio Garcia</t>
-  </si>
-  <si>
     <t>Adam Scott</t>
   </si>
   <si>
     <t>Paul Casey</t>
   </si>
   <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>Francesco Molinari</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>Phil Mickelson</t>
   </si>
   <si>
-    <t>Justin Thomas</t>
-  </si>
-  <si>
-    <t>Matt Kuchar</t>
-  </si>
-  <si>
-    <t>Francesco Molinari</t>
-  </si>
-  <si>
-    <t>ITA</t>
+    <t>Alex Noren</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Jason Dufner</t>
+  </si>
+  <si>
+    <t>Kevin Kisner</t>
+  </si>
+  <si>
+    <t>Charl Schwartzel</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t>Pat Perez</t>
   </si>
   <si>
     <t>Brandt Snedeker</t>
@@ -150,187 +177,223 @@
     <t>Tyrrell Hatton</t>
   </si>
   <si>
+    <t>Daniel Berger</t>
+  </si>
+  <si>
+    <t>Emiliano Grillo</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Marc Leishman</t>
+  </si>
+  <si>
+    <t>Bubba Watson</t>
+  </si>
+  <si>
+    <t>Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Martin Kaymer</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Brendan Steele</t>
+  </si>
+  <si>
+    <t>Steve Stricker</t>
+  </si>
+  <si>
+    <t>Patrick Reed</t>
+  </si>
+  <si>
     <t>Adam Hadwin</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>Alex Noren</t>
-  </si>
-  <si>
-    <t>European Tour</t>
+    <t>Kevin Chappell</t>
+  </si>
+  <si>
+    <t>Ross Fisher</t>
+  </si>
+  <si>
+    <t>Bill Haas</t>
+  </si>
+  <si>
+    <t>Branden Grace</t>
+  </si>
+  <si>
+    <t>Shane Lowry</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>J.B. Holmes</t>
+  </si>
+  <si>
+    <t>Rafael Cabrera Bello</t>
+  </si>
+  <si>
+    <t>Thomas Pieters</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Jimmy Walker</t>
+  </si>
+  <si>
+    <t>Russell Henley</t>
+  </si>
+  <si>
+    <t>Byeong Hun An</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>Billy Horschel</t>
   </si>
   <si>
     <t>Gary Woodland</t>
   </si>
   <si>
-    <t>Martin Kaymer</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Brooks Koepka</t>
-  </si>
-  <si>
-    <t>Daniel Berger</t>
-  </si>
-  <si>
-    <t>Marc Leishman</t>
-  </si>
-  <si>
-    <t>Kevin Kisner</t>
-  </si>
-  <si>
-    <t>Bill Haas</t>
-  </si>
-  <si>
-    <t>Charl Schwartzel</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>Patrick Reed</t>
-  </si>
-  <si>
-    <t>Louis Oosthuizen</t>
-  </si>
-  <si>
-    <t>Brendan Steele</t>
-  </si>
-  <si>
-    <t>Bubba Watson</t>
-  </si>
-  <si>
-    <t>Ryan Moore</t>
-  </si>
-  <si>
-    <t>Bernd Wiesberger</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Russell Henley</t>
-  </si>
-  <si>
-    <t>Emiliano Grillo</t>
-  </si>
-  <si>
-    <t>ARG</t>
+    <t>Charley Hoffman</t>
+  </si>
+  <si>
+    <t>Webb Simpson</t>
+  </si>
+  <si>
+    <t>Russell Knox</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>Lee Westwood</t>
+  </si>
+  <si>
+    <t>Zach Johnson</t>
+  </si>
+  <si>
+    <t>Brian Harman</t>
+  </si>
+  <si>
+    <t>Lucas Glover</t>
+  </si>
+  <si>
+    <t>Jhonattan Vegas</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Stewart Cink</t>
+  </si>
+  <si>
+    <t>Keegan Bradley</t>
+  </si>
+  <si>
+    <t>Graeme McDowell</t>
+  </si>
+  <si>
+    <t>Wesley Bryan</t>
+  </si>
+  <si>
+    <t>Kevin Na</t>
+  </si>
+  <si>
+    <t>William McGirt</t>
+  </si>
+  <si>
+    <t>Chris Wood</t>
+  </si>
+  <si>
+    <t>Jamie Lovemark</t>
+  </si>
+  <si>
+    <t>Bud Cauley</t>
+  </si>
+  <si>
+    <t>Chez Reavie</t>
   </si>
   <si>
     <t>Jim Furyk</t>
   </si>
   <si>
-    <t>J.B. Holmes</t>
-  </si>
-  <si>
-    <t>Jason Dufner</t>
-  </si>
-  <si>
-    <t>Russell Knox</t>
-  </si>
-  <si>
-    <t>SCO</t>
-  </si>
-  <si>
-    <t>Pat Perez</t>
-  </si>
-  <si>
-    <t>Shane Lowry</t>
-  </si>
-  <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>Zach Johnson</t>
-  </si>
-  <si>
-    <t>Rafael Cabrera Bello</t>
-  </si>
-  <si>
-    <t>Jimmy Walker</t>
-  </si>
-  <si>
-    <t>Ross Fisher</t>
-  </si>
-  <si>
-    <t>Kevin Na</t>
-  </si>
-  <si>
-    <t>Lee Westwood</t>
-  </si>
-  <si>
-    <t>Matthew Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Branden Grace</t>
-  </si>
-  <si>
-    <t>Charley Hoffman</t>
+    <t>Ryan Palmer</t>
+  </si>
+  <si>
+    <t>Jason Kokrak</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
   </si>
   <si>
     <t>Scott Piercy</t>
   </si>
   <si>
-    <t>Webb Simpson</t>
-  </si>
-  <si>
-    <t>Tommy Fleetwood</t>
-  </si>
-  <si>
-    <t>Andy Sullivan</t>
-  </si>
-  <si>
-    <t>Thomas Pieters</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Kevin Chappell</t>
-  </si>
-  <si>
-    <t>Jhonattan Vegas</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>Steve Stricker</t>
+    <t>David Lingmerth</t>
+  </si>
+  <si>
+    <t>Martin Laird</t>
+  </si>
+  <si>
+    <t>Hideto Tanihara</t>
+  </si>
+  <si>
+    <t>Japan Golf Tour</t>
+  </si>
+  <si>
+    <t>Sean O'Hair</t>
+  </si>
+  <si>
+    <t>Alexander Levy</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Harris English</t>
+  </si>
+  <si>
+    <t>Peter Uihlein</t>
   </si>
   <si>
     <t>Danny Willett</t>
   </si>
   <si>
-    <t>Hudson Swafford</t>
-  </si>
-  <si>
-    <t>Byeong Hun An</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>Chris Wood</t>
-  </si>
-  <si>
-    <t>William McGirt</t>
-  </si>
-  <si>
-    <t>Soren Kjeldsen</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Hideto Tanihara</t>
-  </si>
-  <si>
-    <t>Japan Golf Tour</t>
+    <t>Ted Potter-jr</t>
+  </si>
+  <si>
+    <t>Web.com Tour</t>
+  </si>
+  <si>
+    <t>George Coetzee</t>
+  </si>
+  <si>
+    <t>Siwoo Kim</t>
+  </si>
+  <si>
+    <t>JT Poston</t>
+  </si>
+  <si>
+    <t>Daniel Summerhays</t>
+  </si>
+  <si>
+    <t>Meenwhee Kim</t>
   </si>
   <si>
     <t>Jeunghun Wang</t>
@@ -339,94 +402,220 @@
     <t>Yuta Ikeda</t>
   </si>
   <si>
-    <t>Sean O'Hair</t>
-  </si>
-  <si>
-    <t>James Hahn</t>
+    <t>Bradley Dredge</t>
+  </si>
+  <si>
+    <t>WAL</t>
+  </si>
+  <si>
+    <t>Andrew Johnston</t>
   </si>
   <si>
     <t>Roberto Castro</t>
   </si>
   <si>
-    <t>Daniel Summerhays</t>
-  </si>
-  <si>
-    <t>Siwoo Kim</t>
+    <t>Gregory Bourdy</t>
+  </si>
+  <si>
+    <t>Paul Dunne</t>
+  </si>
+  <si>
+    <t>Li Haotong</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>C.T. Pan</t>
+  </si>
+  <si>
+    <t>TPE</t>
   </si>
   <si>
     <t>Brian Stuard</t>
   </si>
   <si>
-    <t>Billy Hurley III</t>
-  </si>
-  <si>
-    <t>Rod Pampling</t>
-  </si>
-  <si>
-    <t>Vijay Singh</t>
-  </si>
-  <si>
-    <t>FIJ</t>
-  </si>
-  <si>
-    <t>Mackenzie Hughes</t>
+    <t>Jonathan Randolph</t>
+  </si>
+  <si>
+    <t>Thomas Aiken</t>
+  </si>
+  <si>
+    <t>Trey Mullinax</t>
+  </si>
+  <si>
+    <t>Satoshi Kodaira</t>
+  </si>
+  <si>
+    <t>Ryan Brehm</t>
+  </si>
+  <si>
+    <t>Shugo Imahira</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Brandon Stone</t>
+  </si>
+  <si>
+    <t>Troy Merritt</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>Richie Ramsay</t>
+  </si>
+  <si>
+    <t>Stephan Jaeger</t>
+  </si>
+  <si>
+    <t>Kyle Thompson</t>
+  </si>
+  <si>
+    <t>Bryson DeChambeau</t>
+  </si>
+  <si>
+    <t>Michael Putnam</t>
   </si>
   <si>
     <t>Ernie Els</t>
   </si>
   <si>
-    <t>Curtis Luck(Am)</t>
+    <t>Yusaku Miyazato</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Corey Conners</t>
+  </si>
+  <si>
+    <t>Eddie Pepperell</t>
+  </si>
+  <si>
+    <t>Brice Garnett</t>
+  </si>
+  <si>
+    <t>Talor Gooch</t>
+  </si>
+  <si>
+    <t>Jack Maguire</t>
+  </si>
+  <si>
+    <t>Wade Ormsby</t>
+  </si>
+  <si>
+    <t>Aaron Rai</t>
+  </si>
+  <si>
+    <t>European Challenge Tour</t>
+  </si>
+  <si>
+    <t>Oliver Bekker</t>
+  </si>
+  <si>
+    <t>Sunshine Tour</t>
   </si>
   <si>
     <t>Angel Cabrera</t>
   </si>
   <si>
-    <t>Trevor Immelman</t>
-  </si>
-  <si>
-    <t>Sunshine Tour</t>
-  </si>
-  <si>
-    <t>Jose M Olazabal</t>
+    <t>Chan Kim</t>
+  </si>
+  <si>
+    <t>Andres Romero</t>
+  </si>
+  <si>
+    <t>Jordan Niebrugge</t>
+  </si>
+  <si>
+    <t>PGA Tour Canada</t>
+  </si>
+  <si>
+    <t>Joel Stalter</t>
+  </si>
+  <si>
+    <t>Andy Pope</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Mike Weir</t>
-  </si>
-  <si>
-    <t>Fred Couples</t>
-  </si>
-  <si>
-    <t>Larry Mize</t>
-  </si>
-  <si>
-    <t>Mark O'Meara</t>
-  </si>
-  <si>
-    <t>Bernhard Langer</t>
-  </si>
-  <si>
-    <t>Sandy Lyle</t>
-  </si>
-  <si>
-    <t>Ian Woosnam</t>
+    <t>Ben Kohles</t>
+  </si>
+  <si>
+    <t>Daniel Chopra</t>
+  </si>
+  <si>
+    <t>Nick Flanagan</t>
+  </si>
+  <si>
+    <t>Daniel Miernicki</t>
+  </si>
+  <si>
+    <t>Garrett Osborn</t>
+  </si>
+  <si>
+    <t>Tyson Alexander</t>
+  </si>
+  <si>
+    <t>John Oda</t>
+  </si>
+  <si>
+    <t>Derek Barron</t>
+  </si>
+  <si>
+    <t>Joaquin Niemann(Am)</t>
+  </si>
+  <si>
+    <t>Scottie Scheffler(Am)</t>
+  </si>
+  <si>
+    <t>Maverick McNealy</t>
+  </si>
+  <si>
+    <t>Scott Harvey</t>
+  </si>
+  <si>
+    <t>Kevin Dougherty</t>
+  </si>
+  <si>
+    <t>Tyler Light</t>
+  </si>
+  <si>
+    <t>Davis Love IV</t>
   </si>
   <si>
     <t>Brad Dalke</t>
   </si>
   <si>
+    <t>Roman Robledo</t>
+  </si>
+  <si>
+    <t>Christopher Crawford</t>
+  </si>
+  <si>
     <t>Scott Gregory(Am)</t>
   </si>
   <si>
+    <t>Sahith Theegala</t>
+  </si>
+  <si>
+    <t>Stewart Hagestad(Am)</t>
+  </si>
+  <si>
+    <t>Max Greyserman</t>
+  </si>
+  <si>
     <t>by Daniel Myers (@DSMok1)</t>
   </si>
   <si>
     <t>Simulations for Upcoming Events</t>
   </si>
   <si>
-    <t>Updated  April 5, 2017</t>
+    <t>Updated  June 13, 2017</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1274,26 +1463,26 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="D1" s="6"/>
       <c r="F1" s="7" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="6"/>
@@ -1365,28 +1554,28 @@
         <v>16</v>
       </c>
       <c r="F3" s="3">
-        <v>-2.5024258537781301</v>
+        <v>-2.4382785290000002</v>
       </c>
       <c r="G3" s="3">
-        <v>2.3367110205396799</v>
+        <v>2.3231906179999999</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>9.98E-2</v>
+        <v>8.1790000000000002E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>0.32335999999999998</v>
+        <v>0.27607999999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>0.48982999999999999</v>
+        <v>0.42715999999999998</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
@@ -1409,28 +1598,28 @@
         <v>19</v>
       </c>
       <c r="F4" s="3">
-        <v>-2.42683223705711</v>
+        <v>-2.304890254</v>
       </c>
       <c r="G4" s="3">
-        <v>2.38919798371766</v>
+        <v>2.4308817930000002</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>9.3369999999999995E-2</v>
+        <v>7.4959999999999999E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>0.30321999999999999</v>
+        <v>0.24995999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.46250999999999998</v>
+        <v>0.38873000000000002</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
@@ -1453,28 +1642,28 @@
         <v>21</v>
       </c>
       <c r="F5" s="3">
-        <v>-2.2203002152000102</v>
+        <v>-2.1938575120000001</v>
       </c>
       <c r="G5" s="3">
-        <v>2.3783006692712698</v>
+        <v>2.3502944389999998</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>6.6229999999999997E-2</v>
+        <v>5.4940000000000003E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>0.24243000000000001</v>
+        <v>0.21154999999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>0.39324999999999999</v>
+        <v>0.34889999999999999</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>18</v>
@@ -1491,34 +1680,34 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
-        <v>-2.2022786310415299</v>
+        <v>-2.1299822150000001</v>
       </c>
       <c r="G6" s="3">
-        <v>2.2866496822311602</v>
+        <v>2.376114946</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>5.7509999999999999E-2</v>
+        <v>5.1869999999999999E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>0.2303</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="K6" s="2">
-        <v>0.38329000000000002</v>
+        <v>0.33034999999999998</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M6" s="1">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>18</v>
@@ -1535,37 +1724,37 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3">
-        <v>-2.12550036070306</v>
+        <v>-2.0831335850000001</v>
       </c>
       <c r="G7" s="3">
-        <v>2.3513919768096501</v>
+        <v>2.3491104649999999</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="2">
-        <v>5.5289999999999999E-2</v>
+        <v>4.616E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.21481</v>
+        <v>0.18578</v>
       </c>
       <c r="K7" s="2">
-        <v>0.36158000000000001</v>
+        <v>0.31344</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,37 +1765,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
-        <v>-1.9409766347969499</v>
+        <v>-1.919213573</v>
       </c>
       <c r="G8" s="3">
-        <v>2.3792048124032701</v>
+        <v>2.416719499</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>3.909E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>0.17612</v>
+        <v>0.15586</v>
       </c>
       <c r="K8" s="2">
-        <v>0.30531999999999998</v>
+        <v>0.26890999999999998</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>18</v>
@@ -1620,37 +1809,37 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
-        <v>-1.87708386201095</v>
+        <v>-1.934220853</v>
       </c>
       <c r="G9" s="3">
-        <v>2.3478058990001802</v>
+        <v>2.35829427</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
       <c r="I9" s="2">
-        <v>3.6540000000000003E-2</v>
+        <v>3.5540000000000002E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>0.15883</v>
+        <v>0.15367</v>
       </c>
       <c r="K9" s="2">
-        <v>0.28560000000000002</v>
+        <v>0.26976</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>18</v>
@@ -1664,37 +1853,37 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
-        <v>-1.8790964312178</v>
+        <v>-1.840202737</v>
       </c>
       <c r="G10" s="3">
-        <v>2.2412340820832601</v>
+        <v>2.4316611809999999</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>3.0769999999999999E-2</v>
+        <v>3.3259999999999998E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>0.14852000000000001</v>
+        <v>0.1424</v>
       </c>
       <c r="K10" s="2">
-        <v>0.27629999999999999</v>
+        <v>0.24887000000000001</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
@@ -1708,37 +1897,37 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
-        <v>-1.8312338265396799</v>
+        <v>-1.855188826</v>
       </c>
       <c r="G11" s="3">
-        <v>2.2731861231790802</v>
+        <v>2.3278792199999998</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
       <c r="I11" s="2">
-        <v>2.904E-2</v>
+        <v>3.0949999999999998E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>0.14041000000000001</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.26455000000000001</v>
+        <v>0.24575</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>18</v>
@@ -1755,34 +1944,34 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3">
-        <v>-1.8172872994387601</v>
+        <v>-1.8132971980000001</v>
       </c>
       <c r="G12" s="3">
-        <v>2.2639140609208299</v>
+        <v>2.351753472</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>2.8160000000000001E-2</v>
+        <v>2.9360000000000001E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>0.13819999999999999</v>
+        <v>0.13077</v>
       </c>
       <c r="K12" s="2">
-        <v>0.26057000000000002</v>
+        <v>0.23552000000000001</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>18</v>
@@ -1799,34 +1988,34 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3">
-        <v>-1.65264589934683</v>
+        <v>-1.7707471100000001</v>
       </c>
       <c r="G13" s="3">
-        <v>2.3714165391128001</v>
+        <v>2.3668193030000002</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>2.5309999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>0.11866</v>
+        <v>0.12536</v>
       </c>
       <c r="K13" s="2">
-        <v>0.2261</v>
+        <v>0.22847000000000001</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>18</v>
@@ -1843,31 +2032,31 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3">
-        <v>-1.6302496562406199</v>
+        <v>-1.7676103620000001</v>
       </c>
       <c r="G14" s="3">
-        <v>2.2927993352817402</v>
+        <v>2.320319537</v>
       </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
       <c r="I14" s="2">
-        <v>2.0590000000000001E-2</v>
+        <v>2.571E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>0.11076</v>
+        <v>0.12</v>
       </c>
       <c r="K14" s="2">
-        <v>0.21601000000000001</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="1">
         <v>86</v>
@@ -1884,37 +2073,37 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="3">
-        <v>-1.58699155737693</v>
+        <v>-1.6533760399999999</v>
       </c>
       <c r="G15" s="3">
-        <v>2.2927090432133301</v>
+        <v>2.2982888130000001</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>1.949E-2</v>
+        <v>1.942E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>0.10349</v>
+        <v>9.7379999999999994E-2</v>
       </c>
       <c r="K15" s="2">
-        <v>0.20352000000000001</v>
+        <v>0.19136</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>18</v>
@@ -1931,34 +2120,34 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3">
-        <v>-1.4808895043846899</v>
+        <v>-1.524439688</v>
       </c>
       <c r="G16" s="3">
-        <v>2.4128817925574899</v>
+        <v>2.4203967799999999</v>
       </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
       <c r="I16" s="2">
-        <v>1.9359999999999999E-2</v>
+        <v>1.916E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>9.6479999999999996E-2</v>
+        <v>9.3020000000000005E-2</v>
       </c>
       <c r="K16" s="2">
-        <v>0.18870999999999999</v>
+        <v>0.17682</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>18</v>
@@ -1972,37 +2161,37 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3">
-        <v>-1.5185059172133</v>
+        <v>-1.64242873</v>
       </c>
       <c r="G17" s="3">
-        <v>2.2512114700108499</v>
+        <v>2.279726401</v>
       </c>
       <c r="H17" s="1">
         <v>15</v>
       </c>
       <c r="I17" s="2">
-        <v>1.5219999999999999E-2</v>
+        <v>1.8089999999999998E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>8.8700000000000001E-2</v>
+        <v>9.5210000000000003E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>0.18360000000000001</v>
+        <v>0.18622</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M17" s="1">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>18</v>
@@ -2016,37 +2205,37 @@
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3">
-        <v>-1.50006341888157</v>
+        <v>-1.6580523439999999</v>
       </c>
       <c r="G18" s="3">
-        <v>2.2738068787842298</v>
+        <v>2.2449224029999999</v>
       </c>
       <c r="H18" s="1">
         <v>16</v>
       </c>
       <c r="I18" s="2">
-        <v>1.4840000000000001E-2</v>
+        <v>1.711E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>8.6830000000000004E-2</v>
+        <v>9.2969999999999997E-2</v>
       </c>
       <c r="K18" s="2">
-        <v>0.17948</v>
+        <v>0.18620999999999999</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M18" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>18</v>
@@ -2060,40 +2249,40 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3">
-        <v>-1.3800866979908399</v>
+        <v>-1.4519627509999999</v>
       </c>
       <c r="G19" s="3">
-        <v>2.3033126276381899</v>
+        <v>2.3636525100000001</v>
       </c>
       <c r="H19" s="1">
         <v>17</v>
       </c>
       <c r="I19" s="2">
-        <v>1.308E-2</v>
+        <v>1.393E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>7.4459999999999998E-2</v>
+        <v>7.7259999999999995E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>0.15575</v>
+        <v>0.15461</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M19" s="1">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2104,37 +2293,37 @@
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
-        <v>-1.43380879110964</v>
+        <v>-1.364303418</v>
       </c>
       <c r="G20" s="3">
-        <v>2.2704475914173501</v>
+        <v>2.4043035490000002</v>
       </c>
       <c r="H20" s="1">
         <v>18</v>
       </c>
       <c r="I20" s="2">
-        <v>1.307E-2</v>
+        <v>1.376E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>7.8450000000000006E-2</v>
+        <v>7.2279999999999997E-2</v>
       </c>
       <c r="K20" s="2">
-        <v>0.1636</v>
+        <v>0.14291999999999999</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M20" s="1">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>18</v>
@@ -2148,37 +2337,37 @@
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
-        <v>-1.1988710232828701</v>
+        <v>-1.343923905</v>
       </c>
       <c r="G21" s="3">
-        <v>2.4149173686562801</v>
+        <v>2.4224625359999998</v>
       </c>
       <c r="H21" s="1">
         <v>19</v>
       </c>
       <c r="I21" s="2">
-        <v>1.061E-2</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J21" s="2">
-        <v>6.2740000000000004E-2</v>
+        <v>6.991E-2</v>
       </c>
       <c r="K21" s="2">
-        <v>0.13217000000000001</v>
+        <v>0.14008000000000001</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M21" s="1">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>18</v>
@@ -2192,40 +2381,40 @@
         <v>15</v>
       </c>
       <c r="C22" s="1">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
         <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="3">
-        <v>-1.29700063176001</v>
+        <v>-1.3046204640000001</v>
       </c>
       <c r="G22" s="3">
-        <v>2.2806707226058198</v>
+        <v>2.3977581880000001</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>1.001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="J22" s="2">
-        <v>6.3820000000000002E-2</v>
+        <v>6.4509999999999998E-2</v>
       </c>
       <c r="K22" s="2">
-        <v>0.13916000000000001</v>
+        <v>0.13103000000000001</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M22" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2239,34 +2428,34 @@
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3">
-        <v>-1.26054135092625</v>
+        <v>-1.3060535600000001</v>
       </c>
       <c r="G23" s="3">
-        <v>2.2681480936868699</v>
+        <v>2.3870927219999998</v>
       </c>
       <c r="H23" s="1">
         <v>21</v>
       </c>
       <c r="I23" s="2">
-        <v>9.9699999999999997E-3</v>
+        <v>1.1509999999999999E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>5.9569999999999998E-2</v>
+        <v>6.3170000000000004E-2</v>
       </c>
       <c r="K23" s="2">
-        <v>0.12859999999999999</v>
+        <v>0.12967999999999999</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>18</v>
@@ -2280,40 +2469,40 @@
         <v>15</v>
       </c>
       <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
         <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="3">
-        <v>-1.2726840530391299</v>
+        <v>-1.315133756</v>
       </c>
       <c r="G24" s="3">
-        <v>2.3233303160729699</v>
+        <v>2.3460174619999998</v>
       </c>
       <c r="H24" s="1">
         <v>22</v>
       </c>
       <c r="I24" s="2">
-        <v>9.8899999999999995E-3</v>
+        <v>1.064E-2</v>
       </c>
       <c r="J24" s="2">
-        <v>6.2469999999999998E-2</v>
+        <v>6.087E-2</v>
       </c>
       <c r="K24" s="2">
-        <v>0.13555</v>
+        <v>0.12662000000000001</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M24" s="1">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,34 +2516,34 @@
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3">
-        <v>-1.1342629424553801</v>
+        <v>-1.1596327740000001</v>
       </c>
       <c r="G25" s="3">
-        <v>2.40399697160474</v>
+        <v>2.4721369819999999</v>
       </c>
       <c r="H25" s="1">
         <v>23</v>
       </c>
       <c r="I25" s="2">
-        <v>9.7300000000000008E-3</v>
+        <v>1.021E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>5.6160000000000002E-2</v>
+        <v>5.5879999999999999E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>0.12194000000000001</v>
+        <v>0.11373</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>18</v>
@@ -2368,37 +2557,37 @@
         <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3">
-        <v>-1.25222031994662</v>
+        <v>-1.3096432220000001</v>
       </c>
       <c r="G26" s="3">
-        <v>2.2931060268649999</v>
+        <v>2.2851604409999999</v>
       </c>
       <c r="H26" s="1">
         <v>24</v>
       </c>
       <c r="I26" s="2">
-        <v>9.5499999999999995E-3</v>
+        <v>9.1500000000000001E-3</v>
       </c>
       <c r="J26" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>5.5509999999999997E-2</v>
       </c>
       <c r="K26" s="2">
-        <v>0.12855</v>
+        <v>0.11934</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>18</v>
@@ -2412,37 +2601,37 @@
         <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3">
-        <v>-1.2124609720405</v>
+        <v>-1.268505392</v>
       </c>
       <c r="G27" s="3">
-        <v>2.3388776346376101</v>
+        <v>2.3198687169999999</v>
       </c>
       <c r="H27" s="1">
         <v>25</v>
       </c>
       <c r="I27" s="2">
-        <v>9.2800000000000001E-3</v>
+        <v>9.0299999999999998E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>5.781E-2</v>
+        <v>5.4690000000000003E-2</v>
       </c>
       <c r="K27" s="2">
-        <v>0.12629000000000001</v>
+        <v>0.11641</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M27" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>18</v>
@@ -2456,37 +2645,37 @@
         <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="3">
-        <v>-1.1297000388882401</v>
+        <v>-1.2914418270000001</v>
       </c>
       <c r="G28" s="3">
-        <v>2.3914011067955401</v>
+        <v>2.298002839</v>
       </c>
       <c r="H28" s="1">
         <v>26</v>
       </c>
       <c r="I28" s="2">
-        <v>9.0200000000000002E-3</v>
+        <v>8.7200000000000003E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>5.4309999999999997E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>0.11871</v>
+        <v>0.11698</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>18</v>
@@ -2500,37 +2689,37 @@
         <v>15</v>
       </c>
       <c r="C29" s="1">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3">
-        <v>-1.35152100888815</v>
+        <v>-1.1394557359999999</v>
       </c>
       <c r="G29" s="3">
-        <v>2.1978863148321</v>
+        <v>2.3991621209999998</v>
       </c>
       <c r="H29" s="1">
         <v>27</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9599999999999992E-3</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>6.1899999999999997E-2</v>
+        <v>4.9029999999999997E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>0.13825999999999999</v>
+        <v>0.10392</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M29" s="1">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>18</v>
@@ -2544,37 +2733,37 @@
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
       <c r="F30" s="3">
-        <v>-1.1792848370243301</v>
+        <v>-1.2283973580000001</v>
       </c>
       <c r="G30" s="3">
-        <v>2.3433060318099499</v>
+        <v>2.3148606030000001</v>
       </c>
       <c r="H30" s="1">
         <v>28</v>
       </c>
       <c r="I30" s="2">
-        <v>8.9099999999999995E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>5.7340000000000002E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="K30" s="2">
-        <v>0.12284</v>
+        <v>0.10717</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M30" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>18</v>
@@ -2591,34 +2780,34 @@
         <v>30</v>
       </c>
       <c r="D31" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="3">
-        <v>-1.1812789382064499</v>
+        <v>-1.21701272</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3242277429277101</v>
+        <v>2.3236120229999999</v>
       </c>
       <c r="H31" s="1">
         <v>29</v>
       </c>
       <c r="I31" s="2">
-        <v>8.8299999999999993E-3</v>
+        <v>8.4600000000000005E-3</v>
       </c>
       <c r="J31" s="2">
-        <v>5.5010000000000003E-2</v>
+        <v>5.0909999999999997E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>0.12084</v>
+        <v>0.10919</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>18</v>
@@ -2632,40 +2821,40 @@
         <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="3">
-        <v>-1.19209465924409</v>
+        <v>-1.3153949410000001</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3161191614750201</v>
+        <v>2.240667336</v>
       </c>
       <c r="H32" s="1">
         <v>30</v>
       </c>
       <c r="I32" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>5.5169999999999997E-2</v>
+        <v>5.2670000000000002E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>0.12171999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M32" s="1">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2676,37 +2865,37 @@
         <v>15</v>
       </c>
       <c r="C33" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="3">
-        <v>-1.1698330408979101</v>
+        <v>-1.1576350790000001</v>
       </c>
       <c r="G33" s="3">
-        <v>2.3377741752950798</v>
+        <v>2.3720302850000001</v>
       </c>
       <c r="H33" s="1">
         <v>31</v>
       </c>
       <c r="I33" s="2">
-        <v>8.6700000000000006E-3</v>
+        <v>8.0800000000000004E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>5.4620000000000002E-2</v>
+        <v>4.7570000000000001E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>0.12043</v>
+        <v>0.10359</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M33" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>18</v>
@@ -2720,37 +2909,37 @@
         <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="3">
-        <v>-1.26738623094374</v>
+        <v>-1.1693685599999999</v>
       </c>
       <c r="G34" s="3">
-        <v>2.2695682216533202</v>
+        <v>2.3448538970000001</v>
       </c>
       <c r="H34" s="1">
         <v>32</v>
       </c>
       <c r="I34" s="2">
-        <v>8.5299999999999994E-3</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>5.9110000000000003E-2</v>
+        <v>4.5949999999999998E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>0.13175999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>18</v>
@@ -2764,37 +2953,37 @@
         <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" s="3">
-        <v>-1.2077649196691</v>
+        <v>-1.2211239359999999</v>
       </c>
       <c r="G35" s="3">
-        <v>2.2767951107915101</v>
+        <v>2.2818990330000002</v>
       </c>
       <c r="H35" s="1">
         <v>33</v>
       </c>
       <c r="I35" s="2">
-        <v>7.8700000000000003E-3</v>
+        <v>7.4400000000000004E-3</v>
       </c>
       <c r="J35" s="2">
-        <v>5.3030000000000001E-2</v>
+        <v>4.6940000000000003E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>0.11909</v>
+        <v>0.10247000000000001</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>18</v>
@@ -2808,40 +2997,40 @@
         <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F36" s="3">
-        <v>-1.2691529141867799</v>
+        <v>-1.1645525699999999</v>
       </c>
       <c r="G36" s="3">
-        <v>2.2030890383275299</v>
+        <v>2.3337327280000002</v>
       </c>
       <c r="H36" s="1">
         <v>34</v>
       </c>
       <c r="I36" s="2">
-        <v>7.6800000000000002E-3</v>
+        <v>7.2700000000000004E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>5.4489999999999997E-2</v>
+        <v>4.6449999999999998E-2</v>
       </c>
       <c r="K36" s="2">
-        <v>0.12468</v>
+        <v>0.10042</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M36" s="1">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2852,37 +3041,37 @@
         <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="3">
-        <v>-1.14405386561148</v>
+        <v>-1.03721565</v>
       </c>
       <c r="G37" s="3">
-        <v>2.3194317729389802</v>
+        <v>2.4215816079999999</v>
       </c>
       <c r="H37" s="1">
         <v>35</v>
       </c>
       <c r="I37" s="2">
-        <v>7.6099999999999996E-3</v>
+        <v>7.0299999999999998E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>5.04E-2</v>
+        <v>4.308E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>0.11193</v>
+        <v>9.1630000000000003E-2</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M37" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>18</v>
@@ -2896,37 +3085,37 @@
         <v>15</v>
       </c>
       <c r="C38" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F38" s="3">
-        <v>-1.1247756833338101</v>
+        <v>-1.0107251829999999</v>
       </c>
       <c r="G38" s="3">
-        <v>2.3229402968751902</v>
+        <v>2.4532420109999999</v>
       </c>
       <c r="H38" s="1">
         <v>36</v>
       </c>
       <c r="I38" s="2">
-        <v>7.5599999999999999E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>4.9180000000000001E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K38" s="2">
-        <v>0.1116</v>
+        <v>8.9789999999999995E-2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M38" s="1">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>18</v>
@@ -2940,40 +3129,40 @@
         <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="3">
-        <v>-1.12262168065191</v>
+        <v>-0.97233671300000002</v>
       </c>
       <c r="G39" s="3">
-        <v>2.3143060949349898</v>
+        <v>2.4194670440000001</v>
       </c>
       <c r="H39" s="1">
         <v>37</v>
       </c>
       <c r="I39" s="2">
-        <v>7.5100000000000002E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>4.9779999999999998E-2</v>
+        <v>3.8109999999999998E-2</v>
       </c>
       <c r="K39" s="2">
-        <v>0.11133999999999999</v>
+        <v>8.2559999999999995E-2</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M39" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2984,37 +3173,37 @@
         <v>15</v>
       </c>
       <c r="C40" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40" s="3">
-        <v>-1.1322483261926599</v>
+        <v>-1.2085296780000001</v>
       </c>
       <c r="G40" s="3">
-        <v>2.3324610276438298</v>
+        <v>2.2307995479999998</v>
       </c>
       <c r="H40" s="1">
         <v>38</v>
       </c>
       <c r="I40" s="2">
-        <v>7.4900000000000001E-3</v>
+        <v>6.4700000000000001E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>5.1189999999999999E-2</v>
+        <v>4.3139999999999998E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>0.11330999999999999</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>18</v>
@@ -3031,34 +3220,34 @@
         <v>32</v>
       </c>
       <c r="D41" s="1">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="3">
-        <v>-1.1720232605955101</v>
+        <v>-1.199815826</v>
       </c>
       <c r="G41" s="3">
-        <v>2.2576522937922601</v>
+        <v>2.2407819359999999</v>
       </c>
       <c r="H41" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="2">
-        <v>7.3499999999999998E-3</v>
+        <v>6.4700000000000001E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>4.895E-2</v>
+        <v>4.2479999999999997E-2</v>
       </c>
       <c r="K41" s="2">
-        <v>0.11339</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M41" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>18</v>
@@ -3075,34 +3264,34 @@
         <v>44</v>
       </c>
       <c r="D42" s="1">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="3">
-        <v>-1.0282599319555701</v>
+        <v>-1.0496075979999999</v>
       </c>
       <c r="G42" s="3">
-        <v>2.3802370766803098</v>
+        <v>2.3753076320000002</v>
       </c>
       <c r="H42" s="1">
         <v>40</v>
       </c>
       <c r="I42" s="2">
-        <v>7.1900000000000002E-3</v>
+        <v>6.3699999999999998E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>4.5159999999999999E-2</v>
+        <v>4.0669999999999998E-2</v>
       </c>
       <c r="K42" s="2">
-        <v>0.10088999999999999</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M42" s="1">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>18</v>
@@ -3116,37 +3305,37 @@
         <v>15</v>
       </c>
       <c r="C43" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
       </c>
       <c r="F43" s="3">
-        <v>-0.98478177568359704</v>
+        <v>-0.89126417499999999</v>
       </c>
       <c r="G43" s="3">
-        <v>2.3861414481903802</v>
+        <v>2.5075791839999999</v>
       </c>
       <c r="H43" s="1">
         <v>41</v>
       </c>
       <c r="I43" s="2">
-        <v>6.2399999999999999E-3</v>
+        <v>6.2700000000000004E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>4.2040000000000001E-2</v>
+        <v>3.6170000000000001E-2</v>
       </c>
       <c r="K43" s="2">
-        <v>9.5469999999999999E-2</v>
+        <v>8.0180000000000001E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>18</v>
@@ -3160,37 +3349,37 @@
         <v>15</v>
       </c>
       <c r="C44" s="1">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.96003915625263703</v>
+        <v>-1.1425845299999999</v>
       </c>
       <c r="G44" s="3">
-        <v>2.3645383226730501</v>
+        <v>2.2841627280000001</v>
       </c>
       <c r="H44" s="1">
         <v>42</v>
       </c>
       <c r="I44" s="2">
-        <v>6.1000000000000004E-3</v>
+        <v>6.2100000000000002E-3</v>
       </c>
       <c r="J44" s="2">
-        <v>4.0550000000000003E-2</v>
+        <v>4.0309999999999999E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>9.2130000000000004E-2</v>
+        <v>9.4009999999999996E-2</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="M44" s="1">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>18</v>
@@ -3204,40 +3393,40 @@
         <v>15</v>
       </c>
       <c r="C45" s="1">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3">
-        <v>-1.1094459690199501</v>
+        <v>-0.84622937099999995</v>
       </c>
       <c r="G45" s="3">
-        <v>2.2612082039191299</v>
+        <v>2.5124801080000001</v>
       </c>
       <c r="H45" s="1">
         <v>43</v>
       </c>
       <c r="I45" s="2">
-        <v>5.9899999999999997E-3</v>
+        <v>5.96E-3</v>
       </c>
       <c r="J45" s="2">
-        <v>4.3610000000000003E-2</v>
+        <v>3.4549999999999997E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>0.10187</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M45" s="1">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3248,40 +3437,40 @@
         <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="3">
-        <v>-1.1250700294232101</v>
+        <v>-0.88306287100000003</v>
       </c>
       <c r="G46" s="3">
-        <v>2.2385196121989401</v>
+        <v>2.491582014</v>
       </c>
       <c r="H46" s="1">
         <v>44</v>
       </c>
       <c r="I46" s="2">
-        <v>5.8599999999999998E-3</v>
+        <v>5.8199999999999997E-3</v>
       </c>
       <c r="J46" s="2">
-        <v>4.3249999999999997E-2</v>
+        <v>3.5520000000000003E-2</v>
       </c>
       <c r="K46" s="2">
-        <v>0.10377</v>
+        <v>7.8589999999999993E-2</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M46" s="1">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3292,37 +3481,37 @@
         <v>15</v>
       </c>
       <c r="C47" s="1">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>77</v>
       </c>
       <c r="F47" s="3">
-        <v>-0.77533546819979904</v>
+        <v>-1.050300091</v>
       </c>
       <c r="G47" s="3">
-        <v>2.5264390473545202</v>
+        <v>2.3803151630000001</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>
       </c>
       <c r="I47" s="2">
-        <v>5.6299999999999996E-3</v>
+        <v>5.7800000000000004E-3</v>
       </c>
       <c r="J47" s="2">
-        <v>3.5549999999999998E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="K47" s="2">
-        <v>8.0530000000000004E-2</v>
+        <v>8.8709999999999997E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>18</v>
@@ -3336,40 +3525,40 @@
         <v>15</v>
       </c>
       <c r="C48" s="1">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="3">
-        <v>-0.79247236310173197</v>
+        <v>-1.0641485939999999</v>
       </c>
       <c r="G48" s="3">
-        <v>2.4613120335000098</v>
+        <v>2.2712798150000002</v>
       </c>
       <c r="H48" s="1">
         <v>46</v>
       </c>
       <c r="I48" s="2">
-        <v>5.3099999999999996E-3</v>
+        <v>5.28E-3</v>
       </c>
       <c r="J48" s="2">
-        <v>3.4819999999999997E-2</v>
+        <v>3.4889999999999997E-2</v>
       </c>
       <c r="K48" s="2">
-        <v>7.8270000000000006E-2</v>
+        <v>8.1970000000000001E-2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="M48" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3380,37 +3569,37 @@
         <v>15</v>
       </c>
       <c r="C49" s="1">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D49" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" s="3">
-        <v>-1.0122636892566099</v>
+        <v>-0.89498520999999998</v>
       </c>
       <c r="G49" s="3">
-        <v>2.29732220656122</v>
+        <v>2.4130778180000001</v>
       </c>
       <c r="H49" s="1">
         <v>47</v>
       </c>
       <c r="I49" s="2">
-        <v>5.1799999999999997E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="J49" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>3.2590000000000001E-2</v>
       </c>
       <c r="K49" s="2">
-        <v>9.0249999999999997E-2</v>
+        <v>7.3910000000000003E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>18</v>
@@ -3424,40 +3613,40 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F50" s="3">
-        <v>-0.76160318104176405</v>
+        <v>-1.09365383</v>
       </c>
       <c r="G50" s="3">
-        <v>2.4756254259658901</v>
+        <v>2.276636297</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="2">
-        <v>5.1500000000000001E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="J50" s="2">
-        <v>3.261E-2</v>
+        <v>3.7569999999999999E-2</v>
       </c>
       <c r="K50" s="2">
-        <v>7.5069999999999998E-2</v>
+        <v>8.4449999999999997E-2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M50" s="1">
         <v>83</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3468,37 +3657,37 @@
         <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" s="3">
-        <v>-0.84483567383537395</v>
+        <v>-0.90108461699999998</v>
       </c>
       <c r="G51" s="3">
-        <v>2.4068967532832199</v>
+        <v>2.3923270639999998</v>
       </c>
       <c r="H51" s="1">
         <v>49</v>
       </c>
       <c r="I51" s="2">
-        <v>5.1399999999999996E-3</v>
+        <v>4.8599999999999997E-3</v>
       </c>
       <c r="J51" s="2">
-        <v>3.431E-2</v>
+        <v>3.1489999999999997E-2</v>
       </c>
       <c r="K51" s="2">
-        <v>8.0339999999999995E-2</v>
+        <v>7.1819999999999995E-2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M51" s="1">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>18</v>
@@ -3512,37 +3701,37 @@
         <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="3">
-        <v>-1.03634618766215</v>
+        <v>-1.0026273569999999</v>
       </c>
       <c r="G52" s="3">
-        <v>2.2499330792674499</v>
+        <v>2.316712748</v>
       </c>
       <c r="H52" s="1">
         <v>50</v>
       </c>
       <c r="I52" s="2">
-        <v>4.9500000000000004E-3</v>
+        <v>4.8500000000000001E-3</v>
       </c>
       <c r="J52" s="2">
-        <v>3.739E-2</v>
+        <v>3.2570000000000002E-2</v>
       </c>
       <c r="K52" s="2">
-        <v>9.0240000000000001E-2</v>
+        <v>7.5490000000000002E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M52" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>18</v>
@@ -3556,37 +3745,37 @@
         <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F53" s="3">
-        <v>-0.82600028353351995</v>
+        <v>-0.91578495400000004</v>
       </c>
       <c r="G53" s="3">
-        <v>2.37064238302059</v>
+        <v>2.3827217520000001</v>
       </c>
       <c r="H53" s="1">
         <v>51</v>
       </c>
       <c r="I53" s="2">
-        <v>4.7299999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="J53" s="2">
-        <v>3.1550000000000002E-2</v>
+        <v>3.1640000000000001E-2</v>
       </c>
       <c r="K53" s="2">
-        <v>7.4249999999999997E-2</v>
+        <v>7.2590000000000002E-2</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M53" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>18</v>
@@ -3600,40 +3789,40 @@
         <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F54" s="3">
-        <v>-0.75296072549206605</v>
+        <v>-0.81884316899999998</v>
       </c>
       <c r="G54" s="3">
-        <v>2.4382570558397498</v>
+        <v>2.4546174089999999</v>
       </c>
       <c r="H54" s="1">
         <v>52</v>
       </c>
       <c r="I54" s="2">
-        <v>4.47E-3</v>
+        <v>4.5300000000000002E-3</v>
       </c>
       <c r="J54" s="2">
-        <v>3.0450000000000001E-2</v>
+        <v>2.938E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>7.077E-2</v>
+        <v>6.6409999999999997E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M54" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3644,31 +3833,31 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F55" s="3">
-        <v>-0.91842648228724699</v>
+        <v>-1.0113265739999999</v>
       </c>
       <c r="G55" s="3">
-        <v>2.2782605906551399</v>
+        <v>2.2644140070000001</v>
       </c>
       <c r="H55" s="1">
         <v>53</v>
       </c>
       <c r="I55" s="2">
-        <v>4.45E-3</v>
+        <v>4.47E-3</v>
       </c>
       <c r="J55" s="2">
-        <v>3.245E-2</v>
+        <v>3.177E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>7.8060000000000004E-2</v>
+        <v>7.4840000000000004E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
@@ -3688,40 +3877,40 @@
         <v>15</v>
       </c>
       <c r="C56" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="3">
-        <v>-0.81404850080499602</v>
+        <v>-0.88748186900000003</v>
       </c>
       <c r="G56" s="3">
-        <v>2.35925392790466</v>
+        <v>2.376271209</v>
       </c>
       <c r="H56" s="1">
         <v>54</v>
       </c>
       <c r="I56" s="2">
-        <v>4.2399999999999998E-3</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="J56" s="2">
-        <v>0.03</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="K56" s="2">
-        <v>7.127E-2</v>
+        <v>6.8479999999999999E-2</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M56" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3732,40 +3921,40 @@
         <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D57" s="1">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="3">
-        <v>-0.70897154517541205</v>
+        <v>-0.953797742</v>
       </c>
       <c r="G57" s="3">
-        <v>2.4369596303969399</v>
+        <v>2.3424630560000002</v>
       </c>
       <c r="H57" s="1">
         <v>55</v>
       </c>
       <c r="I57" s="2">
-        <v>4.1799999999999997E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="J57" s="2">
-        <v>2.759E-2</v>
+        <v>3.134E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>6.6960000000000006E-2</v>
+        <v>7.2150000000000006E-2</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M57" s="1">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3776,37 +3965,37 @@
         <v>15</v>
       </c>
       <c r="C58" s="1">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F58" s="3">
-        <v>-0.71437909163079505</v>
+        <v>-0.63172395299999995</v>
       </c>
       <c r="G58" s="3">
-        <v>2.4479000677238001</v>
+        <v>2.5407802840000002</v>
       </c>
       <c r="H58" s="1">
         <v>56</v>
       </c>
       <c r="I58" s="2">
-        <v>4.1700000000000001E-3</v>
+        <v>4.2700000000000004E-3</v>
       </c>
       <c r="J58" s="2">
-        <v>2.921E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="K58" s="2">
-        <v>6.7890000000000006E-2</v>
+        <v>5.5239999999999997E-2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>18</v>
@@ -3820,40 +4009,40 @@
         <v>15</v>
       </c>
       <c r="C59" s="1">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D59" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F59" s="3">
-        <v>-0.658261610368712</v>
+        <v>-0.86693173499999998</v>
       </c>
       <c r="G59" s="3">
-        <v>2.47696443055951</v>
+        <v>2.3961695669999998</v>
       </c>
       <c r="H59" s="1">
         <v>57</v>
       </c>
       <c r="I59" s="2">
-        <v>3.9699999999999996E-3</v>
+        <v>4.2199999999999998E-3</v>
       </c>
       <c r="J59" s="2">
-        <v>2.7150000000000001E-2</v>
+        <v>2.955E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>6.4369999999999997E-2</v>
+        <v>6.7629999999999996E-2</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M59" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3864,37 +4053,37 @@
         <v>15</v>
       </c>
       <c r="C60" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D60" s="1">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F60" s="3">
-        <v>-0.75296931677348999</v>
+        <v>-1.022230236</v>
       </c>
       <c r="G60" s="3">
-        <v>2.4137440498009402</v>
+        <v>2.2400492889999999</v>
       </c>
       <c r="H60" s="1">
         <v>58</v>
       </c>
       <c r="I60" s="2">
-        <v>3.96E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J60" s="2">
-        <v>2.8819999999999998E-2</v>
+        <v>3.056E-2</v>
       </c>
       <c r="K60" s="2">
-        <v>6.9419999999999996E-2</v>
+        <v>7.2789999999999994E-2</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="M60" s="1">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>18</v>
@@ -3908,37 +4097,37 @@
         <v>15</v>
       </c>
       <c r="C61" s="1">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F61" s="3">
-        <v>-0.92557148321458904</v>
+        <v>-0.83440646900000004</v>
       </c>
       <c r="G61" s="3">
-        <v>2.2424317423414601</v>
+        <v>2.3969911210000001</v>
       </c>
       <c r="H61" s="1">
         <v>59</v>
       </c>
       <c r="I61" s="2">
-        <v>3.9100000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="J61" s="2">
-        <v>2.9610000000000001E-2</v>
+        <v>2.8369999999999999E-2</v>
       </c>
       <c r="K61" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>6.4430000000000001E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>18</v>
@@ -3952,40 +4141,40 @@
         <v>15</v>
       </c>
       <c r="C62" s="1">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D62" s="1">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F62" s="3">
-        <v>-0.62680972119733602</v>
+        <v>-0.82675709200000003</v>
       </c>
       <c r="G62" s="3">
-        <v>2.47633255331084</v>
+        <v>2.3416237510000002</v>
       </c>
       <c r="H62" s="1">
         <v>60</v>
       </c>
       <c r="I62" s="2">
-        <v>3.8800000000000002E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="J62" s="2">
-        <v>2.5739999999999999E-2</v>
+        <v>2.4070000000000001E-2</v>
       </c>
       <c r="K62" s="2">
-        <v>6.0569999999999999E-2</v>
+        <v>5.7950000000000002E-2</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M62" s="1">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3996,37 +4185,37 @@
         <v>15</v>
       </c>
       <c r="C63" s="1">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D63" s="1">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F63" s="3">
-        <v>-0.76485560620487802</v>
+        <v>-0.70870600900000003</v>
       </c>
       <c r="G63" s="3">
-        <v>2.37260406725277</v>
+        <v>2.4278175649999998</v>
       </c>
       <c r="H63" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63" s="2">
-        <v>3.8600000000000001E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="J63" s="2">
-        <v>2.768E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="K63" s="2">
-        <v>6.7330000000000001E-2</v>
+        <v>5.4550000000000001E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>18</v>
@@ -4040,37 +4229,37 @@
         <v>15</v>
       </c>
       <c r="C64" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D64" s="1">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F64" s="3">
-        <v>-0.88621284194149896</v>
+        <v>-0.89102840500000002</v>
       </c>
       <c r="G64" s="3">
-        <v>2.2853504720787399</v>
+        <v>2.2841376109999998</v>
       </c>
       <c r="H64" s="1">
         <v>62</v>
       </c>
       <c r="I64" s="2">
-        <v>3.64E-3</v>
+        <v>3.63E-3</v>
       </c>
       <c r="J64" s="2">
-        <v>2.9700000000000001E-2</v>
+        <v>2.503E-2</v>
       </c>
       <c r="K64" s="2">
-        <v>7.4529999999999999E-2</v>
+        <v>6.0429999999999998E-2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M64" s="1">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>18</v>
@@ -4084,40 +4273,40 @@
         <v>15</v>
       </c>
       <c r="C65" s="1">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
         <v>98</v>
       </c>
       <c r="F65" s="3">
-        <v>-0.79311345184291504</v>
+        <v>-0.77083740199999995</v>
       </c>
       <c r="G65" s="3">
-        <v>2.2994964311561699</v>
+        <v>2.3832643469999999</v>
       </c>
       <c r="H65" s="1">
         <v>63</v>
       </c>
       <c r="I65" s="2">
-        <v>3.31E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="J65" s="2">
-        <v>2.5180000000000001E-2</v>
+        <v>2.3539999999999998E-2</v>
       </c>
       <c r="K65" s="2">
-        <v>6.447E-2</v>
+        <v>5.6680000000000001E-2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M65" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4128,40 +4317,40 @@
         <v>15</v>
       </c>
       <c r="C66" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="3">
-        <v>-0.80171920694349397</v>
+        <v>-0.85590593100000001</v>
       </c>
       <c r="G66" s="3">
-        <v>2.2881417501130299</v>
+        <v>2.291688868</v>
       </c>
       <c r="H66" s="1">
         <v>64</v>
       </c>
       <c r="I66" s="2">
-        <v>3.2200000000000002E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J66" s="2">
-        <v>2.5440000000000001E-2</v>
+        <v>2.3689999999999999E-2</v>
       </c>
       <c r="K66" s="2">
-        <v>6.3289999999999999E-2</v>
+        <v>5.7930000000000002E-2</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M66" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4172,37 +4361,37 @@
         <v>15</v>
       </c>
       <c r="C67" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="3">
-        <v>-0.72909952282359802</v>
+        <v>-0.69952767900000001</v>
       </c>
       <c r="G67" s="3">
-        <v>2.263720065112</v>
+        <v>2.4032366719999998</v>
       </c>
       <c r="H67" s="1">
         <v>65</v>
       </c>
       <c r="I67" s="2">
-        <v>2.5500000000000002E-3</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="J67" s="2">
-        <v>2.1319999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="K67" s="2">
-        <v>5.5030000000000003E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M67" s="1">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>18</v>
@@ -4216,40 +4405,40 @@
         <v>15</v>
       </c>
       <c r="C68" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="3">
-        <v>-0.59975545008500397</v>
+        <v>-0.77248112899999999</v>
       </c>
       <c r="G68" s="3">
-        <v>2.2913563961732</v>
+        <v>2.3550993419999999</v>
       </c>
       <c r="H68" s="1">
         <v>66</v>
       </c>
       <c r="I68" s="2">
-        <v>2.2499999999999998E-3</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="J68" s="2">
-        <v>1.6119999999999999E-2</v>
+        <v>2.3550000000000001E-2</v>
       </c>
       <c r="K68" s="2">
-        <v>4.4909999999999999E-2</v>
+        <v>5.441E-2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M68" s="1">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4260,40 +4449,40 @@
         <v>15</v>
       </c>
       <c r="C69" s="1">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F69" s="3">
-        <v>-0.23401761350373801</v>
+        <v>-0.75056910899999996</v>
       </c>
       <c r="G69" s="3">
-        <v>2.5536810028603401</v>
+        <v>2.3660591549999999</v>
       </c>
       <c r="H69" s="1">
         <v>67</v>
       </c>
       <c r="I69" s="2">
-        <v>2.0200000000000001E-3</v>
+        <v>3.32E-3</v>
       </c>
       <c r="J69" s="2">
-        <v>1.406E-2</v>
+        <v>2.3189999999999999E-2</v>
       </c>
       <c r="K69" s="2">
-        <v>3.635E-2</v>
+        <v>5.5019999999999999E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M69" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4304,40 +4493,40 @@
         <v>15</v>
       </c>
       <c r="C70" s="1">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D70" s="1">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="3">
-        <v>-0.43582839855698502</v>
+        <v>-0.80850727499999997</v>
       </c>
       <c r="G70" s="3">
-        <v>2.3625460861529102</v>
+        <v>2.3158136360000001</v>
       </c>
       <c r="H70" s="1">
         <v>68</v>
       </c>
       <c r="I70" s="2">
-        <v>1.8699999999999999E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>1.4080000000000001E-2</v>
+        <v>2.2970000000000001E-2</v>
       </c>
       <c r="K70" s="2">
-        <v>3.7760000000000002E-2</v>
+        <v>5.518E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M70" s="1">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4348,37 +4537,37 @@
         <v>15</v>
       </c>
       <c r="C71" s="1">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="3">
-        <v>-0.50880086638605504</v>
+        <v>-0.77934598499999996</v>
       </c>
       <c r="G71" s="3">
-        <v>2.34594270473674</v>
+        <v>2.3473005250000001</v>
       </c>
       <c r="H71" s="1">
         <v>69</v>
       </c>
       <c r="I71" s="2">
-        <v>1.8600000000000001E-3</v>
+        <v>3.16E-3</v>
       </c>
       <c r="J71" s="2">
-        <v>1.5559999999999999E-2</v>
+        <v>2.3369999999999998E-2</v>
       </c>
       <c r="K71" s="2">
-        <v>4.1180000000000001E-2</v>
+        <v>5.6009999999999997E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>18</v>
@@ -4392,37 +4581,37 @@
         <v>15</v>
       </c>
       <c r="C72" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F72" s="3">
-        <v>-0.52201222405301095</v>
+        <v>-0.56819759199999997</v>
       </c>
       <c r="G72" s="3">
-        <v>2.3226829669548201</v>
+        <v>2.4823584489999999</v>
       </c>
       <c r="H72" s="1">
         <v>70</v>
       </c>
       <c r="I72" s="2">
-        <v>1.75E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J72" s="2">
-        <v>1.5879999999999998E-2</v>
+        <v>1.9630000000000002E-2</v>
       </c>
       <c r="K72" s="2">
-        <v>4.1750000000000002E-2</v>
+        <v>4.5589999999999999E-2</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>18</v>
@@ -4436,40 +4625,40 @@
         <v>15</v>
       </c>
       <c r="C73" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F73" s="3">
-        <v>-0.59228062200813703</v>
+        <v>-0.70812596100000003</v>
       </c>
       <c r="G73" s="3">
-        <v>2.2544393874431998</v>
+        <v>2.4068008999999999</v>
       </c>
       <c r="H73" s="1">
         <v>71</v>
       </c>
       <c r="I73" s="2">
-        <v>1.6299999999999999E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="J73" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>2.1780000000000001E-2</v>
       </c>
       <c r="K73" s="2">
-        <v>4.1669999999999999E-2</v>
+        <v>5.237E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M73" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4480,37 +4669,37 @@
         <v>15</v>
       </c>
       <c r="C74" s="1">
+        <v>95</v>
+      </c>
+      <c r="D74" s="1">
+        <v>62</v>
+      </c>
+      <c r="E74" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="1">
-        <v>88</v>
-      </c>
-      <c r="E74" t="s">
-        <v>109</v>
-      </c>
       <c r="F74" s="3">
-        <v>-0.43514795676827001</v>
+        <v>-0.53446335899999997</v>
       </c>
       <c r="G74" s="3">
-        <v>2.3209610900521902</v>
+        <v>2.5604460549999999</v>
       </c>
       <c r="H74" s="1">
         <v>72</v>
       </c>
       <c r="I74" s="2">
-        <v>1.33E-3</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="J74" s="2">
-        <v>1.158E-2</v>
+        <v>2.155E-2</v>
       </c>
       <c r="K74" s="2">
-        <v>3.415E-2</v>
+        <v>4.7710000000000002E-2</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>18</v>
@@ -4524,37 +4713,37 @@
         <v>15</v>
       </c>
       <c r="C75" s="1">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" s="3">
-        <v>-8.8549132662705601E-2</v>
+        <v>-0.61219958799999996</v>
       </c>
       <c r="G75" s="3">
-        <v>2.49190685711143</v>
+        <v>2.4876558009999998</v>
       </c>
       <c r="H75" s="1">
         <v>73</v>
       </c>
       <c r="I75" s="2">
-        <v>1.0399999999999999E-3</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="J75" s="2">
-        <v>9.3100000000000006E-3</v>
+        <v>2.103E-2</v>
       </c>
       <c r="K75" s="2">
-        <v>2.4709999999999999E-2</v>
+        <v>4.9759999999999999E-2</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="M75" s="1">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>18</v>
@@ -4568,37 +4757,37 @@
         <v>15</v>
       </c>
       <c r="C76" s="1">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="3">
-        <v>-0.165261233180514</v>
+        <v>-0.76751444999999996</v>
       </c>
       <c r="G76" s="3">
-        <v>2.2631476360810501</v>
+        <v>2.3228913250000001</v>
       </c>
       <c r="H76" s="1">
         <v>74</v>
       </c>
       <c r="I76" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.64E-3</v>
       </c>
       <c r="J76" s="2">
-        <v>5.7800000000000004E-3</v>
+        <v>2.1350000000000001E-2</v>
       </c>
       <c r="K76" s="2">
-        <v>1.8339999999999999E-2</v>
+        <v>5.2130000000000003E-2</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M76" s="1">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>18</v>
@@ -4612,40 +4801,40 @@
         <v>15</v>
       </c>
       <c r="C77" s="1">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D77" s="1">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F77" s="3">
-        <v>-0.26504011816092898</v>
+        <v>-0.67356218599999995</v>
       </c>
       <c r="G77" s="3">
-        <v>2.1634423177909401</v>
+        <v>2.3573455230000002</v>
       </c>
       <c r="H77" s="1">
         <v>75</v>
       </c>
       <c r="I77" s="2">
-        <v>4.8999999999999998E-4</v>
+        <v>2.4399999999999999E-3</v>
       </c>
       <c r="J77" s="2">
-        <v>5.4400000000000004E-3</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="K77" s="2">
-        <v>1.84E-2</v>
+        <v>4.684E-2</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M77" s="1">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4656,37 +4845,37 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="D78" s="1">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F78" s="3">
-        <v>9.2622497239314601E-3</v>
+        <v>-0.65375953099999995</v>
       </c>
       <c r="G78" s="3">
-        <v>2.3162699472865098</v>
+        <v>2.366771425</v>
       </c>
       <c r="H78" s="1">
         <v>76</v>
       </c>
       <c r="I78" s="2">
-        <v>4.4000000000000002E-4</v>
+        <v>2.33E-3</v>
       </c>
       <c r="J78" s="2">
-        <v>4.96E-3</v>
+        <v>1.8429999999999998E-2</v>
       </c>
       <c r="K78" s="2">
-        <v>1.4239999999999999E-2</v>
+        <v>4.4880000000000003E-2</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M78" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>18</v>
@@ -4700,40 +4889,40 @@
         <v>15</v>
       </c>
       <c r="C79" s="1">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F79" s="3">
-        <v>6.4025767216967303E-2</v>
+        <v>-0.45691529800000003</v>
       </c>
       <c r="G79" s="3">
-        <v>2.3481122203249498</v>
+        <v>2.447426814</v>
       </c>
       <c r="H79" s="1">
         <v>77</v>
       </c>
       <c r="I79" s="2">
-        <v>4.0999999999999999E-4</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="J79" s="2">
-        <v>4.3600000000000002E-3</v>
+        <v>1.4919999999999999E-2</v>
       </c>
       <c r="K79" s="2">
-        <v>1.295E-2</v>
+        <v>3.687E-2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M79" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4744,37 +4933,37 @@
         <v>15</v>
       </c>
       <c r="C80" s="1">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="D80" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F80" s="3">
-        <v>5.8643697533470396E-3</v>
+        <v>-0.54599938000000003</v>
       </c>
       <c r="G80" s="3">
-        <v>2.2767051805761298</v>
+        <v>2.4011375030000002</v>
       </c>
       <c r="H80" s="1">
         <v>78</v>
       </c>
       <c r="I80" s="2">
-        <v>2.2000000000000001E-4</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="J80" s="2">
-        <v>3.49E-3</v>
+        <v>1.6230000000000001E-2</v>
       </c>
       <c r="K80" s="2">
-        <v>1.244E-2</v>
+        <v>3.9660000000000001E-2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M80" s="1">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>18</v>
@@ -4788,37 +4977,37 @@
         <v>15</v>
       </c>
       <c r="C81" s="1">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="D81" s="1">
-        <v>410</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81" s="3">
-        <v>0.17252270020372201</v>
+        <v>-0.43607472899999999</v>
       </c>
       <c r="G81" s="3">
-        <v>2.2517185931879098</v>
+        <v>2.4559745089999998</v>
       </c>
       <c r="H81" s="1">
         <v>79</v>
       </c>
       <c r="I81" s="2">
-        <v>1.6000000000000001E-4</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="J81" s="2">
-        <v>2.3400000000000001E-3</v>
+        <v>1.435E-2</v>
       </c>
       <c r="K81" s="2">
-        <v>7.8700000000000003E-3</v>
+        <v>3.5470000000000002E-2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M81" s="1">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>18</v>
@@ -4832,40 +5021,40 @@
         <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="D82" s="1">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F82" s="3">
-        <v>0.54690195023027999</v>
+        <v>-0.38455811899999998</v>
       </c>
       <c r="G82" s="3">
-        <v>2.4343294609411599</v>
+        <v>2.4922308499999999</v>
       </c>
       <c r="H82" s="1">
         <v>80</v>
       </c>
       <c r="I82" s="2">
-        <v>8.0000000000000007E-5</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="J82" s="2">
-        <v>1.5399999999999999E-3</v>
+        <v>1.384E-2</v>
       </c>
       <c r="K82" s="2">
-        <v>5.3099999999999996E-3</v>
+        <v>3.4279999999999998E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M82" s="1">
+        <v>75</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4876,40 +5065,40 @@
         <v>15</v>
       </c>
       <c r="C83" s="1">
-        <v>414</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1">
-        <v>625</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F83" s="3">
-        <v>0.66465369393057305</v>
+        <v>-0.59773684199999999</v>
       </c>
       <c r="G83" s="3">
-        <v>2.40388040028366</v>
+        <v>2.3187841819999999</v>
       </c>
       <c r="H83" s="1">
         <v>81</v>
       </c>
       <c r="I83" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>1.74E-3</v>
       </c>
       <c r="J83" s="2">
-        <v>1.1800000000000001E-3</v>
+        <v>1.504E-2</v>
       </c>
       <c r="K83" s="2">
-        <v>3.7599999999999999E-3</v>
+        <v>3.8179999999999999E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M83" s="1">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4920,40 +5109,40 @@
         <v>15</v>
       </c>
       <c r="C84" s="1">
-        <v>795</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1">
-        <v>1893</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
         <v>120</v>
       </c>
       <c r="F84" s="3">
-        <v>1.4959238478639001</v>
+        <v>-0.324509824</v>
       </c>
       <c r="G84" s="3">
-        <v>2.3378080167923101</v>
+        <v>2.4615849820000002</v>
       </c>
       <c r="H84" s="1">
         <v>82</v>
       </c>
       <c r="I84" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.65E-3</v>
       </c>
       <c r="J84" s="2">
-        <v>6.0000000000000002E-5</v>
+        <v>1.2019999999999999E-2</v>
       </c>
       <c r="K84" s="2">
-        <v>3.8999999999999999E-4</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M84" s="1">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4964,40 +5153,40 @@
         <v>15</v>
       </c>
       <c r="C85" s="1">
-        <v>1422</v>
+        <v>129</v>
       </c>
       <c r="D85" s="1">
-        <v>1893</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="3">
-        <v>2.5311200650972099</v>
+        <v>-0.28078330200000001</v>
       </c>
       <c r="G85" s="3">
-        <v>2.5131423388926</v>
+        <v>2.5295229039999998</v>
       </c>
       <c r="H85" s="1">
         <v>83</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
+        <v>1.58E-3</v>
       </c>
       <c r="J85" s="2">
-        <v>0</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="K85" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>3.0329999999999999E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M85" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5008,40 +5197,40 @@
         <v>15</v>
       </c>
       <c r="C86" s="1">
-        <v>1649</v>
+        <v>108</v>
       </c>
       <c r="D86" s="1">
-        <v>1893</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="3">
-        <v>2.8635205801699199</v>
+        <v>-0.43698469899999998</v>
       </c>
       <c r="G86" s="3">
-        <v>2.39934166692644</v>
+        <v>2.3722793979999999</v>
       </c>
       <c r="H86" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
+        <v>1.56E-3</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>1.242E-2</v>
       </c>
       <c r="K86" s="2">
-        <v>0</v>
+        <v>3.0769999999999999E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M86" s="1">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5051,41 +5240,41 @@
       <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="1">
+        <v>106</v>
+      </c>
+      <c r="D87" s="1">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" t="s">
-        <v>125</v>
-      </c>
       <c r="F87" s="3">
-        <v>3</v>
+        <v>-0.44775296799999997</v>
       </c>
       <c r="G87" s="3">
-        <v>2.5</v>
+        <v>2.3554312259999999</v>
       </c>
       <c r="H87" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
+        <v>1.31E-3</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
+        <v>1.234E-2</v>
       </c>
       <c r="K87" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>3.1559999999999998E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>123</v>
+        <v>20</v>
+      </c>
+      <c r="M87" s="1">
+        <v>96</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5095,41 +5284,41 @@
       <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>123</v>
+      <c r="C88" s="1">
+        <v>128</v>
+      </c>
+      <c r="D88" s="1">
+        <v>172</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="3">
-        <v>3</v>
+        <v>-0.28308077700000001</v>
       </c>
       <c r="G88" s="3">
-        <v>2.5</v>
+        <v>2.3596464500000001</v>
       </c>
       <c r="H88" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I88" s="2">
-        <v>0</v>
+        <v>1.16E-3</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>8.8100000000000001E-3</v>
       </c>
       <c r="K88" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
+      </c>
+      <c r="M88" s="1">
+        <v>80</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,41 +5328,41 @@
       <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>123</v>
+      <c r="C89" s="1">
+        <v>179</v>
+      </c>
+      <c r="D89" s="1">
+        <v>61</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F89" s="3">
-        <v>3</v>
+        <v>-7.9402335000000004E-2</v>
       </c>
       <c r="G89" s="3">
-        <v>2.5</v>
+        <v>2.5492899200000001</v>
       </c>
       <c r="H89" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>1.14E-3</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="K89" s="2">
-        <v>0</v>
+        <v>2.2329999999999999E-2</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
+      </c>
+      <c r="M89" s="1">
+        <v>82</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5183,41 +5372,41 @@
       <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>123</v>
+      <c r="C90" s="1">
+        <v>122</v>
+      </c>
+      <c r="D90" s="1">
+        <v>59</v>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="3">
-        <v>3</v>
+        <v>-0.33370058400000002</v>
       </c>
       <c r="G90" s="3">
-        <v>2.5</v>
+        <v>2.3449085869999999</v>
       </c>
       <c r="H90" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
+        <v>1.06E-3</v>
       </c>
       <c r="J90" s="2">
-        <v>0</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="K90" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>2.4459999999999999E-2</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>123</v>
+        <v>28</v>
+      </c>
+      <c r="M90" s="1">
+        <v>111</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5227,41 +5416,41 @@
       <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="1">
         <v>123</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>123</v>
+      <c r="D91" s="1">
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F91" s="3">
-        <v>3</v>
+        <v>-0.33178614499999998</v>
       </c>
       <c r="G91" s="3">
-        <v>2.5</v>
+        <v>2.3489882529999999</v>
       </c>
       <c r="H91" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I91" s="2">
-        <v>0</v>
+        <v>9.5E-4</v>
       </c>
       <c r="J91" s="2">
-        <v>0</v>
+        <v>9.3500000000000007E-3</v>
       </c>
       <c r="K91" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="M91" s="1">
+        <v>75</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5271,41 +5460,41 @@
       <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>123</v>
+      <c r="C92" s="1">
+        <v>140</v>
+      </c>
+      <c r="D92" s="1">
+        <v>116</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F92" s="3">
-        <v>3</v>
+        <v>-0.218221631</v>
       </c>
       <c r="G92" s="3">
-        <v>2.5</v>
+        <v>2.3791107889999998</v>
       </c>
       <c r="H92" s="1">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I92" s="2">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J92" s="2">
-        <v>0</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="K92" s="2">
-        <v>0</v>
+        <v>2.0070000000000001E-2</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="M92" s="1">
+        <v>86</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,41 +5504,41 @@
       <c r="B93" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>123</v>
+      <c r="C93" s="1">
+        <v>127</v>
+      </c>
+      <c r="D93" s="1">
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F93" s="3">
-        <v>3</v>
+        <v>-0.287293244</v>
       </c>
       <c r="G93" s="3">
-        <v>2.5</v>
+        <v>2.278955109</v>
       </c>
       <c r="H93" s="1">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="J93" s="2">
-        <v>0</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="K93" s="2">
-        <v>0</v>
+        <v>1.968E-2</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>123</v>
+        <v>20</v>
+      </c>
+      <c r="M93" s="1">
+        <v>84</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5359,41 +5548,2593 @@
       <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="1">
+        <v>136</v>
+      </c>
+      <c r="D94" s="1">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-0.23894643199999999</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2.3084594630000002</v>
+      </c>
+      <c r="H94" s="1">
+        <v>91</v>
+      </c>
+      <c r="I94" s="2">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="J94" s="2">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M94" s="1">
+        <v>88</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1">
+        <v>185</v>
+      </c>
+      <c r="D95" s="1">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="3">
+        <v>-5.9271531000000002E-2</v>
+      </c>
+      <c r="G95" s="3">
+        <v>2.375139436</v>
+      </c>
+      <c r="H95" s="1">
+        <v>91</v>
+      </c>
+      <c r="I95" s="2">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="J95" s="2">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1.4970000000000001E-2</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M95" s="1">
+        <v>80</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1">
+        <v>197</v>
+      </c>
+      <c r="D96" s="1">
+        <v>128</v>
+      </c>
+      <c r="E96" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2.4834035000000001E-2</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2.3971887810000001</v>
+      </c>
+      <c r="H96" s="1">
+        <v>94</v>
+      </c>
+      <c r="I96" s="2">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="J96" s="2">
+        <v>5.2700000000000004E-3</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1.453E-2</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" s="1">
+        <v>77</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1">
+        <v>152</v>
+      </c>
+      <c r="D97" s="1">
+        <v>159</v>
+      </c>
+      <c r="E97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="3">
+        <v>-0.164562443</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2.2804504630000002</v>
+      </c>
+      <c r="H97" s="1">
+        <v>95</v>
+      </c>
+      <c r="I97" s="2">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="J97" s="2">
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1.533E-2</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M97" s="1">
+        <v>102</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1">
+        <v>153</v>
+      </c>
+      <c r="D98" s="1">
+        <v>150</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="3">
+        <v>-0.163029761</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2.2828869850000002</v>
+      </c>
+      <c r="H98" s="1">
+        <v>96</v>
+      </c>
+      <c r="I98" s="2">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="J98" s="2">
+        <v>5.2100000000000002E-3</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1.4760000000000001E-2</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="1">
+        <v>107</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1">
+        <v>252</v>
+      </c>
+      <c r="D99" s="1">
+        <v>355</v>
+      </c>
+      <c r="E99" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.190530637</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2.4798084500000002</v>
+      </c>
+      <c r="H99" s="1">
+        <v>96</v>
+      </c>
+      <c r="I99" s="2">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="J99" s="2">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1.123E-2</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="1">
+        <v>77</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1">
+        <v>161</v>
+      </c>
+      <c r="D100" s="1">
+        <v>183</v>
+      </c>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-0.12125855200000001</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2.2831132159999998</v>
+      </c>
+      <c r="H100" s="1">
+        <v>98</v>
+      </c>
+      <c r="I100" s="2">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="J100" s="2">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M100" s="1">
+        <v>89</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>223</v>
+      </c>
+      <c r="D101" s="1">
+        <v>373</v>
+      </c>
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101" s="3">
+        <v>9.5508750000000003E-2</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2.446522597</v>
+      </c>
+      <c r="H101" s="1">
+        <v>99</v>
+      </c>
+      <c r="I101" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J101" s="2">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1.29E-2</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M101" s="1">
+        <v>92</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1">
+        <v>216</v>
+      </c>
+      <c r="D102" s="1">
+        <v>117</v>
+      </c>
+      <c r="E102" t="s">
+        <v>141</v>
+      </c>
+      <c r="F102" s="3">
+        <v>7.9316839E-2</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2.4158925770000002</v>
+      </c>
+      <c r="H102" s="1">
+        <v>100</v>
+      </c>
+      <c r="I102" s="2">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="J102" s="2">
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M102" s="1">
+        <v>105</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1">
+        <v>217</v>
+      </c>
+      <c r="D103" s="1">
+        <v>306</v>
+      </c>
+      <c r="E103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F103" s="3">
+        <v>7.9962190000000002E-2</v>
+      </c>
+      <c r="G103" s="3">
+        <v>2.3617428559999998</v>
+      </c>
+      <c r="H103" s="1">
+        <v>100</v>
+      </c>
+      <c r="I103" s="2">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="J103" s="2">
+        <v>3.7799999999999999E-3</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1.094E-2</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M103" s="1">
+        <v>99</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1">
+        <v>195</v>
+      </c>
+      <c r="D104" s="1">
+        <v>148</v>
+      </c>
+      <c r="E104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-2.7611931999999999E-2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>2.3201130870000002</v>
+      </c>
+      <c r="H104" s="1">
+        <v>102</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="J104" s="2">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1.2330000000000001E-2</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M104" s="1">
+        <v>101</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1">
+        <v>174</v>
+      </c>
+      <c r="D105" s="1">
+        <v>352</v>
+      </c>
+      <c r="E105" t="s">
+        <v>144</v>
+      </c>
+      <c r="F105" s="3">
+        <v>-8.1021299000000005E-2</v>
+      </c>
+      <c r="G105" s="3">
+        <v>2.3180122440000002</v>
+      </c>
+      <c r="H105" s="1">
+        <v>103</v>
+      </c>
+      <c r="I105" s="2">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="J105" s="2">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" s="1">
+        <v>98</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1">
+        <v>295</v>
+      </c>
+      <c r="D106" s="1">
+        <v>91</v>
+      </c>
+      <c r="E106" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.34220987600000002</v>
+      </c>
+      <c r="G106" s="3">
+        <v>2.4344494330000002</v>
+      </c>
+      <c r="H106" s="1">
+        <v>103</v>
+      </c>
+      <c r="I106" s="2">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="K106" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M106" s="1">
+        <v>83</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1">
+        <v>268</v>
+      </c>
+      <c r="D107" s="1">
+        <v>300</v>
+      </c>
+      <c r="E107" t="s">
+        <v>146</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.27360776799999997</v>
+      </c>
+      <c r="G107" s="3">
+        <v>2.435450967</v>
+      </c>
+      <c r="H107" s="1">
+        <v>105</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="K107" s="2">
+        <v>8.3199999999999993E-3</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" s="1">
+        <v>83</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1">
+        <v>278</v>
+      </c>
+      <c r="D108" s="1">
+        <v>292</v>
+      </c>
+      <c r="E108" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.29960034000000002</v>
+      </c>
+      <c r="G108" s="3">
+        <v>2.4411193340000001</v>
+      </c>
+      <c r="H108" s="1">
+        <v>105</v>
+      </c>
+      <c r="I108" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="J108" s="2">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="K108" s="2">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="1">
+        <v>73</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1">
+        <v>210</v>
+      </c>
+      <c r="D109" s="1">
+        <v>309</v>
+      </c>
+      <c r="E109" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="3">
+        <v>5.2854122000000003E-2</v>
+      </c>
+      <c r="G109" s="3">
+        <v>2.2465124759999999</v>
+      </c>
+      <c r="H109" s="1">
+        <v>107</v>
+      </c>
+      <c r="I109" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="K109" s="2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M109" s="1">
+        <v>81</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1">
+        <v>320</v>
+      </c>
+      <c r="D110" s="1">
+        <v>174</v>
+      </c>
+      <c r="E110" t="s">
+        <v>149</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.42110280500000002</v>
+      </c>
+      <c r="G110" s="3">
+        <v>2.5754454569999998</v>
+      </c>
+      <c r="H110" s="1">
+        <v>108</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="J110" s="2">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="K110" s="2">
+        <v>7.92E-3</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M110" s="1">
+        <v>75</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>234</v>
+      </c>
+      <c r="D111" s="1">
+        <v>357</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.13129700499999999</v>
+      </c>
+      <c r="G111" s="3">
+        <v>2.3783524800000002</v>
+      </c>
+      <c r="H111" s="1">
+        <v>109</v>
+      </c>
+      <c r="I111" s="2">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="J111" s="2">
+        <v>2.99E-3</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="1">
+        <v>67</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1">
+        <v>204</v>
+      </c>
+      <c r="D112" s="1">
+        <v>151</v>
+      </c>
+      <c r="E112" t="s">
+        <v>151</v>
+      </c>
+      <c r="F112" s="3">
+        <v>-6.1398870000000001E-3</v>
+      </c>
+      <c r="G112" s="3">
+        <v>2.297601212</v>
+      </c>
+      <c r="H112" s="1">
+        <v>110</v>
+      </c>
+      <c r="I112" s="2">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1.039E-2</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="1">
+        <v>74</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1">
+        <v>310</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1021</v>
+      </c>
+      <c r="E113" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.3919125</v>
+      </c>
+      <c r="G113" s="3">
+        <v>2.344452</v>
+      </c>
+      <c r="H113" s="1">
+        <v>111</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1.49E-3</v>
+      </c>
+      <c r="K113" s="2">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="1">
+        <v>55</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1">
+        <v>263</v>
+      </c>
+      <c r="D114" s="1">
+        <v>401</v>
+      </c>
+      <c r="E114" t="s">
+        <v>153</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.23485431500000001</v>
+      </c>
+      <c r="G114" s="3">
+        <v>2.314057885</v>
+      </c>
+      <c r="H114" s="1">
+        <v>112</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1.92E-3</v>
+      </c>
+      <c r="K114" s="2">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M114" s="1">
+        <v>72</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="1">
+        <v>289</v>
+      </c>
+      <c r="D115" s="1">
+        <v>121</v>
+      </c>
+      <c r="E115" t="s">
+        <v>154</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.32927606199999998</v>
+      </c>
+      <c r="G115" s="3">
+        <v>2.3114831169999999</v>
+      </c>
+      <c r="H115" s="1">
+        <v>113</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1.42E-3</v>
+      </c>
+      <c r="K115" s="2">
+        <v>5.47E-3</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" s="1">
+        <v>105</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1">
+        <v>335</v>
+      </c>
+      <c r="D116" s="1">
+        <v>141</v>
+      </c>
+      <c r="E116" t="s">
+        <v>155</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.46965494899999999</v>
+      </c>
+      <c r="G116" s="3">
+        <v>2.395007203</v>
+      </c>
+      <c r="H116" s="1">
+        <v>114</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1.1E-4</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="K116" s="2">
+        <v>4.8199999999999996E-3</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M116" s="1">
+        <v>53</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1">
+        <v>386</v>
+      </c>
+      <c r="D117" s="1">
+        <v>583</v>
+      </c>
+      <c r="E117" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.59330735700000004</v>
+      </c>
+      <c r="G117" s="3">
+        <v>2.3356688050000001</v>
+      </c>
+      <c r="H117" s="1">
+        <v>115</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J117" s="2">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="K117" s="2">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M117" s="1">
+        <v>92</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="1">
+        <v>452</v>
+      </c>
+      <c r="D118" s="1">
+        <v>458</v>
+      </c>
+      <c r="E118" t="s">
+        <v>157</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.81827149499999996</v>
+      </c>
+      <c r="G118" s="3">
+        <v>2.5598808819999999</v>
+      </c>
+      <c r="H118" s="1">
+        <v>115</v>
+      </c>
+      <c r="I118" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K118" s="2">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M118" s="1">
+        <v>62</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="1">
+        <v>306</v>
+      </c>
+      <c r="D119" s="1">
+        <v>705</v>
+      </c>
+      <c r="E119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.37681239100000002</v>
+      </c>
+      <c r="G119" s="3">
+        <v>2.3458004699999999</v>
+      </c>
+      <c r="H119" s="1">
+        <v>117</v>
+      </c>
+      <c r="I119" s="2">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="K119" s="2">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" s="1">
+        <v>59</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="1">
+        <v>385</v>
+      </c>
+      <c r="D120" s="1">
+        <v>544</v>
+      </c>
+      <c r="E120" t="s">
+        <v>159</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.592544811</v>
+      </c>
+      <c r="G120" s="3">
+        <v>2.3727330719999999</v>
+      </c>
+      <c r="H120" s="1">
+        <v>117</v>
+      </c>
+      <c r="I120" s="2">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1.06E-3</v>
+      </c>
+      <c r="K120" s="2">
+        <v>3.6600000000000001E-3</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="1">
+        <v>65</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="1">
+        <v>527</v>
+      </c>
+      <c r="D121" s="1">
+        <v>569</v>
+      </c>
+      <c r="E121" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.96357658000000002</v>
+      </c>
+      <c r="G121" s="3">
+        <v>2.6389377600000001</v>
+      </c>
+      <c r="H121" s="1">
+        <v>119</v>
+      </c>
+      <c r="I121" s="2">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1.01E-3</v>
+      </c>
+      <c r="K121" s="2">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="1">
+        <v>71</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="1">
+        <v>401</v>
+      </c>
+      <c r="D122" s="1">
+        <v>452</v>
+      </c>
+      <c r="E122" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.64486184199999996</v>
+      </c>
+      <c r="G122" s="3">
+        <v>2.3249066140000001</v>
+      </c>
+      <c r="H122" s="1">
+        <v>120</v>
+      </c>
+      <c r="I122" s="2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J122" s="2">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="K122" s="2">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" s="1">
+        <v>44</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1">
+        <v>316</v>
+      </c>
+      <c r="D123" s="1">
+        <v>168</v>
+      </c>
+      <c r="E123" t="s">
+        <v>162</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.40794372600000001</v>
+      </c>
+      <c r="G123" s="3">
+        <v>2.281440006</v>
+      </c>
+      <c r="H123" s="1">
+        <v>121</v>
+      </c>
+      <c r="I123" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J123" s="2">
+        <v>9.5E-4</v>
+      </c>
+      <c r="K123" s="2">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M123" s="1">
+        <v>89</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="1">
+        <v>649</v>
+      </c>
+      <c r="D124" s="1">
+        <v>229</v>
+      </c>
+      <c r="E124" t="s">
+        <v>164</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1.245600155</v>
+      </c>
+      <c r="G124" s="3">
+        <v>2.6359226009999999</v>
+      </c>
+      <c r="H124" s="1">
+        <v>121</v>
+      </c>
+      <c r="I124" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J124" s="2">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1.73E-3</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M124" s="1">
+        <v>66</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="1">
+        <v>413</v>
+      </c>
+      <c r="D125" s="1">
+        <v>620</v>
+      </c>
+      <c r="E125" t="s">
+        <v>166</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.69030596700000002</v>
+      </c>
+      <c r="G125" s="3">
+        <v>2.384300396</v>
+      </c>
+      <c r="H125" s="1">
         <v>123</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="I125" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="J125" s="2">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="K125" s="2">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M125" s="1">
+        <v>50</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="1">
+        <v>455</v>
+      </c>
+      <c r="D126" s="1">
+        <v>266</v>
+      </c>
+      <c r="E126" t="s">
+        <v>167</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.829535146</v>
+      </c>
+      <c r="G126" s="3">
+        <v>2.4299694340000002</v>
+      </c>
+      <c r="H126" s="1">
         <v>123</v>
       </c>
-      <c r="E94" t="s">
+      <c r="I126" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="J126" s="2">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="K126" s="2">
+        <v>2.15E-3</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" s="1">
+        <v>69</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1">
+        <v>492</v>
+      </c>
+      <c r="D127" s="1">
+        <v>798</v>
+      </c>
+      <c r="E127" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0.88503178800000004</v>
+      </c>
+      <c r="G127" s="3">
+        <v>2.3898351619999998</v>
+      </c>
+      <c r="H127" s="1">
+        <v>125</v>
+      </c>
+      <c r="I127" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="J127" s="2">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1.47E-3</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M127" s="1">
+        <v>37</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1">
+        <v>508</v>
+      </c>
+      <c r="D128" s="1">
+        <v>970</v>
+      </c>
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.919444708</v>
+      </c>
+      <c r="G128" s="3">
+        <v>2.4462355859999998</v>
+      </c>
+      <c r="H128" s="1">
+        <v>125</v>
+      </c>
+      <c r="I128" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="J128" s="2">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="K128" s="2">
+        <v>2.16E-3</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="1">
+        <v>28</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1">
+        <v>463</v>
+      </c>
+      <c r="D129" s="1">
+        <v>350</v>
+      </c>
+      <c r="E129" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.84308558099999997</v>
+      </c>
+      <c r="G129" s="3">
+        <v>2.3694330579999998</v>
+      </c>
+      <c r="H129" s="1">
+        <v>127</v>
+      </c>
+      <c r="I129" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J129" s="2">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M129" s="1">
+        <v>84</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="1">
+        <v>588</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1428</v>
+      </c>
+      <c r="E130" t="s">
+        <v>172</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1.1090682519999999</v>
+      </c>
+      <c r="G130" s="3">
+        <v>2.3989912339999999</v>
+      </c>
+      <c r="H130" s="1">
+        <v>127</v>
+      </c>
+      <c r="I130" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J130" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="K130" s="2">
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" s="1">
+        <v>8</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="1">
+        <v>611</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1129</v>
+      </c>
+      <c r="E131" t="s">
+        <v>174</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1.1543826290000001</v>
+      </c>
+      <c r="G131" s="3">
+        <v>2.3316138419999999</v>
+      </c>
+      <c r="H131" s="1">
+        <v>127</v>
+      </c>
+      <c r="I131" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="K131" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" s="1">
+        <v>53</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1">
+        <v>888</v>
+      </c>
+      <c r="D132" s="1">
+        <v>812</v>
+      </c>
+      <c r="E132" t="s">
+        <v>175</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1.690600047</v>
+      </c>
+      <c r="G132" s="3">
+        <v>2.4681332079999998</v>
+      </c>
+      <c r="H132" s="1">
+        <v>130</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J132" s="2">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="K132" s="2">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M132" s="1">
+        <v>53</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1122</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1927</v>
+      </c>
+      <c r="E133" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2.0542878349999998</v>
+      </c>
+      <c r="G133" s="3">
+        <v>2.5081406149999999</v>
+      </c>
+      <c r="H133" s="1">
+        <v>130</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J133" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1.1E-4</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M133" s="1">
+        <v>3</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1184</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1729</v>
+      </c>
+      <c r="E134" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2.1660598649999998</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2.4495179189999998</v>
+      </c>
+      <c r="H134" s="1">
         <v>132</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K134" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" s="1">
+        <v>31</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E135" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" s="3">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G135" s="3">
         <v>2.5</v>
       </c>
-      <c r="H94" s="1">
-        <v>83</v>
-      </c>
-      <c r="I94" s="2">
+      <c r="H135" s="1">
+        <v>132</v>
+      </c>
+      <c r="I135" s="2">
         <v>0</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J135" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K135" s="2">
         <v>0</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>123</v>
+      <c r="L135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E136" t="s">
+        <v>179</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3</v>
+      </c>
+      <c r="G136" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H136" s="1">
+        <v>132</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" t="s">
+        <v>180</v>
+      </c>
+      <c r="F137" s="3">
+        <v>3</v>
+      </c>
+      <c r="G137" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H137" s="1">
+        <v>132</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" t="s">
+        <v>181</v>
+      </c>
+      <c r="F138" s="3">
+        <v>3</v>
+      </c>
+      <c r="G138" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H138" s="1">
+        <v>132</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" t="s">
+        <v>182</v>
+      </c>
+      <c r="F139" s="3">
+        <v>3</v>
+      </c>
+      <c r="G139" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H139" s="1">
+        <v>132</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" t="s">
+        <v>183</v>
+      </c>
+      <c r="F140" s="3">
+        <v>3</v>
+      </c>
+      <c r="G140" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H140" s="1">
+        <v>132</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E141" t="s">
+        <v>184</v>
+      </c>
+      <c r="F141" s="3">
+        <v>3</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H141" s="1">
+        <v>132</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E142" t="s">
+        <v>185</v>
+      </c>
+      <c r="F142" s="3">
+        <v>3</v>
+      </c>
+      <c r="G142" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H142" s="1">
+        <v>132</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K142" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E143" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" s="3">
+        <v>3</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H143" s="1">
+        <v>132</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F144" s="3">
+        <v>3</v>
+      </c>
+      <c r="G144" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H144" s="1">
+        <v>132</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E145" t="s">
+        <v>188</v>
+      </c>
+      <c r="F145" s="3">
+        <v>3</v>
+      </c>
+      <c r="G145" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H145" s="1">
+        <v>132</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" t="s">
+        <v>189</v>
+      </c>
+      <c r="F146" s="3">
+        <v>3</v>
+      </c>
+      <c r="G146" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H146" s="1">
+        <v>132</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" t="s">
+        <v>190</v>
+      </c>
+      <c r="F147" s="3">
+        <v>3</v>
+      </c>
+      <c r="G147" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H147" s="1">
+        <v>132</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E148" t="s">
+        <v>191</v>
+      </c>
+      <c r="F148" s="3">
+        <v>3</v>
+      </c>
+      <c r="G148" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H148" s="1">
+        <v>132</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149" t="s">
+        <v>192</v>
+      </c>
+      <c r="F149" s="3">
+        <v>3</v>
+      </c>
+      <c r="G149" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H149" s="1">
+        <v>132</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E150" t="s">
+        <v>193</v>
+      </c>
+      <c r="F150" s="3">
+        <v>3</v>
+      </c>
+      <c r="G150" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H150" s="1">
+        <v>132</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" t="s">
+        <v>194</v>
+      </c>
+      <c r="F151" s="3">
+        <v>3</v>
+      </c>
+      <c r="G151" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H151" s="1">
+        <v>132</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>0</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E152" t="s">
+        <v>195</v>
+      </c>
+      <c r="F152" s="3">
+        <v>3</v>
+      </c>
+      <c r="G152" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H152" s="1">
+        <v>132</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Current_Event_Simulation.xlsx
+++ b/Output/Current_Event_Simulation.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="0" windowWidth="19830" windowHeight="7380"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="19830" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Current_Event_Simulation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="212">
   <si>
     <t>Event_Name</t>
   </si>
@@ -610,6 +610,51 @@
   </si>
   <si>
     <t>Updated  August 8, 2017</t>
+  </si>
+  <si>
+    <t>Implied Vegas</t>
+  </si>
+  <si>
+    <t>Harris English</t>
+  </si>
+  <si>
+    <t>Scott Piercy</t>
+  </si>
+  <si>
+    <t>Graham DeLaet</t>
+  </si>
+  <si>
+    <t>Bernhard Langer</t>
+  </si>
+  <si>
+    <t>Chris Kirk</t>
+  </si>
+  <si>
+    <t>Alex Beach</t>
+  </si>
+  <si>
+    <t>Chris Moody</t>
+  </si>
+  <si>
+    <t>Dave McNabb</t>
+  </si>
+  <si>
+    <t>Greg Gregory</t>
+  </si>
+  <si>
+    <t>Jamie Broce</t>
+  </si>
+  <si>
+    <t>Jaysen Hansen</t>
+  </si>
+  <si>
+    <t>Paul Claxton</t>
+  </si>
+  <si>
+    <t>Scott Hebert</t>
+  </si>
+  <si>
+    <t>Vegas Rank</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1097,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1095,8 +1140,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,8 +1169,11 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1164,6 +1213,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1444,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,9 +1515,12 @@
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>195</v>
       </c>
@@ -1486,8 +1539,10 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +1585,14 @@
       <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1574,8 +1635,28 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="10">
+        <f>VLOOKUP(E3,$S$3:$V$159,4,FALSE)</f>
+        <v>7.6310076163935814E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f>RANK(O3,$O$3:$O$149)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3">
+        <v>12500</v>
+      </c>
+      <c r="U3">
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="V3">
+        <v>5.4507197259954154E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1618,8 +1699,28 @@
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="10">
+        <f>VLOOKUP(E4,$S$3:$V$159,4,FALSE)</f>
+        <v>5.723255712295186E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P67" si="0">RANK(O4,$O$3:$O$149)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4">
+        <v>150000</v>
+      </c>
+      <c r="U4">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V4">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1662,8 +1763,28 @@
       <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="10">
+        <f>VLOOKUP(E5,$S$3:$V$159,4,FALSE)</f>
+        <v>5.2830052728878647E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <v>4000</v>
+      </c>
+      <c r="U5">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1706,8 +1827,28 @@
       <c r="N6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="10">
+        <f>VLOOKUP(E6,$S$3:$V$159,4,FALSE)</f>
+        <v>8.5848835684427804E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>203</v>
+      </c>
+      <c r="T6">
+        <v>150000</v>
+      </c>
+      <c r="U6">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V6">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1750,8 +1891,28 @@
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="10">
+        <f>VLOOKUP(E7,$S$3:$V$159,4,FALSE)</f>
+        <v>4.039945208678955E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7">
+        <v>6600</v>
+      </c>
+      <c r="U7">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="V7">
+        <v>1.0250607245901827E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1794,8 +1955,28 @@
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="10">
+        <f>VLOOKUP(E8,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8">
+        <v>30000</v>
+      </c>
+      <c r="U8">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V8">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1838,8 +2019,28 @@
       <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="10">
+        <f>VLOOKUP(E9,$S$3:$V$159,4,FALSE)</f>
+        <v>2.368243743018698E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9">
+        <v>25000</v>
+      </c>
+      <c r="U9">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V9">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1882,8 +2083,28 @@
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="10">
+        <f>VLOOKUP(E10,$S$3:$V$159,4,FALSE)</f>
+        <v>1.4930232292943964E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10">
+        <v>25000</v>
+      </c>
+      <c r="U10">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V10">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1926,8 +2147,28 @@
       <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="10">
+        <f>VLOOKUP(E11,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11">
+        <v>30000</v>
+      </c>
+      <c r="U11">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V11">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1970,8 +2211,28 @@
       <c r="N12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="10">
+        <f>VLOOKUP(E12,$S$3:$V$159,4,FALSE)</f>
+        <v>2.6415026364439324E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12">
+        <v>17500</v>
+      </c>
+      <c r="U12">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V12">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2014,8 +2275,28 @@
       <c r="N13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="10">
+        <f>VLOOKUP(E13,$S$3:$V$159,4,FALSE)</f>
+        <v>1.2264119383489685E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13">
+        <v>30000</v>
+      </c>
+      <c r="U13">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V13">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2058,8 +2339,28 @@
       <c r="N14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="10">
+        <f>VLOOKUP(E14,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14">
+        <v>15000</v>
+      </c>
+      <c r="U14">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V14">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2102,8 +2403,28 @@
       <c r="N15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="10">
+        <f>VLOOKUP(E15,$S$3:$V$159,4,FALSE)</f>
+        <v>2.6415026364439324E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15">
+        <v>20000</v>
+      </c>
+      <c r="U15">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V15">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2146,8 +2467,28 @@
       <c r="N16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="10">
+        <f>VLOOKUP(E16,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16">
+        <v>5500</v>
+      </c>
+      <c r="U16">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="V16">
+        <v>1.2264119383489685E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2190,8 +2531,28 @@
       <c r="N17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="10">
+        <f>VLOOKUP(E17,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>168</v>
+      </c>
+      <c r="T17">
+        <v>35000</v>
+      </c>
+      <c r="U17">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V17">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2234,8 +2595,28 @@
       <c r="N18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="10">
+        <f>VLOOKUP(E18,$S$3:$V$159,4,FALSE)</f>
+        <v>1.0250607245901827E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18">
+        <v>15000</v>
+      </c>
+      <c r="U18">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V18">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2278,8 +2659,28 @@
       <c r="N19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="10">
+        <f>VLOOKUP(E19,$S$3:$V$159,4,FALSE)</f>
+        <v>1.2264119383489685E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19">
+        <v>20000</v>
+      </c>
+      <c r="U19">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V19">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2322,8 +2723,28 @@
       <c r="N20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="10">
+        <f>VLOOKUP(E20,$S$3:$V$159,4,FALSE)</f>
+        <v>5.4507197259954154E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S20" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20">
+        <v>15000</v>
+      </c>
+      <c r="U20">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V20">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2366,8 +2787,28 @@
       <c r="N21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="10">
+        <f>VLOOKUP(E21,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3466484028929851E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T21">
+        <v>150000</v>
+      </c>
+      <c r="U21">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V21">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2410,8 +2851,28 @@
       <c r="N22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="10">
+        <f>VLOOKUP(E22,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S22" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22">
+        <v>2500</v>
+      </c>
+      <c r="U22">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="V22">
+        <v>2.6415026364439324E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2454,8 +2915,28 @@
       <c r="N23" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="10">
+        <f>VLOOKUP(E23,$S$3:$V$159,4,FALSE)</f>
+        <v>1.2264119383489685E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S23" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23">
+        <v>17500</v>
+      </c>
+      <c r="U23">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V23">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2498,8 +2979,28 @@
       <c r="N24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="10">
+        <f>VLOOKUP(E24,$S$3:$V$159,4,FALSE)</f>
+        <v>1.2264119383489685E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S24" t="s">
+        <v>71</v>
+      </c>
+      <c r="T24">
+        <v>7500</v>
+      </c>
+      <c r="U24">
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="V24">
+        <v>9.0367195457292417E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2542,8 +3043,28 @@
       <c r="N25" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="10">
+        <f>VLOOKUP(E25,$S$3:$V$159,4,FALSE)</f>
+        <v>7.547150389839807E-3</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25">
+        <v>30000</v>
+      </c>
+      <c r="U25">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V25">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2586,8 +3107,28 @@
       <c r="N26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="10">
+        <f>VLOOKUP(E26,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S26" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26">
+        <v>25000</v>
+      </c>
+      <c r="U26">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V26">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2630,8 +3171,28 @@
       <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="10">
+        <f>VLOOKUP(E27,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S27" t="s">
+        <v>144</v>
+      </c>
+      <c r="T27">
+        <v>30000</v>
+      </c>
+      <c r="U27">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V27">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2674,8 +3235,28 @@
       <c r="N28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="10">
+        <f>VLOOKUP(E28,$S$3:$V$159,4,FALSE)</f>
+        <v>7.547150389839807E-3</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28">
+        <v>9000</v>
+      </c>
+      <c r="U28">
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="V28">
+        <v>7.547150389839807E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2718,8 +3299,28 @@
       <c r="N29" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="10">
+        <f>VLOOKUP(E29,$S$3:$V$159,4,FALSE)</f>
+        <v>8.4788973515484249E-3</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29">
+        <v>17500</v>
+      </c>
+      <c r="U29">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V29">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2762,8 +3363,28 @@
       <c r="N30" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="10">
+        <f>VLOOKUP(E30,$S$3:$V$159,4,FALSE)</f>
+        <v>7.547150389839807E-3</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30">
+        <v>5000</v>
+      </c>
+      <c r="U30">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="V30">
+        <v>1.3466484028929851E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2806,8 +3427,28 @@
       <c r="N31" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="10">
+        <f>VLOOKUP(E31,$S$3:$V$159,4,FALSE)</f>
+        <v>1.0250607245901827E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S31" t="s">
+        <v>83</v>
+      </c>
+      <c r="T31">
+        <v>30000</v>
+      </c>
+      <c r="U31">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V31">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2850,8 +3491,28 @@
       <c r="N32" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="10">
+        <f>VLOOKUP(E32,$S$3:$V$159,4,FALSE)</f>
+        <v>1.0250607245901827E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S32" t="s">
+        <v>202</v>
+      </c>
+      <c r="T32">
+        <v>30000</v>
+      </c>
+      <c r="U32">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V32">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2894,8 +3555,28 @@
       <c r="N33" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="10">
+        <f>VLOOKUP(E33,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S33" t="s">
+        <v>204</v>
+      </c>
+      <c r="T33">
+        <v>150000</v>
+      </c>
+      <c r="U33">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V33">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2938,8 +3619,28 @@
       <c r="N34" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="10">
+        <f>VLOOKUP(E34,$S$3:$V$159,4,FALSE)</f>
+        <v>1.2264119383489685E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S34" t="s">
+        <v>162</v>
+      </c>
+      <c r="T34">
+        <v>30000</v>
+      </c>
+      <c r="U34">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V34">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2982,8 +3683,28 @@
       <c r="N35" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="10">
+        <f>VLOOKUP(E35,$S$3:$V$159,4,FALSE)</f>
+        <v>8.4788973515484249E-3</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S35" t="s">
+        <v>128</v>
+      </c>
+      <c r="T35">
+        <v>30000</v>
+      </c>
+      <c r="U35">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V35">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3026,8 +3747,28 @@
       <c r="N36" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="10">
+        <f>VLOOKUP(E36,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>170</v>
+      </c>
+      <c r="T36">
+        <v>50000</v>
+      </c>
+      <c r="U36">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V36">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3070,8 +3811,28 @@
       <c r="N37" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="10">
+        <f>VLOOKUP(E37,$S$3:$V$159,4,FALSE)</f>
+        <v>1.6750992328668838E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S37" t="s">
+        <v>172</v>
+      </c>
+      <c r="T37">
+        <v>50000</v>
+      </c>
+      <c r="U37">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V37">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3114,8 +3875,28 @@
       <c r="N38" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="10">
+        <f>VLOOKUP(E38,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38">
+        <v>5500</v>
+      </c>
+      <c r="U38">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="V38">
+        <v>1.2264119383489685E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3158,8 +3939,28 @@
       <c r="N39" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="10">
+        <f>VLOOKUP(E39,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S39" t="s">
+        <v>135</v>
+      </c>
+      <c r="T39">
+        <v>25000</v>
+      </c>
+      <c r="U39">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V39">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3202,8 +4003,28 @@
       <c r="N40" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="10">
+        <f>VLOOKUP(E40,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40">
+        <v>20000</v>
+      </c>
+      <c r="U40">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V40">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3246,8 +4067,28 @@
       <c r="N41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="10">
+        <f>VLOOKUP(E41,$S$3:$V$159,4,FALSE)</f>
+        <v>7.547150389839807E-3</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S41" t="s">
+        <v>150</v>
+      </c>
+      <c r="T41">
+        <v>35000</v>
+      </c>
+      <c r="U41">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V41">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3290,8 +4131,28 @@
       <c r="N42" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="10">
+        <f>VLOOKUP(E42,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S42" t="s">
+        <v>205</v>
+      </c>
+      <c r="T42">
+        <v>150000</v>
+      </c>
+      <c r="U42">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V42">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3334,8 +4195,28 @@
       <c r="N43" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="10">
+        <f>VLOOKUP(E43,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>79</v>
+      </c>
+      <c r="T43">
+        <v>20000</v>
+      </c>
+      <c r="U43">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V43">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3378,8 +4259,28 @@
       <c r="N44" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="10">
+        <f>VLOOKUP(E44,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S44" t="s">
+        <v>190</v>
+      </c>
+      <c r="T44">
+        <v>150000</v>
+      </c>
+      <c r="U44">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V44">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3422,8 +4323,28 @@
       <c r="N45" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="10">
+        <f>VLOOKUP(E45,$S$3:$V$159,4,FALSE)</f>
+        <v>9.0367195457292417E-3</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S45" t="s">
+        <v>175</v>
+      </c>
+      <c r="T45">
+        <v>50000</v>
+      </c>
+      <c r="U45">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V45">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3466,8 +4387,28 @@
       <c r="N46" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="10">
+        <f>VLOOKUP(E46,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S46" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46">
+        <v>1200</v>
+      </c>
+      <c r="U46">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="V46">
+        <v>5.2830052728878647E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3510,8 +4451,28 @@
       <c r="N47" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="10">
+        <f>VLOOKUP(E47,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S47" t="s">
+        <v>163</v>
+      </c>
+      <c r="T47">
+        <v>35000</v>
+      </c>
+      <c r="U47">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V47">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3554,8 +4515,28 @@
       <c r="N48" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="10">
+        <f>VLOOKUP(E48,$S$3:$V$159,4,FALSE)</f>
+        <v>5.4507197259954154E-3</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S48" t="s">
+        <v>81</v>
+      </c>
+      <c r="T48">
+        <v>20000</v>
+      </c>
+      <c r="U48">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V48">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3598,8 +4579,28 @@
       <c r="N49" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="10">
+        <f>VLOOKUP(E49,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S49" t="s">
+        <v>173</v>
+      </c>
+      <c r="T49">
+        <v>35000</v>
+      </c>
+      <c r="U49">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V49">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3642,8 +4643,28 @@
       <c r="N50" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="10">
+        <f>VLOOKUP(E50,$S$3:$V$159,4,FALSE)</f>
+        <v>5.4507197259954154E-3</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T50">
+        <v>12500</v>
+      </c>
+      <c r="U50">
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="V50">
+        <v>5.4507197259954154E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3686,8 +4707,28 @@
       <c r="N51" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="10">
+        <f>VLOOKUP(E51,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S51" t="s">
+        <v>80</v>
+      </c>
+      <c r="T51">
+        <v>10000</v>
+      </c>
+      <c r="U51">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V51">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3730,8 +4771,28 @@
       <c r="N52" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="10">
+        <f>VLOOKUP(E52,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S52" t="s">
+        <v>116</v>
+      </c>
+      <c r="T52">
+        <v>30000</v>
+      </c>
+      <c r="U52">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V52">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -3774,8 +4835,28 @@
       <c r="N53" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="10">
+        <f>VLOOKUP(E53,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S53" t="s">
+        <v>200</v>
+      </c>
+      <c r="T53">
+        <v>25000</v>
+      </c>
+      <c r="U53">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V53">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3783,19 +4864,19 @@
         <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F54" s="3">
-        <v>-1.0155770721091999</v>
+        <v>-0.96010330190786297</v>
       </c>
       <c r="G54" s="3">
-        <v>2.3926246401589002</v>
+        <v>2.4128970969561698</v>
       </c>
       <c r="H54" s="1">
         <v>52</v>
@@ -3804,22 +4885,42 @@
         <v>4.6600000000000001E-3</v>
       </c>
       <c r="J54" s="2">
-        <v>3.074E-2</v>
+        <v>2.9270000000000001E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>6.8930000000000005E-2</v>
+        <v>6.4360000000000001E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M54" s="1">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="10">
+        <f>VLOOKUP(E54,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="S54" t="s">
+        <v>129</v>
+      </c>
+      <c r="T54">
+        <v>30000</v>
+      </c>
+      <c r="U54">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V54">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3827,19 +4928,19 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F55" s="3">
-        <v>-0.96010330190786297</v>
+        <v>-1.0155770721091999</v>
       </c>
       <c r="G55" s="3">
-        <v>2.4128970969561698</v>
+        <v>2.3926246401589002</v>
       </c>
       <c r="H55" s="1">
         <v>52</v>
@@ -3848,22 +4949,42 @@
         <v>4.6600000000000001E-3</v>
       </c>
       <c r="J55" s="2">
-        <v>2.9270000000000001E-2</v>
+        <v>3.074E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>6.4360000000000001E-2</v>
+        <v>6.8930000000000005E-2</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M55" s="1">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="10">
+        <f>VLOOKUP(E55,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S55" t="s">
+        <v>206</v>
+      </c>
+      <c r="T55">
+        <v>150000</v>
+      </c>
+      <c r="U55">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V55">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3906,8 +5027,28 @@
       <c r="N56" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="10">
+        <f>VLOOKUP(E56,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S56" t="s">
+        <v>198</v>
+      </c>
+      <c r="T56">
+        <v>17500</v>
+      </c>
+      <c r="U56">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V56">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3950,8 +5091,28 @@
       <c r="N57" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="10">
+        <f>VLOOKUP(E57,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S57" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57">
+        <v>4000</v>
+      </c>
+      <c r="U57">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V57">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3994,8 +5155,28 @@
       <c r="N58" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="10">
+        <f>VLOOKUP(E58,$S$3:$V$159,4,FALSE)</f>
+        <v>5.4507197259954154E-3</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S58" t="s">
+        <v>19</v>
+      </c>
+      <c r="T58">
+        <v>1100</v>
+      </c>
+      <c r="U58">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V58">
+        <v>5.723255712295186E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -4038,8 +5219,28 @@
       <c r="N59" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="10">
+        <f>VLOOKUP(E59,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="S59" t="s">
+        <v>127</v>
+      </c>
+      <c r="T59">
+        <v>30000</v>
+      </c>
+      <c r="U59">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V59">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -4082,8 +5283,28 @@
       <c r="N60" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="10">
+        <f>VLOOKUP(E60,$S$3:$V$159,4,FALSE)</f>
+        <v>8.4788973515484249E-3</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T60">
+        <v>25000</v>
+      </c>
+      <c r="U60">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V60">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -4126,8 +5347,28 @@
       <c r="N61" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="10">
+        <f>VLOOKUP(E61,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S61" t="s">
+        <v>89</v>
+      </c>
+      <c r="T61">
+        <v>8000</v>
+      </c>
+      <c r="U61">
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="V61">
+        <v>8.4788973515484249E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4170,8 +5411,28 @@
       <c r="N62" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="10">
+        <f>VLOOKUP(E62,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S62" t="s">
+        <v>67</v>
+      </c>
+      <c r="T62">
+        <v>10000</v>
+      </c>
+      <c r="U62">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V62">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -4214,8 +5475,28 @@
       <c r="N63" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="10">
+        <f>VLOOKUP(E63,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S63" t="s">
+        <v>113</v>
+      </c>
+      <c r="T63">
+        <v>17500</v>
+      </c>
+      <c r="U63">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V63">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -4258,8 +5539,28 @@
       <c r="N64" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="10">
+        <f>VLOOKUP(E64,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="S64" t="s">
+        <v>207</v>
+      </c>
+      <c r="T64">
+        <v>150000</v>
+      </c>
+      <c r="U64">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V64">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4302,8 +5603,28 @@
       <c r="N65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="10">
+        <f>VLOOKUP(E65,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S65" t="s">
+        <v>86</v>
+      </c>
+      <c r="T65">
+        <v>12500</v>
+      </c>
+      <c r="U65">
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="V65">
+        <v>5.4507197259954154E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -4346,8 +5667,28 @@
       <c r="N66" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="10">
+        <f>VLOOKUP(E66,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="S66" t="s">
+        <v>28</v>
+      </c>
+      <c r="T66">
+        <v>2800</v>
+      </c>
+      <c r="U66">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="V66">
+        <v>2.368243743018698E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4390,8 +5731,28 @@
       <c r="N67" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="10">
+        <f>VLOOKUP(E67,$S$3:$V$159,4,FALSE)</f>
+        <v>5.4507197259954154E-3</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S67" t="s">
+        <v>50</v>
+      </c>
+      <c r="T67">
+        <v>10000</v>
+      </c>
+      <c r="U67">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V67">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -4434,8 +5795,28 @@
       <c r="N68" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="10">
+        <f>VLOOKUP(E68,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" ref="P68:P131" si="1">RANK(O68,$O$3:$O$149)</f>
+        <v>63</v>
+      </c>
+      <c r="S68" t="s">
+        <v>120</v>
+      </c>
+      <c r="T68">
+        <v>35000</v>
+      </c>
+      <c r="U68">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V68">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -4478,8 +5859,28 @@
       <c r="N69" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="10">
+        <f>VLOOKUP(E69,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S69" t="s">
+        <v>208</v>
+      </c>
+      <c r="T69">
+        <v>150000</v>
+      </c>
+      <c r="U69">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V69">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4522,8 +5923,28 @@
       <c r="N70" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="10">
+        <f>VLOOKUP(E70,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S70" t="s">
+        <v>161</v>
+      </c>
+      <c r="T70">
+        <v>50000</v>
+      </c>
+      <c r="U70">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V70">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -4566,8 +5987,28 @@
       <c r="N71" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="10">
+        <f>VLOOKUP(E71,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5482826852676983E-3</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="S71" t="s">
+        <v>104</v>
+      </c>
+      <c r="T71">
+        <v>15000</v>
+      </c>
+      <c r="U71">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V71">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -4610,8 +6051,21 @@
       <c r="N72" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="10"/>
+      <c r="S72" t="s">
+        <v>117</v>
+      </c>
+      <c r="T72">
+        <v>20000</v>
+      </c>
+      <c r="U72">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V72">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -4654,8 +6108,28 @@
       <c r="N73" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="10">
+        <f>VLOOKUP(E73,$S$3:$V$159,4,FALSE)</f>
+        <v>6.7999077769843805E-3</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="S73" t="s">
+        <v>134</v>
+      </c>
+      <c r="T73">
+        <v>50000</v>
+      </c>
+      <c r="U73">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V73">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -4698,8 +6172,28 @@
       <c r="N74" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="10">
+        <f>VLOOKUP(E74,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S74" t="s">
+        <v>78</v>
+      </c>
+      <c r="T74">
+        <v>10000</v>
+      </c>
+      <c r="U74">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V74">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4742,8 +6236,28 @@
       <c r="N75" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="10">
+        <f>VLOOKUP(E75,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S75" t="s">
+        <v>180</v>
+      </c>
+      <c r="T75">
+        <v>75000</v>
+      </c>
+      <c r="U75">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="V75">
+        <v>9.1450157852919099E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4786,8 +6300,28 @@
       <c r="N76" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="10">
+        <f>VLOOKUP(E76,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S76" t="s">
+        <v>34</v>
+      </c>
+      <c r="T76">
+        <v>2500</v>
+      </c>
+      <c r="U76">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="V76">
+        <v>2.6415026364439324E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4830,8 +6364,28 @@
       <c r="N77" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="10">
+        <f>VLOOKUP(E77,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S77" t="s">
+        <v>157</v>
+      </c>
+      <c r="T77">
+        <v>40000</v>
+      </c>
+      <c r="U77">
+        <v>2.4937655860349127E-3</v>
+      </c>
+      <c r="V77">
+        <v>1.7126949762479361E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4839,19 +6393,19 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D78" s="1">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F78" s="3">
-        <v>-0.80680521340432698</v>
+        <v>-0.73133498769602601</v>
       </c>
       <c r="G78" s="3">
-        <v>2.3704875378688799</v>
+        <v>2.4372124592625899</v>
       </c>
       <c r="H78" s="1">
         <v>76</v>
@@ -4860,22 +6414,42 @@
         <v>2.8300000000000001E-3</v>
       </c>
       <c r="J78" s="2">
-        <v>2.0080000000000001E-2</v>
+        <v>1.9279999999999999E-2</v>
       </c>
       <c r="K78" s="2">
-        <v>4.7370000000000002E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M78" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="10">
+        <f>VLOOKUP(E78,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S78" t="s">
+        <v>121</v>
+      </c>
+      <c r="T78">
+        <v>30000</v>
+      </c>
+      <c r="U78">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V78">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4883,19 +6457,19 @@
         <v>15</v>
       </c>
       <c r="C79" s="1">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="3">
-        <v>-0.73133498769602601</v>
+        <v>-0.80680521340432698</v>
       </c>
       <c r="G79" s="3">
-        <v>2.4372124592625899</v>
+        <v>2.3704875378688799</v>
       </c>
       <c r="H79" s="1">
         <v>76</v>
@@ -4904,22 +6478,42 @@
         <v>2.8300000000000001E-3</v>
       </c>
       <c r="J79" s="2">
-        <v>1.9279999999999999E-2</v>
+        <v>2.0080000000000001E-2</v>
       </c>
       <c r="K79" s="2">
-        <v>4.6100000000000002E-2</v>
+        <v>4.7370000000000002E-2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M79" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="10">
+        <f>VLOOKUP(E79,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S79" t="s">
+        <v>147</v>
+      </c>
+      <c r="T79">
+        <v>20000</v>
+      </c>
+      <c r="U79">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V79">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4962,8 +6556,28 @@
       <c r="N80" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="10">
+        <f>VLOOKUP(E80,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S80" t="s">
+        <v>16</v>
+      </c>
+      <c r="T80">
+        <v>800</v>
+      </c>
+      <c r="U80">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V80">
+        <v>7.6310076163935814E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4971,19 +6585,19 @@
         <v>15</v>
       </c>
       <c r="C81" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F81" s="3">
-        <v>-0.80415564953691998</v>
+        <v>-0.73178204874694197</v>
       </c>
       <c r="G81" s="3">
-        <v>2.37894427581046</v>
+        <v>2.4242798794348301</v>
       </c>
       <c r="H81" s="1">
         <v>79</v>
@@ -4992,22 +6606,42 @@
         <v>2.7599999999999999E-3</v>
       </c>
       <c r="J81" s="2">
-        <v>2.0389999999999998E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="K81" s="2">
-        <v>4.8210000000000003E-2</v>
+        <v>4.4249999999999998E-2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M81" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="O81" s="10">
+        <f>VLOOKUP(E81,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S81" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81">
+        <v>4000</v>
+      </c>
+      <c r="U81">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V81">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -5015,19 +6649,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D82" s="1">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="3">
-        <v>-0.73178204874694197</v>
+        <v>-0.80415564953691998</v>
       </c>
       <c r="G82" s="3">
-        <v>2.4242798794348301</v>
+        <v>2.37894427581046</v>
       </c>
       <c r="H82" s="1">
         <v>79</v>
@@ -5036,22 +6670,42 @@
         <v>2.7599999999999999E-3</v>
       </c>
       <c r="J82" s="2">
-        <v>1.8460000000000001E-2</v>
+        <v>2.0389999999999998E-2</v>
       </c>
       <c r="K82" s="2">
-        <v>4.4249999999999998E-2</v>
+        <v>4.8210000000000003E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M82" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O82" s="10">
+        <f>VLOOKUP(E82,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P82" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S82" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82">
+        <v>4000</v>
+      </c>
+      <c r="U82">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V82">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -5094,8 +6748,28 @@
       <c r="N83" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="10">
+        <f>VLOOKUP(E83,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S83" t="s">
+        <v>85</v>
+      </c>
+      <c r="T83">
+        <v>17500</v>
+      </c>
+      <c r="U83">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V83">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -5138,8 +6812,28 @@
       <c r="N84" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="10">
+        <f>VLOOKUP(E84,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S84" t="s">
+        <v>169</v>
+      </c>
+      <c r="T84">
+        <v>40000</v>
+      </c>
+      <c r="U84">
+        <v>2.4937655860349127E-3</v>
+      </c>
+      <c r="V84">
+        <v>1.7126949762479361E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5182,8 +6876,28 @@
       <c r="N85" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="10">
+        <f>VLOOKUP(E85,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S85" t="s">
+        <v>193</v>
+      </c>
+      <c r="T85">
+        <v>150000</v>
+      </c>
+      <c r="U85">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V85">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -5226,8 +6940,28 @@
       <c r="N86" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="10">
+        <f>VLOOKUP(E86,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S86" t="s">
+        <v>59</v>
+      </c>
+      <c r="T86">
+        <v>8000</v>
+      </c>
+      <c r="U86">
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="V86">
+        <v>8.4788973515484249E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -5270,8 +7004,28 @@
       <c r="N87" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="10">
+        <f>VLOOKUP(E87,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S87" t="s">
+        <v>54</v>
+      </c>
+      <c r="T87">
+        <v>9000</v>
+      </c>
+      <c r="U87">
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="V87">
+        <v>7.547150389839807E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -5314,8 +7068,28 @@
       <c r="N88" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="10">
+        <f>VLOOKUP(E88,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S88" t="s">
+        <v>102</v>
+      </c>
+      <c r="T88">
+        <v>20000</v>
+      </c>
+      <c r="U88">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V88">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -5358,8 +7132,28 @@
       <c r="N89" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="10">
+        <f>VLOOKUP(E89,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S89" t="s">
+        <v>92</v>
+      </c>
+      <c r="T89">
+        <v>15000</v>
+      </c>
+      <c r="U89">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V89">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -5402,8 +7196,28 @@
       <c r="N90" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="10">
+        <f>VLOOKUP(E90,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S90" t="s">
+        <v>171</v>
+      </c>
+      <c r="T90">
+        <v>50000</v>
+      </c>
+      <c r="U90">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V90">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -5446,8 +7260,28 @@
       <c r="N91" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="10">
+        <f>VLOOKUP(E91,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S91" t="s">
+        <v>90</v>
+      </c>
+      <c r="T91">
+        <v>17500</v>
+      </c>
+      <c r="U91">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V91">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -5490,8 +7324,28 @@
       <c r="N92" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="10">
+        <f>VLOOKUP(E92,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P92" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S92" t="s">
+        <v>137</v>
+      </c>
+      <c r="T92">
+        <v>20000</v>
+      </c>
+      <c r="U92">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V92">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -5534,8 +7388,28 @@
       <c r="N93" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="10">
+        <f>VLOOKUP(E93,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P93" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S93" t="s">
+        <v>57</v>
+      </c>
+      <c r="T93">
+        <v>10000</v>
+      </c>
+      <c r="U93">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V93">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -5578,8 +7452,28 @@
       <c r="N94" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="10">
+        <f>VLOOKUP(E94,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S94" t="s">
+        <v>101</v>
+      </c>
+      <c r="T94">
+        <v>20000</v>
+      </c>
+      <c r="U94">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V94">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -5622,8 +7516,28 @@
       <c r="N95" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="10">
+        <f>VLOOKUP(E95,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S95" t="s">
+        <v>139</v>
+      </c>
+      <c r="T95">
+        <v>30000</v>
+      </c>
+      <c r="U95">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V95">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -5666,8 +7580,28 @@
       <c r="N96" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="10">
+        <f>VLOOKUP(E96,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P96" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S96" t="s">
+        <v>123</v>
+      </c>
+      <c r="T96">
+        <v>35000</v>
+      </c>
+      <c r="U96">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V96">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -5710,8 +7644,28 @@
       <c r="N97" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="10">
+        <f>VLOOKUP(E97,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S97" t="s">
+        <v>159</v>
+      </c>
+      <c r="T97">
+        <v>35000</v>
+      </c>
+      <c r="U97">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V97">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -5754,8 +7708,28 @@
       <c r="N98" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="10">
+        <f>VLOOKUP(E98,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P98" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S98" t="s">
+        <v>47</v>
+      </c>
+      <c r="T98">
+        <v>5500</v>
+      </c>
+      <c r="U98">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="V98">
+        <v>1.2264119383489685E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -5798,8 +7772,28 @@
       <c r="N99" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="10">
+        <f>VLOOKUP(E99,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S99" t="s">
+        <v>112</v>
+      </c>
+      <c r="T99">
+        <v>35000</v>
+      </c>
+      <c r="U99">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V99">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -5842,8 +7836,28 @@
       <c r="N100" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="10">
+        <f>VLOOKUP(E100,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P100" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S100" t="s">
+        <v>187</v>
+      </c>
+      <c r="T100">
+        <v>150000</v>
+      </c>
+      <c r="U100">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V100">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -5886,8 +7900,28 @@
       <c r="N101" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="10">
+        <f>VLOOKUP(E101,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S101" t="s">
+        <v>35</v>
+      </c>
+      <c r="T101">
+        <v>5500</v>
+      </c>
+      <c r="U101">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="V101">
+        <v>1.2264119383489685E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -5930,8 +7964,28 @@
       <c r="N102" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="10">
+        <f>VLOOKUP(E102,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P102" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S102" t="s">
+        <v>115</v>
+      </c>
+      <c r="T102">
+        <v>20000</v>
+      </c>
+      <c r="U102">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V102">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -5974,8 +8028,28 @@
       <c r="N103" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="10">
+        <f>VLOOKUP(E103,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P103" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S103" t="s">
+        <v>182</v>
+      </c>
+      <c r="T103">
+        <v>150000</v>
+      </c>
+      <c r="U103">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V103">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -6018,8 +8092,28 @@
       <c r="N104" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="10">
+        <f>VLOOKUP(E104,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P104" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S104" t="s">
+        <v>151</v>
+      </c>
+      <c r="T104">
+        <v>40000</v>
+      </c>
+      <c r="U104">
+        <v>2.4937655860349127E-3</v>
+      </c>
+      <c r="V104">
+        <v>1.7126949762479361E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -6062,8 +8156,28 @@
       <c r="N105" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="10">
+        <f>VLOOKUP(E105,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S105" t="s">
+        <v>183</v>
+      </c>
+      <c r="T105">
+        <v>150000</v>
+      </c>
+      <c r="U105">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V105">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -6106,8 +8220,28 @@
       <c r="N106" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="10">
+        <f>VLOOKUP(E106,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P106" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S106" t="s">
+        <v>145</v>
+      </c>
+      <c r="T106">
+        <v>50000</v>
+      </c>
+      <c r="U106">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V106">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -6150,8 +8284,28 @@
       <c r="N107" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="10">
+        <f>VLOOKUP(E107,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P107" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S107" t="s">
+        <v>158</v>
+      </c>
+      <c r="T107">
+        <v>25000</v>
+      </c>
+      <c r="U107">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V107">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -6194,8 +8348,28 @@
       <c r="N108" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="10">
+        <f>VLOOKUP(E108,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P108" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S108" t="s">
+        <v>68</v>
+      </c>
+      <c r="T108">
+        <v>25000</v>
+      </c>
+      <c r="U108">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V108">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -6238,8 +8412,28 @@
       <c r="N109" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="10">
+        <f>VLOOKUP(E109,$S$3:$V$159,4,FALSE)</f>
+        <v>3.4168690819672753E-3</v>
+      </c>
+      <c r="P109" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S109" t="s">
+        <v>64</v>
+      </c>
+      <c r="T109">
+        <v>17500</v>
+      </c>
+      <c r="U109">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V109">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -6282,8 +8476,28 @@
       <c r="N110" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="10">
+        <f>VLOOKUP(E110,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P110" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S110" t="s">
+        <v>53</v>
+      </c>
+      <c r="T110">
+        <v>8000</v>
+      </c>
+      <c r="U110">
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="V110">
+        <v>8.4788973515484249E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -6326,8 +8540,28 @@
       <c r="N111" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="10">
+        <f>VLOOKUP(E111,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P111" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S111" t="s">
+        <v>152</v>
+      </c>
+      <c r="T111">
+        <v>17500</v>
+      </c>
+      <c r="U111">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V111">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -6370,8 +8604,28 @@
       <c r="N112" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="10">
+        <f>VLOOKUP(E112,$S$3:$V$159,4,FALSE)</f>
+        <v>1.7126949762479361E-3</v>
+      </c>
+      <c r="P112" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="S112" t="s">
+        <v>30</v>
+      </c>
+      <c r="T112">
+        <v>4500</v>
+      </c>
+      <c r="U112">
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="V112">
+        <v>1.4930232292943964E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -6414,8 +8668,28 @@
       <c r="N113" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="10">
+        <f>VLOOKUP(E113,$S$3:$V$159,4,FALSE)</f>
+        <v>3.9022198038376273E-3</v>
+      </c>
+      <c r="P113" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S113" t="s">
+        <v>209</v>
+      </c>
+      <c r="T113">
+        <v>150000</v>
+      </c>
+      <c r="U113">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V113">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -6423,19 +8697,19 @@
         <v>15</v>
       </c>
       <c r="C114" s="1">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="D114" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F114" s="3">
-        <v>-0.38758287471351499</v>
+        <v>-0.162303574363721</v>
       </c>
       <c r="G114" s="3">
-        <v>2.2790865346337701</v>
+        <v>2.3982978938144499</v>
       </c>
       <c r="H114" s="1">
         <v>112</v>
@@ -6444,22 +8718,35 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="J114" s="2">
-        <v>6.45E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="K114" s="2">
-        <v>1.83E-2</v>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M114" s="1">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="10"/>
+      <c r="S114" t="s">
+        <v>41</v>
+      </c>
+      <c r="T114">
+        <v>5500</v>
+      </c>
+      <c r="U114">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="V114">
+        <v>1.2264119383489685E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -6467,19 +8754,19 @@
         <v>15</v>
       </c>
       <c r="C115" s="1">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="D115" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F115" s="3">
-        <v>-0.162303574363721</v>
+        <v>-0.38758287471351499</v>
       </c>
       <c r="G115" s="3">
-        <v>2.3982978938144499</v>
+        <v>2.2790865346337701</v>
       </c>
       <c r="H115" s="1">
         <v>112</v>
@@ -6488,22 +8775,42 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="J115" s="2">
-        <v>5.3299999999999997E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="K115" s="2">
-        <v>1.4579999999999999E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M115" s="1">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="10">
+        <f>VLOOKUP(E115,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P115" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S115" t="s">
+        <v>66</v>
+      </c>
+      <c r="T115">
+        <v>9000</v>
+      </c>
+      <c r="U115">
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="V115">
+        <v>7.547150389839807E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -6546,8 +8853,28 @@
       <c r="N116" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="10">
+        <f>VLOOKUP(E116,$S$3:$V$159,4,FALSE)</f>
+        <v>1.7126949762479361E-3</v>
+      </c>
+      <c r="P116" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="S116" t="s">
+        <v>185</v>
+      </c>
+      <c r="T116">
+        <v>150000</v>
+      </c>
+      <c r="U116">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V116">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -6590,8 +8917,28 @@
       <c r="N117" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="10">
+        <f>VLOOKUP(E117,$S$3:$V$159,4,FALSE)</f>
+        <v>2.7362178704200095E-3</v>
+      </c>
+      <c r="P117" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S117" t="s">
+        <v>192</v>
+      </c>
+      <c r="T117">
+        <v>150000</v>
+      </c>
+      <c r="U117">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V117">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -6634,8 +8981,28 @@
       <c r="N118" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="10">
+        <f>VLOOKUP(E118,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P118" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S118" t="s">
+        <v>160</v>
+      </c>
+      <c r="T118">
+        <v>35000</v>
+      </c>
+      <c r="U118">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V118">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -6678,8 +9045,28 @@
       <c r="N119" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="10">
+        <f>VLOOKUP(E119,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P119" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S119" t="s">
+        <v>24</v>
+      </c>
+      <c r="T119">
+        <v>1600</v>
+      </c>
+      <c r="U119">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="V119">
+        <v>4.039945208678955E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6722,8 +9109,28 @@
       <c r="N120" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="10">
+        <f>VLOOKUP(E120,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P120" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S120" t="s">
+        <v>124</v>
+      </c>
+      <c r="T120">
+        <v>25000</v>
+      </c>
+      <c r="U120">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V120">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -6766,8 +9173,28 @@
       <c r="N121" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="10">
+        <f>VLOOKUP(E121,$S$3:$V$159,4,FALSE)</f>
+        <v>2.2816966294864531E-3</v>
+      </c>
+      <c r="P121" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="S121" t="s">
+        <v>164</v>
+      </c>
+      <c r="T121">
+        <v>75000</v>
+      </c>
+      <c r="U121">
+        <v>1.3315579227696406E-3</v>
+      </c>
+      <c r="V121">
+        <v>9.1450157852919099E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -6810,8 +9237,28 @@
       <c r="N122" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="10">
+        <f>VLOOKUP(E122,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P122" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S122" t="s">
+        <v>189</v>
+      </c>
+      <c r="T122">
+        <v>150000</v>
+      </c>
+      <c r="U122">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V122">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -6854,8 +9301,28 @@
       <c r="N123" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="10">
+        <f>VLOOKUP(E123,$S$3:$V$159,4,FALSE)</f>
+        <v>9.1450157852919099E-4</v>
+      </c>
+      <c r="P123" s="1">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="S123" t="s">
+        <v>22</v>
+      </c>
+      <c r="T123">
+        <v>700</v>
+      </c>
+      <c r="U123">
+        <v>0.125</v>
+      </c>
+      <c r="V123">
+        <v>8.5848835684427804E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -6898,8 +9365,28 @@
       <c r="N124" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="10">
+        <f>VLOOKUP(E124,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P124" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S124" t="s">
+        <v>73</v>
+      </c>
+      <c r="T124">
+        <v>20000</v>
+      </c>
+      <c r="U124">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V124">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -6942,8 +9429,28 @@
       <c r="N125" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="10">
+        <f>VLOOKUP(E125,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P125" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S125" t="s">
+        <v>60</v>
+      </c>
+      <c r="T125">
+        <v>15000</v>
+      </c>
+      <c r="U125">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="V125">
+        <v>4.5482826852676983E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -6986,8 +9493,28 @@
       <c r="N126" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="10">
+        <f>VLOOKUP(E126,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P126" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S126" t="s">
+        <v>95</v>
+      </c>
+      <c r="T126">
+        <v>17500</v>
+      </c>
+      <c r="U126">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V126">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -7030,8 +9557,28 @@
       <c r="N127" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="10">
+        <f>VLOOKUP(E127,$S$3:$V$159,4,FALSE)</f>
+        <v>1.7126949762479361E-3</v>
+      </c>
+      <c r="P127" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="S127" t="s">
+        <v>140</v>
+      </c>
+      <c r="T127">
+        <v>35000</v>
+      </c>
+      <c r="U127">
+        <v>2.8490028490028491E-3</v>
+      </c>
+      <c r="V127">
+        <v>1.9566686195880982E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -7074,8 +9621,28 @@
       <c r="N128" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="10">
+        <f>VLOOKUP(E128,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P128" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S128" t="s">
+        <v>91</v>
+      </c>
+      <c r="T128">
+        <v>17500</v>
+      </c>
+      <c r="U128">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V128">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -7083,19 +9650,19 @@
         <v>15</v>
       </c>
       <c r="C129" s="1">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="D129" s="1">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="E129" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F129" s="3">
-        <v>5.3629380990472897E-3</v>
+        <v>0.15206568144693999</v>
       </c>
       <c r="G129" s="3">
-        <v>2.2810628396598398</v>
+        <v>2.3629623489645901</v>
       </c>
       <c r="H129" s="1">
         <v>127</v>
@@ -7104,22 +9671,42 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="J129" s="2">
-        <v>2.4399999999999999E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="K129" s="2">
-        <v>7.28E-3</v>
+        <v>6.62E-3</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="M129" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="O129" s="10">
+        <f>VLOOKUP(E129,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P129" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S129" t="s">
+        <v>186</v>
+      </c>
+      <c r="T129">
+        <v>150000</v>
+      </c>
+      <c r="U129">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V129">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -7127,19 +9714,19 @@
         <v>15</v>
       </c>
       <c r="C130" s="1">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="D130" s="1">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="E130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F130" s="3">
-        <v>0.15206568144693999</v>
+        <v>5.3629380990472897E-3</v>
       </c>
       <c r="G130" s="3">
-        <v>2.3629623489645901</v>
+        <v>2.2810628396598398</v>
       </c>
       <c r="H130" s="1">
         <v>127</v>
@@ -7148,22 +9735,42 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="J130" s="2">
-        <v>2.1099999999999999E-3</v>
+        <v>2.4399999999999999E-3</v>
       </c>
       <c r="K130" s="2">
-        <v>6.62E-3</v>
+        <v>7.28E-3</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="M130" s="1">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="O130" s="10">
+        <f>VLOOKUP(E130,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P130" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="S130" t="s">
+        <v>167</v>
+      </c>
+      <c r="T130">
+        <v>50000</v>
+      </c>
+      <c r="U130">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V130">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -7206,8 +9813,28 @@
       <c r="N131" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="10">
+        <f>VLOOKUP(E131,$S$3:$V$159,4,FALSE)</f>
+        <v>1.9566686195880982E-3</v>
+      </c>
+      <c r="P131" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S131" t="s">
+        <v>146</v>
+      </c>
+      <c r="T131">
+        <v>50000</v>
+      </c>
+      <c r="U131">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V131">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7215,19 +9842,19 @@
         <v>15</v>
       </c>
       <c r="C132" s="1">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="D132" s="1">
-        <v>532</v>
+        <v>815</v>
       </c>
       <c r="E132" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F132" s="3">
-        <v>0.54219322908494405</v>
+        <v>0.68358006590571696</v>
       </c>
       <c r="G132" s="3">
-        <v>2.4311162326988498</v>
+        <v>2.4353709851632201</v>
       </c>
       <c r="H132" s="1">
         <v>130</v>
@@ -7236,22 +9863,42 @@
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="J132" s="2">
-        <v>1.07E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="K132" s="2">
-        <v>3.5799999999999998E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M132" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="O132" s="10">
+        <f>VLOOKUP(E132,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P132" s="1">
+        <f t="shared" ref="P132:P149" si="2">RANK(O132,$O$3:$O$149)</f>
+        <v>116</v>
+      </c>
+      <c r="S132" t="s">
+        <v>210</v>
+      </c>
+      <c r="T132">
+        <v>150000</v>
+      </c>
+      <c r="U132">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V132">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -7259,19 +9906,19 @@
         <v>15</v>
       </c>
       <c r="C133" s="1">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="D133" s="1">
-        <v>815</v>
+        <v>532</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F133" s="3">
-        <v>0.68358006590571696</v>
+        <v>0.54219322908494405</v>
       </c>
       <c r="G133" s="3">
-        <v>2.4353709851632201</v>
+        <v>2.4311162326988498</v>
       </c>
       <c r="H133" s="1">
         <v>130</v>
@@ -7280,22 +9927,42 @@
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="J133" s="2">
-        <v>8.4000000000000003E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="K133" s="2">
-        <v>2.2399999999999998E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="M133" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O133" s="10">
+        <f>VLOOKUP(E133,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P133" s="1">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="S133" t="s">
+        <v>142</v>
+      </c>
+      <c r="T133">
+        <v>30000</v>
+      </c>
+      <c r="U133">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V133">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -7338,8 +10005,28 @@
       <c r="N134" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="10">
+        <f>VLOOKUP(E134,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P134" s="1">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="S134" t="s">
+        <v>199</v>
+      </c>
+      <c r="T134">
+        <v>20000</v>
+      </c>
+      <c r="U134">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V134">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -7382,28 +10069,48 @@
       <c r="N135" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="10">
+        <f>VLOOKUP(E135,$S$3:$V$159,4,FALSE)</f>
+        <v>1.3708396915677093E-3</v>
+      </c>
+      <c r="P135" s="1">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="S135" t="s">
+        <v>131</v>
+      </c>
+      <c r="T135">
+        <v>25000</v>
+      </c>
+      <c r="U135">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="V135">
+        <v>2.7362178704200095E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
       <c r="B136" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="1">
-        <v>1118</v>
-      </c>
-      <c r="D136" s="1">
-        <v>1967</v>
+      <c r="C136" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E136" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F136" s="3">
-        <v>1.87240725759272</v>
+        <v>3</v>
       </c>
       <c r="G136" s="3">
-        <v>2.3167197838021001</v>
+        <v>2.5</v>
       </c>
       <c r="H136" s="1">
         <v>134</v>
@@ -7415,39 +10122,59 @@
         <v>0</v>
       </c>
       <c r="K136" s="2">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M136" s="1">
-        <v>34</v>
+        <v>181</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="O136" s="10">
+        <f>VLOOKUP(E136,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P136" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S136" t="s">
+        <v>32</v>
+      </c>
+      <c r="T136">
+        <v>4000</v>
+      </c>
+      <c r="U136">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V136">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
       <c r="B137" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="1">
-        <v>1245</v>
-      </c>
-      <c r="D137" s="1">
-        <v>1866</v>
+      <c r="C137" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E137" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F137" s="3">
-        <v>2.0950164040015302</v>
+        <v>3</v>
       </c>
       <c r="G137" s="3">
-        <v>2.4883112575110302</v>
+        <v>2.5</v>
       </c>
       <c r="H137" s="1">
         <v>134</v>
@@ -7456,22 +10183,42 @@
         <v>0</v>
       </c>
       <c r="J137" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="K137" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M137" s="1">
-        <v>10</v>
+        <v>181</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="10">
+        <f>VLOOKUP(E137,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P137" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S137" t="s">
+        <v>99</v>
+      </c>
+      <c r="T137">
+        <v>12500</v>
+      </c>
+      <c r="U137">
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="V137">
+        <v>5.4507197259954154E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -7485,7 +10232,7 @@
         <v>181</v>
       </c>
       <c r="E138" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F138" s="3">
         <v>3</v>
@@ -7514,28 +10261,48 @@
       <c r="N138" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="10">
+        <f>VLOOKUP(E138,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P138" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S138" t="s">
+        <v>178</v>
+      </c>
+      <c r="T138">
+        <v>150000</v>
+      </c>
+      <c r="U138">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V138">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
       <c r="B139" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>181</v>
+      <c r="C139" s="1">
+        <v>1245</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1866</v>
       </c>
       <c r="E139" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F139" s="3">
-        <v>3</v>
+        <v>2.0950164040015302</v>
       </c>
       <c r="G139" s="3">
-        <v>2.5</v>
+        <v>2.4883112575110302</v>
       </c>
       <c r="H139" s="1">
         <v>134</v>
@@ -7544,22 +10311,42 @@
         <v>0</v>
       </c>
       <c r="J139" s="2">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="K139" s="2">
-        <v>0</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>181</v>
+        <v>17</v>
+      </c>
+      <c r="M139" s="1">
+        <v>10</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="10">
+        <f>VLOOKUP(E139,$S$3:$V$159,4,FALSE)</f>
+        <v>9.1450157852919099E-4</v>
+      </c>
+      <c r="P139" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="S139" t="s">
+        <v>130</v>
+      </c>
+      <c r="T139">
+        <v>17500</v>
+      </c>
+      <c r="U139">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V139">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -7573,7 +10360,7 @@
         <v>181</v>
       </c>
       <c r="E140" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F140" s="3">
         <v>3</v>
@@ -7591,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>181</v>
@@ -7602,8 +10389,28 @@
       <c r="N140" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="10">
+        <f>VLOOKUP(E140,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P140" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S140" t="s">
+        <v>132</v>
+      </c>
+      <c r="T140">
+        <v>30000</v>
+      </c>
+      <c r="U140">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V140">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -7617,7 +10424,7 @@
         <v>181</v>
       </c>
       <c r="E141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F141" s="3">
         <v>3</v>
@@ -7646,8 +10453,28 @@
       <c r="N141" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="10">
+        <f>VLOOKUP(E141,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P141" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S141" t="s">
+        <v>51</v>
+      </c>
+      <c r="T141">
+        <v>17500</v>
+      </c>
+      <c r="U141">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V141">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -7661,7 +10488,7 @@
         <v>181</v>
       </c>
       <c r="E142" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F142" s="3">
         <v>3</v>
@@ -7679,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>181</v>
@@ -7690,8 +10517,28 @@
       <c r="N142" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="10">
+        <f>VLOOKUP(E142,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P142" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S142" t="s">
+        <v>184</v>
+      </c>
+      <c r="T142">
+        <v>150000</v>
+      </c>
+      <c r="U142">
+        <v>6.6622251832111927E-4</v>
+      </c>
+      <c r="V142">
+        <v>4.5755542003692365E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -7705,7 +10552,7 @@
         <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F143" s="3">
         <v>3</v>
@@ -7734,8 +10581,28 @@
       <c r="N143" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="10">
+        <f>VLOOKUP(E143,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P143" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S143" t="s">
+        <v>114</v>
+      </c>
+      <c r="T143">
+        <v>30000</v>
+      </c>
+      <c r="U143">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V143">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -7749,7 +10616,7 @@
         <v>181</v>
       </c>
       <c r="E144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F144" s="3">
         <v>3</v>
@@ -7778,8 +10645,28 @@
       <c r="N144" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="10">
+        <f>VLOOKUP(E144,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P144" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S144" t="s">
+        <v>174</v>
+      </c>
+      <c r="T144">
+        <v>50000</v>
+      </c>
+      <c r="U144">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V144">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -7793,7 +10680,7 @@
         <v>181</v>
       </c>
       <c r="E145" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F145" s="3">
         <v>3</v>
@@ -7822,8 +10709,28 @@
       <c r="N145" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="10">
+        <f>VLOOKUP(E145,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P145" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S145" t="s">
+        <v>61</v>
+      </c>
+      <c r="T145">
+        <v>4000</v>
+      </c>
+      <c r="U145">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="V145">
+        <v>1.6750992328668838E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -7837,7 +10744,7 @@
         <v>181</v>
       </c>
       <c r="E146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F146" s="3">
         <v>3</v>
@@ -7866,8 +10773,28 @@
       <c r="N146" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="10">
+        <f>VLOOKUP(E146,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P146" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S146" t="s">
+        <v>153</v>
+      </c>
+      <c r="T146">
+        <v>50000</v>
+      </c>
+      <c r="U146">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V146">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7881,7 +10808,7 @@
         <v>181</v>
       </c>
       <c r="E147" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F147" s="3">
         <v>3</v>
@@ -7899,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>181</v>
@@ -7910,28 +10837,48 @@
       <c r="N147" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="10">
+        <f>VLOOKUP(E147,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P147" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S147" t="s">
+        <v>136</v>
+      </c>
+      <c r="T147">
+        <v>17500</v>
+      </c>
+      <c r="U147">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="V147">
+        <v>3.9022198038376273E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>181</v>
+      <c r="C148" s="1">
+        <v>1118</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1967</v>
       </c>
       <c r="E148" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F148" s="3">
-        <v>3</v>
+        <v>1.87240725759272</v>
       </c>
       <c r="G148" s="3">
-        <v>2.5</v>
+        <v>2.3167197838021001</v>
       </c>
       <c r="H148" s="1">
         <v>134</v>
@@ -7943,19 +10890,39 @@
         <v>0</v>
       </c>
       <c r="K148" s="2">
-        <v>0</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>181</v>
+        <v>17</v>
+      </c>
+      <c r="M148" s="1">
+        <v>34</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="O148" s="10">
+        <f>VLOOKUP(E148,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P148" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S148" t="s">
+        <v>56</v>
+      </c>
+      <c r="T148">
+        <v>6600</v>
+      </c>
+      <c r="U148">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="V148">
+        <v>1.0250607245901827E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -7969,7 +10936,7 @@
         <v>181</v>
       </c>
       <c r="E149" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F149" s="3">
         <v>3</v>
@@ -7987,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>181</v>
@@ -7998,10 +10965,173 @@
       <c r="N149" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="O149" s="10">
+        <f>VLOOKUP(E149,$S$3:$V$159,4,FALSE)</f>
+        <v>4.5755542003692365E-4</v>
+      </c>
+      <c r="P149" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="S149" t="s">
+        <v>52</v>
+      </c>
+      <c r="T149">
+        <v>9000</v>
+      </c>
+      <c r="U149">
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="V149">
+        <v>7.547150389839807E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S150" t="s">
+        <v>76</v>
+      </c>
+      <c r="T150">
+        <v>20000</v>
+      </c>
+      <c r="U150">
+        <v>4.9751243781094526E-3</v>
+      </c>
+      <c r="V150">
+        <v>3.4168690819672753E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S151" t="s">
+        <v>165</v>
+      </c>
+      <c r="T151">
+        <v>50000</v>
+      </c>
+      <c r="U151">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V151">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S152" t="s">
+        <v>77</v>
+      </c>
+      <c r="T152">
+        <v>12500</v>
+      </c>
+      <c r="U152">
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="V152">
+        <v>5.4507197259954154E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S153" t="s">
+        <v>109</v>
+      </c>
+      <c r="T153">
+        <v>30000</v>
+      </c>
+      <c r="U153">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V153">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S154" t="s">
+        <v>118</v>
+      </c>
+      <c r="T154">
+        <v>30000</v>
+      </c>
+      <c r="U154">
+        <v>3.3222591362126247E-3</v>
+      </c>
+      <c r="V154">
+        <v>2.2816966294864531E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S155" t="s">
+        <v>107</v>
+      </c>
+      <c r="T155">
+        <v>10000</v>
+      </c>
+      <c r="U155">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="V155">
+        <v>6.7999077769843805E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S156" t="s">
+        <v>177</v>
+      </c>
+      <c r="T156">
+        <v>50000</v>
+      </c>
+      <c r="U156">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V156">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S157" t="s">
+        <v>176</v>
+      </c>
+      <c r="T157">
+        <v>50000</v>
+      </c>
+      <c r="U157">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V157">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S158" t="s">
+        <v>148</v>
+      </c>
+      <c r="T158">
+        <v>50000</v>
+      </c>
+      <c r="U158">
+        <v>1.996007984031936E-3</v>
+      </c>
+      <c r="V158">
+        <v>1.3708396915677093E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
+        <v>55</v>
+      </c>
+      <c r="T159">
+        <v>6600</v>
+      </c>
+      <c r="U159">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="V159">
+        <v>1.0250607245901827E-2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:O149">
+    <sortCondition ref="H3"/>
+  </sortState>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-2.5"/>
         <cfvo type="num" val="0.5"/>
@@ -8013,7 +11143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="300"/>
@@ -8025,6 +11155,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF71C9FF"/>
+        <color rgb="FFFFF1AB"/>
+        <color rgb="FFE66800"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
